--- a/DMOS.xlsx
+++ b/DMOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedromartin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedromartin/Documents/GitHub/NeRF-QA-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3DD899-B3BB-E847-9B2B-A0C7EF0CAB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56334048-261F-5649-9EBA-CAE7EEA1C8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -446,13 +446,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,6 +526,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F9F9"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -838,7 +841,7 @@
   <dimension ref="A1:AMJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,16 +890,16 @@
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>15.5465</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>99.916499999999999</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>84.37</v>
       </c>
     </row>
@@ -904,16 +907,16 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>11.452999999999999</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>99.415999999999997</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>87.962999999999994</v>
       </c>
     </row>
@@ -921,16 +924,16 @@
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>6.2510000000000101</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>99.721999999999994</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>93.471000000000004</v>
       </c>
     </row>
@@ -938,16 +941,16 @@
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>47.666499999999999</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>99.730999999999995</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>52.064500000000002</v>
       </c>
     </row>
@@ -955,16 +958,16 @@
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>29.751000000000001</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>99.537000000000006</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>69.786000000000001</v>
       </c>
     </row>
@@ -972,16 +975,16 @@
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>45.796500000000002</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>99.787000000000006</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>53.990499999999997</v>
       </c>
     </row>
@@ -989,16 +992,16 @@
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>44.334499999999998</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>99.75</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>55.415500000000002</v>
       </c>
     </row>
@@ -1006,16 +1009,16 @@
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>91.241</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>97.6755</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>6.4344999999999999</v>
       </c>
     </row>
@@ -1023,16 +1026,16 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="9">
         <v>65.407499999999999</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>99.657499999999999</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>34.25</v>
       </c>
     </row>
@@ -1040,16 +1043,16 @@
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="9">
         <v>1.611</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>99.767499999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>98.156499999999994</v>
       </c>
     </row>
@@ -1057,16 +1060,16 @@
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="9">
         <v>2.2414999999999998</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>99.564499999999995</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>97.322999999999993</v>
       </c>
     </row>
@@ -1074,16 +1077,16 @@
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="9">
         <v>78.416499999999999</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>99.009</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>20.592500000000001</v>
       </c>
     </row>
@@ -1091,16 +1094,16 @@
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="9">
         <v>70.186000000000007</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>99.064999999999998</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <v>28.879000000000001</v>
       </c>
     </row>
@@ -1108,16 +1111,16 @@
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="9">
         <v>91.388499999999993</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>96.787000000000006</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>5.3985000000000003</v>
       </c>
     </row>
@@ -1125,16 +1128,16 @@
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="9">
         <v>86</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>95.287000000000006</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>9.2870000000000008</v>
       </c>
     </row>
@@ -1142,16 +1145,16 @@
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="9">
         <v>98.861000000000004</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>88.777000000000001</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>-10.084</v>
       </c>
     </row>
@@ -1159,16 +1162,16 @@
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="9">
         <v>70.406999999999996</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>91.471999999999994</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <v>21.065000000000001</v>
       </c>
     </row>
@@ -1176,16 +1179,16 @@
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="9">
         <v>96.852000000000004</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>98.509</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <v>1.657</v>
       </c>
     </row>
@@ -1193,16 +1196,16 @@
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="9">
         <v>58.591999999999999</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>92.832499999999996</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="11">
         <v>34.240499999999997</v>
       </c>
     </row>
@@ -1210,16 +1213,16 @@
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="9">
         <v>86.063999999999993</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="10">
         <v>95.480999999999995</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>9.4169999999999998</v>
       </c>
     </row>
@@ -1227,16 +1230,16 @@
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="9">
         <v>50.841999999999999</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="10">
         <v>96.259</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="11">
         <v>45.417000000000002</v>
       </c>
     </row>
@@ -1244,16 +1247,16 @@
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="9">
         <v>99.888499999999993</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="10">
         <v>87.721500000000006</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="11">
         <v>-12.167</v>
       </c>
     </row>
@@ -1261,16 +1264,16 @@
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="9">
         <v>97.230500000000006</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="10">
         <v>95.166499999999999</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="11">
         <v>-2.0640000000000001</v>
       </c>
     </row>
@@ -1278,16 +1281,16 @@
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="9">
         <v>11.852499999999999</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>99.601500000000001</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="11">
         <v>87.748999999999995</v>
       </c>
     </row>
@@ -1295,16 +1298,16 @@
       <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="9">
         <v>63.323999999999998</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="10">
         <v>99.573499999999996</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="11">
         <v>36.249499999999998</v>
       </c>
     </row>
@@ -1312,16 +1315,16 @@
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="9">
         <v>48.482500000000002</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="10">
         <v>99.712000000000003</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="11">
         <v>51.229500000000002</v>
       </c>
     </row>
@@ -1329,16 +1332,16 @@
       <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="9">
         <v>8.3614999999999799</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="10">
         <v>99.879000000000005</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="11">
         <v>91.517499999999998</v>
       </c>
     </row>
@@ -1346,16 +1349,16 @@
       <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="9">
         <v>33.036999999999999</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="10">
         <v>99.4345</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="11">
         <v>66.397499999999994</v>
       </c>
     </row>
@@ -1363,16 +1366,16 @@
       <c r="A31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="9">
         <v>77.676500000000004</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="10">
         <v>99.202500000000001</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="11">
         <v>21.526</v>
       </c>
     </row>
@@ -1380,16 +1383,16 @@
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="9">
         <v>62.405999999999999</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="10">
         <v>99.712500000000006</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="11">
         <v>37.3065</v>
       </c>
     </row>
@@ -1397,16 +1400,16 @@
       <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="9">
         <v>37.833500000000001</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>99.656999999999996</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="11">
         <v>61.823500000000003</v>
       </c>
     </row>
@@ -1414,16 +1417,16 @@
       <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="9">
         <v>60.759500000000003</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <v>98.36</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="11">
         <v>37.600499999999997</v>
       </c>
     </row>
@@ -1431,16 +1434,16 @@
       <c r="A35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="9">
         <v>51.648499999999999</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>98.471000000000004</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="11">
         <v>46.822499999999998</v>
       </c>
     </row>
@@ -1448,16 +1451,16 @@
       <c r="A36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="9">
         <v>43.000500000000002</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <v>99.665999999999997</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="11">
         <v>56.665500000000002</v>
       </c>
     </row>
@@ -1465,16 +1468,16 @@
       <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="9">
         <v>24.000499999999999</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="10">
         <v>99.240499999999997</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="11">
         <v>75.239999999999995</v>
       </c>
     </row>
@@ -1482,16 +1485,16 @@
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="9">
         <v>42.01</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <v>99.740499999999997</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="11">
         <v>57.730499999999999</v>
       </c>
     </row>
@@ -1499,16 +1502,16 @@
       <c r="A39" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="9">
         <v>38.648499999999999</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="10">
         <v>99.582999999999998</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="11">
         <v>60.9345</v>
       </c>
     </row>
@@ -1516,16 +1519,16 @@
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="9">
         <v>85.852500000000006</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>98.749499999999998</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="11">
         <v>12.897</v>
       </c>
     </row>
@@ -1533,16 +1536,16 @@
       <c r="A41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="9">
         <v>86.6845</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="10">
         <v>98.415999999999997</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="11">
         <v>11.7315</v>
       </c>
     </row>
@@ -1550,16 +1553,16 @@
       <c r="A42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="9">
         <v>16.084</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="10">
         <v>99.537000000000006</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="11">
         <v>83.453000000000003</v>
       </c>
     </row>
@@ -1567,16 +1570,16 @@
       <c r="A43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="9">
         <v>75.629499999999993</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="10">
         <v>99.721999999999994</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="11">
         <v>24.092500000000001</v>
       </c>
     </row>
@@ -1584,16 +1587,16 @@
       <c r="A44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="9">
         <v>70.25</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="10">
         <v>99.4435</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="11">
         <v>29.1935</v>
       </c>
     </row>
@@ -1601,16 +1604,16 @@
       <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="9">
         <v>30.036999999999999</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="10">
         <v>99.6845</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="11">
         <v>69.647499999999994</v>
       </c>
     </row>
@@ -1618,16 +1621,16 @@
       <c r="A46" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="9">
         <v>56.537500000000001</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="10">
         <v>99.491</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="11">
         <v>42.953499999999998</v>
       </c>
     </row>
@@ -1635,16 +1638,16 @@
       <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="9">
         <v>87.453500000000005</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>99.546000000000006</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="11">
         <v>12.092499999999999</v>
       </c>
     </row>
@@ -1652,33 +1655,33 @@
       <c r="A48" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="9">
         <v>82.38</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="10">
         <v>99.555000000000007</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="11">
         <v>17.175000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="13">
         <v>46.444000000000003</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="14">
         <v>99.611000000000004</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="15">
         <v>53.167000000000002</v>
       </c>
     </row>

--- a/DMOS.xlsx
+++ b/DMOS.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedromartin/Documents/GitHub/NeRF-QA-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA371B0-F112-FE4E-89E6-EF4971C9455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F28DC-CA06-3847-90B4-C2931D3CDF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -42,34 +39,19 @@
     <t>DMOS</t>
   </si>
   <si>
-    <t>drums_dvgo_ss1.mp4</t>
-  </si>
-  <si>
     <t>drums_reference.mp4</t>
   </si>
   <si>
     <t>drums_dvgo_ss2.mp4</t>
   </si>
   <si>
-    <t>drums_instantNGP_ss1.mp4</t>
-  </si>
-  <si>
     <t>drums_instantNGP_ss2.mp4</t>
-  </si>
-  <si>
-    <t>drums_plenoxels_ss1.mp4</t>
   </si>
   <si>
     <t>drums_plenoxels_ss2.mp4</t>
   </si>
   <si>
-    <t>drums_tensorf_ss1.mp4</t>
-  </si>
-  <si>
     <t>drums_tensorf_ss2.mp4</t>
-  </si>
-  <si>
-    <t>ficus_dvgo_ss1.mp4</t>
   </si>
   <si>
     <t>ficus_reference.mp4</t>
@@ -78,25 +60,13 @@
     <t>ficus_dvgo_ss2.mp4</t>
   </si>
   <si>
-    <t>ficus_instantNGP_ss1.mp4</t>
-  </si>
-  <si>
     <t>ficus_instantNGP_ss2.mp4</t>
-  </si>
-  <si>
-    <t>ficus_plenoxels_ss1.mp4</t>
   </si>
   <si>
     <t>ficus_plenoxels_ss2.mp4</t>
   </si>
   <si>
-    <t>ficus_tensorf_ss1.mp4</t>
-  </si>
-  <si>
     <t>ficus_tensorf_ss2.mp4</t>
-  </si>
-  <si>
-    <t>lego_dvgo_ss1.mp4</t>
   </si>
   <si>
     <t>lego_reference.mp4</t>
@@ -105,19 +75,10 @@
     <t>lego_dvgo_ss2.mp4</t>
   </si>
   <si>
-    <t>lego_instantNGP_ss1.mp4</t>
-  </si>
-  <si>
     <t>lego_instantNGP_ss2.mp4</t>
   </si>
   <si>
-    <t>lego_plenoxels_ss1.mp4</t>
-  </si>
-  <si>
     <t>lego_plenoxels_ss2.mp4</t>
-  </si>
-  <si>
-    <t>lego_tensorf_ss1.mp4</t>
   </si>
   <si>
     <t>lego_tensorf_ss2.mp4</t>
@@ -147,28 +108,16 @@
     <t>playground_nerfplusplus.mp4</t>
   </si>
   <si>
-    <t>ship_dvgo_ss1.mp4</t>
-  </si>
-  <si>
     <t>ship_reference.mp4</t>
   </si>
   <si>
     <t>ship_dvgo_ss2.mp4</t>
   </si>
   <si>
-    <t>ship_instantNGP_ss1.mp4</t>
-  </si>
-  <si>
     <t>ship_instantNGP_ss2.mp4</t>
   </si>
   <si>
-    <t>ship_plenoxels_ss1.mp4</t>
-  </si>
-  <si>
     <t>ship_plenoxels_ss2.mp4</t>
-  </si>
-  <si>
-    <t>ship_tensorf_ss1.mp4</t>
   </si>
   <si>
     <t>ship_tensorf_ss2.mp4</t>
@@ -214,6 +163,54 @@
   </si>
   <si>
     <t xml:space="preserve">       Real Scenes</t>
+  </si>
+  <si>
+    <t>lego_tensorf.mp4</t>
+  </si>
+  <si>
+    <t>lego_dvgo.mp4</t>
+  </si>
+  <si>
+    <t>lego_instantNGP.mp4</t>
+  </si>
+  <si>
+    <t>ficus_tensorf.mp4</t>
+  </si>
+  <si>
+    <t>ficus_dvgo.mp4</t>
+  </si>
+  <si>
+    <t>lego_plenoxels.mp4</t>
+  </si>
+  <si>
+    <t>ship_tensorf.mp4</t>
+  </si>
+  <si>
+    <t>ficus_plenoxels.mp4</t>
+  </si>
+  <si>
+    <t>ship_dvgo.mp4</t>
+  </si>
+  <si>
+    <t>drums_plenoxels.mp4</t>
+  </si>
+  <si>
+    <t>drums_tensorf.mp4</t>
+  </si>
+  <si>
+    <t>ship_instantNGP.mp4</t>
+  </si>
+  <si>
+    <t>ship_plenoxels.mp4</t>
+  </si>
+  <si>
+    <t>drums_dvgo.mp4</t>
+  </si>
+  <si>
+    <t>drums_instantNGP.mp4</t>
+  </si>
+  <si>
+    <t>ficus_instantNGP.mp4</t>
   </si>
 </sst>
 </file>
@@ -5110,345 +5107,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Folha1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Folha2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="135">
-          <cell r="B135">
-            <v>-12.167</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>-10.084</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>-2.0640000000000001</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>1.657</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>5.3985000000000003</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>6.4344999999999999</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>9.2870000000000008</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>9.4169999999999998</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>11.7315</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>12.897</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>20.592500000000001</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>21.065000000000001</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>28.879000000000001</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>34.240499999999997</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>34.25</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>37.600499999999997</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>45.417000000000002</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>46.822499999999998</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>52.064500000000002</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>53.990499999999997</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>55.415500000000002</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>56.665500000000002</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>57.730499999999999</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>60.9345</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>65.694500000000005</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>69.186000000000007</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>75.239999999999995</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>84.37</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>87.962999999999994</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>93.471000000000004</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>97.322999999999993</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>98.156499999999994</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>12.092499999999999</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>17.175000000000001</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>21.526</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>24.092500000000001</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>29.1935</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>36.249499999999998</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>37.3065</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>42.953499999999998</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>51.229500000000002</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>53.167000000000002</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>61.823500000000003</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>66.397499999999994</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>69.647499999999994</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>83.453000000000003</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>87.748999999999995</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>91.517499999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="J4">
-            <v>65.194500000000019</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>87.962999999999994</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>52.064499999999988</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>53.990500000000011</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>6.4344999999999981</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>98.156499999999994</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>20.592500000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>5.3985000000000003</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>-10.084</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>1.6569999999999994</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>9.4169999999999963</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>-12.166999999999998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>37.600499999999997</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>56.665499999999994</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>57.730499999999992</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>12.897</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -5748,7 +5406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -5765,7 +5423,7 @@
     <row r="1" spans="1:26" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="22" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -5800,13 +5458,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3">
         <v>99.888499999999993</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3" s="21">
         <v>87.721500000000006</v>
@@ -5822,13 +5480,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6">
         <v>98.861000000000004</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>88.777000000000001</v>
@@ -5844,13 +5502,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <v>97.230500000000006</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
         <v>95.166499999999999</v>
@@ -5866,13 +5524,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6">
         <v>96.852000000000004</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
         <v>98.509</v>
@@ -5888,13 +5546,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6">
         <v>91.388499999999993</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
         <v>96.787000000000006</v>
@@ -5910,13 +5568,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6">
         <v>91.241</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
         <v>97.6755</v>
@@ -5932,13 +5590,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
         <v>86</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
         <v>95.287000000000006</v>
@@ -5954,13 +5612,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6">
         <v>86.063999999999993</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
         <v>95.480999999999995</v>
@@ -5976,13 +5634,13 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6">
         <v>86.6845</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
         <v>98.415999999999997</v>
@@ -5998,13 +5656,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6">
         <v>85.852500000000006</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
         <v>98.749499999999998</v>
@@ -6020,13 +5678,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6">
         <v>78.416499999999999</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
         <v>99.009</v>
@@ -6042,13 +5700,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6">
         <v>70.406999999999996</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
         <v>91.471999999999994</v>
@@ -6064,13 +5722,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
         <v>70.186000000000007</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
         <v>99.064999999999998</v>
@@ -6086,13 +5744,13 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6">
         <v>58.591999999999999</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
         <v>92.832499999999996</v>
@@ -6108,13 +5766,13 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="6">
         <v>65.407499999999999</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
         <v>99.657499999999999</v>
@@ -6130,13 +5788,13 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B18" s="6">
         <v>60.759500000000003</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
         <v>98.36</v>
@@ -6152,13 +5810,13 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
         <v>50.841999999999999</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
         <v>96.259</v>
@@ -6174,13 +5832,13 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6">
         <v>51.648499999999999</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
         <v>98.471000000000004</v>
@@ -6196,13 +5854,13 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B21" s="6">
         <v>47.666499999999999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="7">
         <v>99.730999999999995</v>
@@ -6218,13 +5876,13 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B22" s="6">
         <v>45.796500000000002</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
         <v>99.787000000000006</v>
@@ -6240,13 +5898,13 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" s="6">
         <v>44.334499999999998</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
         <v>99.75</v>
@@ -6262,13 +5920,13 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B24" s="6">
         <v>43.000500000000002</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
         <v>99.665999999999997</v>
@@ -6284,13 +5942,13 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B25" s="6">
         <v>42.01</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
         <v>99.740499999999997</v>
@@ -6306,13 +5964,13 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B26" s="6">
         <v>38.648499999999999</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D26" s="7">
         <v>99.582999999999998</v>
@@ -6328,13 +5986,13 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B27" s="6">
         <v>34.555500000000002</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="6">
         <v>99.75</v>
@@ -6350,13 +6008,13 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="6">
         <v>29.751000000000001</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
         <v>99.537000000000006</v>
@@ -6372,13 +6030,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6">
         <v>24.000499999999999</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7">
         <v>99.240499999999997</v>
@@ -6394,13 +6052,13 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="6">
         <v>15.5465</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
         <v>99.916499999999999</v>
@@ -6416,13 +6074,13 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6">
         <v>11.452999999999999</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
         <v>99.415999999999997</v>
@@ -6438,13 +6096,13 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="6">
         <v>6.2510000000000101</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
         <v>99.721999999999994</v>
@@ -6460,13 +6118,13 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B33" s="6">
         <v>2.2414999999999998</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="7">
         <v>99.564499999999995</v>
@@ -6482,13 +6140,13 @@
     </row>
     <row r="34" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B34" s="10">
         <v>1.611</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="11">
         <v>99.767499999999998</v>
@@ -6529,7 +6187,7 @@
     <row r="37" spans="1:26" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="22" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -6564,13 +6222,13 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
         <v>87.453500000000005</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D39" s="21">
         <v>99.546000000000006</v>
@@ -6586,13 +6244,13 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
         <v>82.38</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D40" s="7">
         <v>99.555000000000007</v>
@@ -6608,13 +6266,13 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B41" s="6">
         <v>77.676500000000004</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D41" s="7">
         <v>99.202500000000001</v>
@@ -6630,13 +6288,13 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B42" s="6">
         <v>75.629499999999993</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D42" s="7">
         <v>99.721999999999994</v>
@@ -6652,13 +6310,13 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B43" s="6">
         <v>70.25</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D43" s="7">
         <v>99.4435</v>
@@ -6674,13 +6332,13 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B44" s="6">
         <v>63.323999999999998</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D44" s="7">
         <v>99.573499999999996</v>
@@ -6696,13 +6354,13 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B45" s="6">
         <v>62.405999999999999</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D45" s="7">
         <v>99.712500000000006</v>
@@ -6718,13 +6376,13 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B46" s="6">
         <v>56.537500000000001</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D46" s="7">
         <v>99.491</v>
@@ -6740,13 +6398,13 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B47" s="6">
         <v>48.482500000000002</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D47" s="7">
         <v>99.712000000000003</v>
@@ -6762,13 +6420,13 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B48" s="6">
         <v>46.444000000000003</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D48" s="7">
         <v>99.611000000000004</v>
@@ -6784,13 +6442,13 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B49" s="6">
         <v>37.833500000000001</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D49" s="7">
         <v>99.656999999999996</v>
@@ -6806,13 +6464,13 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B50" s="6">
         <v>33.036999999999999</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D50" s="7">
         <v>99.4345</v>
@@ -6823,13 +6481,13 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B51" s="6">
         <v>30.036999999999999</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D51" s="7">
         <v>99.6845</v>
@@ -6840,13 +6498,13 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B52" s="6">
         <v>16.084</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D52" s="7">
         <v>99.537000000000006</v>
@@ -6857,13 +6515,13 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B53" s="6">
         <v>11.852499999999999</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D53" s="7">
         <v>99.601500000000001</v>
@@ -6874,13 +6532,13 @@
     </row>
     <row r="54" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B54" s="10">
         <v>8.3614999999999799</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D54" s="11">
         <v>99.879000000000005</v>

--- a/DMOS.xlsx
+++ b/DMOS.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedromartin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedromartin/Documents/GitHub/NeRF-QA-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE4675A-51D9-BC4F-9F4C-D89E563A8096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7068D9BC-3DDD-934C-9D08-7A5681ED935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="DMOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
   <si>
     <t>Individual Differential Scores</t>
   </si>
@@ -292,9 +291,6 @@
     <t xml:space="preserve">    Synthetic Scenes (Realistic Synthetic 360°)</t>
   </si>
   <si>
-    <t xml:space="preserve">              Real Scenes (Tanks and Temples)</t>
-  </si>
-  <si>
     <t>Subjects</t>
   </si>
 </sst>
@@ -421,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -788,11 +784,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -875,6 +913,14 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,6 +995,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFAFB8B4"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
@@ -1119,6 +1166,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-069A-814B-BC63-B2522701E491}"/>
                 </c:ext>
@@ -1150,6 +1198,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-069A-814B-BC63-B2522701E491}"/>
                 </c:ext>
@@ -1181,6 +1230,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-069A-814B-BC63-B2522701E491}"/>
                 </c:ext>
@@ -1212,6 +1262,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-069A-814B-BC63-B2522701E491}"/>
                 </c:ext>
@@ -1243,6 +1294,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-069A-814B-BC63-B2522701E491}"/>
                 </c:ext>
@@ -1274,6 +1326,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-069A-814B-BC63-B2522701E491}"/>
                 </c:ext>
@@ -1305,6 +1358,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-069A-814B-BC63-B2522701E491}"/>
                 </c:ext>
@@ -1349,7 +1403,7 @@
           </c:dLbls>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$3:$C$34</c:f>
+              <c:f>DMOS!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1781,7 +1835,7 @@
           </c:dLbls>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$39:$C$54</c:f>
+              <c:f>DMOS!$C$39:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2177,7 +2231,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$27,Folha1!$C$8,Folha1!$C$4,Folha1!$C$18)</c:f>
+              <c:f>(DMOS!$C$27,DMOS!$C$8,DMOS!$C$4,DMOS!$C$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2254,7 +2308,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$31,Folha1!$C$34,Folha1!$C$6,Folha1!$C$24)</c:f>
+              <c:f>(DMOS!$C$31,DMOS!$C$34,DMOS!$C$6,DMOS!$C$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2331,7 +2385,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$21,Folha1!$C$13,Folha1!$C$10,Folha1!$C$25)</c:f>
+              <c:f>(DMOS!$C$21,DMOS!$C$13,DMOS!$C$10,DMOS!$C$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2408,7 +2462,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$22,Folha1!$C$7,Folha1!$C$3,Folha1!$C$12)</c:f>
+              <c:f>(DMOS!$C$22,DMOS!$C$7,DMOS!$C$3,DMOS!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2658,7 +2712,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$53,Folha1!$C$50,Folha1!$C$52,Folha1!$C$46)</c:f>
+              <c:f>(DMOS!$C$53,DMOS!$C$50,DMOS!$C$52,DMOS!$C$46)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2735,7 +2789,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$44,Folha1!$C$41,Folha1!$C$42,Folha1!$C$39)</c:f>
+              <c:f>(DMOS!$C$44,DMOS!$C$41,DMOS!$C$42,DMOS!$C$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2812,7 +2866,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$47,Folha1!$C$45,Folha1!$C$43,Folha1!$C$40)</c:f>
+              <c:f>(DMOS!$C$47,DMOS!$C$45,DMOS!$C$43,DMOS!$C$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2889,7 +2943,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Folha1!$C$54,Folha1!$C$49,Folha1!$C$51,Folha1!$C$48)</c:f>
+              <c:f>(DMOS!$C$54,DMOS!$C$49,DMOS!$C$51,DMOS!$C$48)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3071,8 +3125,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>164515</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>30351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3639,13 +3693,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>592920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10316</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3660,8 +3714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14004000" y="3720240"/>
-          <a:ext cx="1058040" cy="267480"/>
+          <a:off x="9457520" y="3949700"/>
+          <a:ext cx="931080" cy="289716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3684,7 +3738,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
+        <a:bodyPr wrap="square" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4325,6 +4379,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CaixaDeTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64449A31-8DB0-6F47-AFF7-9817D8F7F909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="7518400"/>
+          <a:ext cx="3771900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1900" b="1"/>
+            <a:t>Real</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1900" b="1" baseline="0"/>
+            <a:t> Scenes (Tanks and Temples)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4769,20 +4893,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH69"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="16" width="25.33203125" style="1" customWidth="1"/>
-    <col min="17" max="35" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="35" width="10.6640625" style="1" customWidth="1"/>
     <col min="36" max="1022" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
@@ -4792,26 +4919,35 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="19"/>
+      <c r="S1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="18"/>
     </row>
-    <row r="2" spans="1:36" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -4825,26 +4961,77 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
+      <c r="S2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="34" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -4858,26 +5045,78 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
+      <c r="S3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="49">
+        <v>92.48</v>
+      </c>
+      <c r="V3" s="50">
+        <v>92.61</v>
+      </c>
+      <c r="W3" s="50">
+        <v>70.3</v>
+      </c>
+      <c r="X3" s="50">
+        <v>92.49</v>
+      </c>
+      <c r="Y3" s="50">
+        <v>91.62</v>
+      </c>
+      <c r="Z3" s="50">
+        <v>92.94</v>
+      </c>
+      <c r="AA3" s="50">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="AB3" s="50">
+        <v>81.48</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>93.94</v>
+      </c>
+      <c r="AD3" s="50">
+        <v>91.18</v>
+      </c>
+      <c r="AE3" s="50">
+        <v>86.56</v>
+      </c>
+      <c r="AF3" s="50">
+        <v>61.7</v>
+      </c>
+      <c r="AG3" s="50">
+        <v>83.18</v>
+      </c>
+      <c r="AH3" s="50">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="AI3" s="50">
+        <v>93.3</v>
+      </c>
+      <c r="AJ3" s="50">
+        <v>88.09</v>
+      </c>
+      <c r="AK3" s="50">
+        <v>93.59</v>
+      </c>
+      <c r="AL3" s="50">
+        <v>89.23</v>
+      </c>
+      <c r="AM3" s="50">
+        <v>68.08</v>
+      </c>
+      <c r="AN3" s="51">
+        <v>63.95</v>
+      </c>
+      <c r="AO3" s="46">
+        <f>AVERAGE(U3:AN3)</f>
+        <v>84.373500000000007</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -4891,26 +5130,78 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
+      <c r="S4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="52">
+        <v>54.49</v>
+      </c>
+      <c r="V4" s="53">
+        <v>53.69</v>
+      </c>
+      <c r="W4" s="53">
+        <v>53.07</v>
+      </c>
+      <c r="X4" s="53">
+        <v>29.77</v>
+      </c>
+      <c r="Y4" s="53">
+        <v>51.47</v>
+      </c>
+      <c r="Z4" s="53">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="AA4" s="53">
+        <v>38.31</v>
+      </c>
+      <c r="AB4" s="53">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="53">
+        <v>79.19</v>
+      </c>
+      <c r="AD4" s="53">
+        <v>75.2</v>
+      </c>
+      <c r="AE4" s="53">
+        <v>77.290000000000006</v>
+      </c>
+      <c r="AF4" s="53">
+        <v>79.36</v>
+      </c>
+      <c r="AG4" s="53">
+        <v>52.63</v>
+      </c>
+      <c r="AH4" s="53">
+        <v>22.88</v>
+      </c>
+      <c r="AI4" s="53">
+        <v>100</v>
+      </c>
+      <c r="AJ4" s="53">
+        <v>96.27</v>
+      </c>
+      <c r="AK4" s="53">
+        <v>82.98</v>
+      </c>
+      <c r="AL4" s="53">
+        <v>55.24</v>
+      </c>
+      <c r="AM4" s="53">
+        <v>53.61</v>
+      </c>
+      <c r="AN4" s="54">
+        <v>67.84</v>
+      </c>
+      <c r="AO4" s="47">
+        <f t="shared" ref="AO4:AO50" si="0">AVERAGE(U4:AN4)</f>
+        <v>65.246999999999986</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -4924,26 +5215,78 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
+      <c r="S5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="52">
+        <v>95.4</v>
+      </c>
+      <c r="V5" s="53">
+        <v>96.62</v>
+      </c>
+      <c r="W5" s="53">
+        <v>96.72</v>
+      </c>
+      <c r="X5" s="53">
+        <v>96.42</v>
+      </c>
+      <c r="Y5" s="53">
+        <v>96.54</v>
+      </c>
+      <c r="Z5" s="53">
+        <v>95.14</v>
+      </c>
+      <c r="AA5" s="53">
+        <v>96.2</v>
+      </c>
+      <c r="AB5" s="53">
+        <v>95.42</v>
+      </c>
+      <c r="AC5" s="53">
+        <v>97.31</v>
+      </c>
+      <c r="AD5" s="53">
+        <v>96.32</v>
+      </c>
+      <c r="AE5" s="53">
+        <v>49.87</v>
+      </c>
+      <c r="AF5" s="53">
+        <v>97.98</v>
+      </c>
+      <c r="AG5" s="53">
+        <v>96.52</v>
+      </c>
+      <c r="AH5" s="53">
+        <v>95.07</v>
+      </c>
+      <c r="AI5" s="53">
+        <v>96.97</v>
+      </c>
+      <c r="AJ5" s="53">
+        <v>96.21</v>
+      </c>
+      <c r="AK5" s="53">
+        <v>97.39</v>
+      </c>
+      <c r="AL5" s="53">
+        <v>96.95</v>
+      </c>
+      <c r="AM5" s="53">
+        <v>96.04</v>
+      </c>
+      <c r="AN5" s="54">
+        <v>84.27</v>
+      </c>
+      <c r="AO5" s="47">
+        <f t="shared" si="0"/>
+        <v>93.467999999999989</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -4957,26 +5300,78 @@
       <c r="P6" s="22"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
+      <c r="S6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="52">
+        <v>93.82</v>
+      </c>
+      <c r="V6" s="53">
+        <v>95.54</v>
+      </c>
+      <c r="W6" s="53">
+        <v>75.52</v>
+      </c>
+      <c r="X6" s="53">
+        <v>80.849999999999994</v>
+      </c>
+      <c r="Y6" s="53">
+        <v>91.09</v>
+      </c>
+      <c r="Z6" s="53">
+        <v>94.36</v>
+      </c>
+      <c r="AA6" s="53">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="AB6" s="53">
+        <v>94.03</v>
+      </c>
+      <c r="AC6" s="53">
+        <v>86.54</v>
+      </c>
+      <c r="AD6" s="53">
+        <v>91.47</v>
+      </c>
+      <c r="AE6" s="53">
+        <v>93.56</v>
+      </c>
+      <c r="AF6" s="53">
+        <v>81.93</v>
+      </c>
+      <c r="AG6" s="53">
+        <v>95.46</v>
+      </c>
+      <c r="AH6" s="53">
+        <v>94.93</v>
+      </c>
+      <c r="AI6" s="53">
+        <v>91.81</v>
+      </c>
+      <c r="AJ6" s="53">
+        <v>95.28</v>
+      </c>
+      <c r="AK6" s="53">
+        <v>76.38</v>
+      </c>
+      <c r="AL6" s="53">
+        <v>93.81</v>
+      </c>
+      <c r="AM6" s="53">
+        <v>70.91</v>
+      </c>
+      <c r="AN6" s="54">
+        <v>86</v>
+      </c>
+      <c r="AO6" s="47">
+        <f t="shared" si="0"/>
+        <v>87.963999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -4990,26 +5385,78 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
+      <c r="S7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="52">
+        <v>55.89</v>
+      </c>
+      <c r="V7" s="53">
+        <v>73.5</v>
+      </c>
+      <c r="W7" s="53">
+        <v>31.18</v>
+      </c>
+      <c r="X7" s="53">
+        <v>54.39</v>
+      </c>
+      <c r="Y7" s="53">
+        <v>57.08</v>
+      </c>
+      <c r="Z7" s="53">
+        <v>79.86</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>56.51</v>
+      </c>
+      <c r="AB7" s="53">
+        <v>73.11</v>
+      </c>
+      <c r="AC7" s="53">
+        <v>90.13</v>
+      </c>
+      <c r="AD7" s="53">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="53">
+        <v>82.16</v>
+      </c>
+      <c r="AF7" s="53">
+        <v>56.5</v>
+      </c>
+      <c r="AG7" s="53">
+        <v>68.52</v>
+      </c>
+      <c r="AH7" s="53">
+        <v>55.06</v>
+      </c>
+      <c r="AI7" s="53">
+        <v>80.23</v>
+      </c>
+      <c r="AJ7" s="53">
+        <v>81.55</v>
+      </c>
+      <c r="AK7" s="53">
+        <v>75.39</v>
+      </c>
+      <c r="AL7" s="53">
+        <v>70.34</v>
+      </c>
+      <c r="AM7" s="53">
+        <v>93.5</v>
+      </c>
+      <c r="AN7" s="54">
+        <v>60.22</v>
+      </c>
+      <c r="AO7" s="47">
+        <f t="shared" si="0"/>
+        <v>69.756</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -5023,26 +5470,78 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
+      <c r="S8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="52">
+        <v>47.72</v>
+      </c>
+      <c r="V8" s="53">
+        <v>52.35</v>
+      </c>
+      <c r="W8" s="53">
+        <v>20.59</v>
+      </c>
+      <c r="X8" s="53">
+        <v>24.54</v>
+      </c>
+      <c r="Y8" s="53">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="Z8" s="53">
+        <v>72.03</v>
+      </c>
+      <c r="AA8" s="53">
+        <v>29.85</v>
+      </c>
+      <c r="AB8" s="53">
+        <v>75.13</v>
+      </c>
+      <c r="AC8" s="53">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="AD8" s="53">
+        <v>73.83</v>
+      </c>
+      <c r="AE8" s="53">
+        <v>71.83</v>
+      </c>
+      <c r="AF8" s="53">
+        <v>58.82</v>
+      </c>
+      <c r="AG8" s="53">
+        <v>60.47</v>
+      </c>
+      <c r="AH8" s="53">
+        <v>28.21</v>
+      </c>
+      <c r="AI8" s="53">
+        <v>48.99</v>
+      </c>
+      <c r="AJ8" s="53">
+        <v>33.81</v>
+      </c>
+      <c r="AK8" s="53">
+        <v>51.64</v>
+      </c>
+      <c r="AL8" s="53">
+        <v>50.1</v>
+      </c>
+      <c r="AM8" s="53">
+        <v>57.87</v>
+      </c>
+      <c r="AN8" s="54">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="AO8" s="47">
+        <f t="shared" si="0"/>
+        <v>52.068000000000019</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -5056,26 +5555,78 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
+      <c r="S9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="52">
+        <v>0</v>
+      </c>
+      <c r="V9" s="53">
+        <v>74.33</v>
+      </c>
+      <c r="W9" s="53">
+        <v>23.23</v>
+      </c>
+      <c r="X9" s="53">
+        <v>51.21</v>
+      </c>
+      <c r="Y9" s="53">
+        <v>-0.13</v>
+      </c>
+      <c r="Z9" s="53">
+        <v>74.44</v>
+      </c>
+      <c r="AA9" s="53">
+        <v>45.22</v>
+      </c>
+      <c r="AB9" s="53">
+        <v>99.99</v>
+      </c>
+      <c r="AC9" s="53">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="AD9" s="53">
+        <v>75.86</v>
+      </c>
+      <c r="AE9" s="53">
+        <v>73.28</v>
+      </c>
+      <c r="AF9" s="53">
+        <v>79.62</v>
+      </c>
+      <c r="AG9" s="53">
+        <v>63.38</v>
+      </c>
+      <c r="AH9" s="53">
+        <v>10.96</v>
+      </c>
+      <c r="AI9" s="53">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AJ9" s="53">
+        <v>76.56</v>
+      </c>
+      <c r="AK9" s="53">
+        <v>24.66</v>
+      </c>
+      <c r="AL9" s="53">
+        <v>50.9</v>
+      </c>
+      <c r="AM9" s="53">
+        <v>72.27</v>
+      </c>
+      <c r="AN9" s="54">
+        <v>63.88</v>
+      </c>
+      <c r="AO9" s="47">
+        <f t="shared" si="0"/>
+        <v>55.420500000000004</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
@@ -5089,26 +5640,78 @@
       <c r="P10" s="22"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
+      <c r="S10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="52">
+        <v>25.09</v>
+      </c>
+      <c r="V10" s="53">
+        <v>75.66</v>
+      </c>
+      <c r="W10" s="53">
+        <v>28.44</v>
+      </c>
+      <c r="X10" s="53">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="53">
+        <v>46.79</v>
+      </c>
+      <c r="Z10" s="53">
+        <v>63.64</v>
+      </c>
+      <c r="AA10" s="53">
+        <v>57.06</v>
+      </c>
+      <c r="AB10" s="53">
+        <v>49.82</v>
+      </c>
+      <c r="AC10" s="53">
+        <v>48.5</v>
+      </c>
+      <c r="AD10" s="53">
+        <v>98.83</v>
+      </c>
+      <c r="AE10" s="53">
+        <v>51.57</v>
+      </c>
+      <c r="AF10" s="53">
+        <v>75.459999999999994</v>
+      </c>
+      <c r="AG10" s="53">
+        <v>40.06</v>
+      </c>
+      <c r="AH10" s="53">
+        <v>37.35</v>
+      </c>
+      <c r="AI10" s="53">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="AJ10" s="53">
+        <v>74.88</v>
+      </c>
+      <c r="AK10" s="53">
+        <v>52.85</v>
+      </c>
+      <c r="AL10" s="53">
+        <v>43.53</v>
+      </c>
+      <c r="AM10" s="53">
+        <v>51.07</v>
+      </c>
+      <c r="AN10" s="54">
+        <v>53.71</v>
+      </c>
+      <c r="AO10" s="47">
+        <f t="shared" si="0"/>
+        <v>53.988500000000009</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -5122,26 +5725,78 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
+      <c r="S11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V11" s="53">
+        <v>0</v>
+      </c>
+      <c r="W11" s="53">
+        <v>24.68</v>
+      </c>
+      <c r="X11" s="53">
+        <v>25.77</v>
+      </c>
+      <c r="Y11" s="53">
+        <v>48.69</v>
+      </c>
+      <c r="Z11" s="53">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="AA11" s="53">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AB11" s="53">
+        <v>61.25</v>
+      </c>
+      <c r="AC11" s="53">
+        <v>49.12</v>
+      </c>
+      <c r="AD11" s="53">
+        <v>72.05</v>
+      </c>
+      <c r="AE11" s="53">
+        <v>23.86</v>
+      </c>
+      <c r="AF11" s="53">
+        <v>11.82</v>
+      </c>
+      <c r="AG11" s="53">
+        <v>60.95</v>
+      </c>
+      <c r="AH11" s="53">
+        <v>11.81</v>
+      </c>
+      <c r="AI11" s="53">
+        <v>12.88</v>
+      </c>
+      <c r="AJ11" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="53">
+        <v>50.79</v>
+      </c>
+      <c r="AL11" s="53">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="AM11" s="53">
+        <v>23.74</v>
+      </c>
+      <c r="AN11" s="54">
+        <v>41.7</v>
+      </c>
+      <c r="AO11" s="47">
+        <f t="shared" si="0"/>
+        <v>34.272500000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -5155,26 +5810,78 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
+      <c r="S12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="52">
+        <v>-0.11</v>
+      </c>
+      <c r="V12" s="53">
+        <v>0</v>
+      </c>
+      <c r="W12" s="53">
+        <v>5.47</v>
+      </c>
+      <c r="X12" s="53">
+        <v>-3.68</v>
+      </c>
+      <c r="Y12" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="53">
+        <v>8.39</v>
+      </c>
+      <c r="AB12" s="53">
+        <v>-22.36</v>
+      </c>
+      <c r="AC12" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="53">
+        <v>26.17</v>
+      </c>
+      <c r="AE12" s="53">
+        <v>1.03</v>
+      </c>
+      <c r="AF12" s="53">
+        <v>25.3</v>
+      </c>
+      <c r="AG12" s="53">
+        <v>28.86</v>
+      </c>
+      <c r="AH12" s="53">
+        <v>-0.11</v>
+      </c>
+      <c r="AI12" s="53">
+        <v>9.69</v>
+      </c>
+      <c r="AJ12" s="53">
+        <v>-13.36</v>
+      </c>
+      <c r="AK12" s="53">
+        <v>18.54</v>
+      </c>
+      <c r="AL12" s="53">
+        <v>21.69</v>
+      </c>
+      <c r="AM12" s="53">
+        <v>23.56</v>
+      </c>
+      <c r="AN12" s="54">
+        <v>0.49</v>
+      </c>
+      <c r="AO12" s="47">
+        <f t="shared" si="0"/>
+        <v>6.4784999999999995</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -5188,26 +5895,78 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
+      <c r="S13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="52">
+        <v>99.13</v>
+      </c>
+      <c r="V13" s="53">
+        <v>100</v>
+      </c>
+      <c r="W13" s="53">
+        <v>98.74</v>
+      </c>
+      <c r="X13" s="53">
+        <v>97.97</v>
+      </c>
+      <c r="Y13" s="53">
+        <v>99.65</v>
+      </c>
+      <c r="Z13" s="53">
+        <v>96.29</v>
+      </c>
+      <c r="AA13" s="53">
+        <v>100</v>
+      </c>
+      <c r="AB13" s="53">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="53">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="53">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="53">
+        <v>97.59</v>
+      </c>
+      <c r="AF13" s="53">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="53">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="53">
+        <v>98.74</v>
+      </c>
+      <c r="AI13" s="53">
+        <v>98.6</v>
+      </c>
+      <c r="AJ13" s="53">
+        <v>99.83</v>
+      </c>
+      <c r="AK13" s="53">
+        <v>97.19</v>
+      </c>
+      <c r="AL13" s="53">
+        <v>88.47</v>
+      </c>
+      <c r="AM13" s="53">
+        <v>99.43</v>
+      </c>
+      <c r="AN13" s="54">
+        <v>73.97</v>
+      </c>
+      <c r="AO13" s="47">
+        <f t="shared" si="0"/>
+        <v>97.28</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -5221,26 +5980,78 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
+      <c r="S14" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="52">
+        <v>100</v>
+      </c>
+      <c r="V14" s="53">
+        <v>100</v>
+      </c>
+      <c r="W14" s="53">
+        <v>90.04</v>
+      </c>
+      <c r="X14" s="53">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="53">
+        <v>96.62</v>
+      </c>
+      <c r="Z14" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="53">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="53">
+        <v>99.61</v>
+      </c>
+      <c r="AC14" s="53">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="53">
+        <v>96.03</v>
+      </c>
+      <c r="AE14" s="53">
+        <v>100</v>
+      </c>
+      <c r="AF14" s="53">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="53">
+        <v>99.46</v>
+      </c>
+      <c r="AH14" s="53">
+        <v>99.34</v>
+      </c>
+      <c r="AI14" s="53">
+        <v>98.21</v>
+      </c>
+      <c r="AJ14" s="53">
+        <v>99.15</v>
+      </c>
+      <c r="AK14" s="53">
+        <v>96.18</v>
+      </c>
+      <c r="AL14" s="53">
+        <v>92.23</v>
+      </c>
+      <c r="AM14" s="53">
+        <v>100</v>
+      </c>
+      <c r="AN14" s="54">
+        <v>96.52</v>
+      </c>
+      <c r="AO14" s="47">
+        <f t="shared" si="0"/>
+        <v>98.169500000000014</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -5254,26 +6065,78 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
+      <c r="S15" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="52">
+        <v>6.54</v>
+      </c>
+      <c r="V15" s="53">
+        <v>26.92</v>
+      </c>
+      <c r="W15" s="53">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="X15" s="53">
+        <v>26.09</v>
+      </c>
+      <c r="Y15" s="53">
+        <v>46.89</v>
+      </c>
+      <c r="Z15" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="53">
+        <v>-12.45</v>
+      </c>
+      <c r="AC15" s="53">
+        <v>9.94</v>
+      </c>
+      <c r="AD15" s="53">
+        <v>48.74</v>
+      </c>
+      <c r="AE15" s="53">
+        <v>25.5</v>
+      </c>
+      <c r="AF15" s="53">
+        <v>34.26</v>
+      </c>
+      <c r="AG15" s="53">
+        <v>31.45</v>
+      </c>
+      <c r="AH15" s="53">
+        <v>13.58</v>
+      </c>
+      <c r="AI15" s="53">
+        <v>49.78</v>
+      </c>
+      <c r="AJ15" s="53">
+        <v>25.17</v>
+      </c>
+      <c r="AK15" s="53">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AL15" s="53">
+        <v>39.71</v>
+      </c>
+      <c r="AM15" s="53">
+        <v>24.69</v>
+      </c>
+      <c r="AN15" s="54">
+        <v>44.29</v>
+      </c>
+      <c r="AO15" s="47">
+        <f t="shared" si="0"/>
+        <v>28.883499999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
@@ -5287,26 +6150,78 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
+      <c r="S16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="52">
+        <v>24.74</v>
+      </c>
+      <c r="V16" s="53">
+        <v>50.74</v>
+      </c>
+      <c r="W16" s="53">
+        <v>12.71</v>
+      </c>
+      <c r="X16" s="53">
+        <v>12.8</v>
+      </c>
+      <c r="Y16" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="53">
+        <v>49.85</v>
+      </c>
+      <c r="AA16" s="53">
+        <v>8.1</v>
+      </c>
+      <c r="AB16" s="53">
+        <v>11.73</v>
+      </c>
+      <c r="AC16" s="53">
+        <v>27.34</v>
+      </c>
+      <c r="AD16" s="53">
+        <v>22.46</v>
+      </c>
+      <c r="AE16" s="53">
+        <v>0.74</v>
+      </c>
+      <c r="AF16" s="53">
+        <v>25.21</v>
+      </c>
+      <c r="AG16" s="53">
+        <v>40.85</v>
+      </c>
+      <c r="AH16" s="53">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="AI16" s="53">
+        <v>2.16</v>
+      </c>
+      <c r="AJ16" s="53">
+        <v>-13.37</v>
+      </c>
+      <c r="AK16" s="53">
+        <v>24.62</v>
+      </c>
+      <c r="AL16" s="53">
+        <v>21.7</v>
+      </c>
+      <c r="AM16" s="53">
+        <v>24.28</v>
+      </c>
+      <c r="AN16" s="54">
+        <v>48.92</v>
+      </c>
+      <c r="AO16" s="47">
+        <f t="shared" si="0"/>
+        <v>20.6</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
@@ -5320,26 +6235,78 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
+      <c r="S17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="52">
+        <v>8.6</v>
+      </c>
+      <c r="V17" s="53">
+        <v>25.66</v>
+      </c>
+      <c r="W17" s="53">
+        <v>1.85</v>
+      </c>
+      <c r="X17" s="53">
+        <v>9.67</v>
+      </c>
+      <c r="Y17" s="53">
+        <v>52.74</v>
+      </c>
+      <c r="Z17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="53">
+        <v>6.99</v>
+      </c>
+      <c r="AB17" s="53">
+        <v>-24.44</v>
+      </c>
+      <c r="AC17" s="53">
+        <v>-8.7899999999999991</v>
+      </c>
+      <c r="AD17" s="53">
+        <v>-0.2</v>
+      </c>
+      <c r="AE17" s="53">
+        <v>1.93</v>
+      </c>
+      <c r="AF17" s="53">
+        <v>24.41</v>
+      </c>
+      <c r="AG17" s="53">
+        <v>57.29</v>
+      </c>
+      <c r="AH17" s="53">
+        <v>5.48</v>
+      </c>
+      <c r="AI17" s="53">
+        <v>24.55</v>
+      </c>
+      <c r="AJ17" s="53">
+        <v>-9.91</v>
+      </c>
+      <c r="AK17" s="53">
+        <v>-10.5</v>
+      </c>
+      <c r="AL17" s="53">
+        <v>34.18</v>
+      </c>
+      <c r="AM17" s="53">
+        <v>24.11</v>
+      </c>
+      <c r="AN17" s="54">
+        <v>-38.659999999999997</v>
+      </c>
+      <c r="AO17" s="47">
+        <f t="shared" si="0"/>
+        <v>9.2480000000000011</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -5353,26 +6320,78 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
+      <c r="S18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="52">
+        <v>-1.52</v>
+      </c>
+      <c r="V18" s="53">
+        <v>0</v>
+      </c>
+      <c r="W18" s="53">
+        <v>29.79</v>
+      </c>
+      <c r="X18" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="53">
+        <v>0.63</v>
+      </c>
+      <c r="Z18" s="53">
+        <v>30</v>
+      </c>
+      <c r="AA18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="53">
+        <v>-49.24</v>
+      </c>
+      <c r="AC18" s="53">
+        <v>3.1</v>
+      </c>
+      <c r="AD18" s="53">
+        <v>22.77</v>
+      </c>
+      <c r="AE18" s="53">
+        <v>-1.86</v>
+      </c>
+      <c r="AF18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="53">
+        <v>11.65</v>
+      </c>
+      <c r="AH18" s="53">
+        <v>-2.31</v>
+      </c>
+      <c r="AI18" s="53">
+        <v>-3.87</v>
+      </c>
+      <c r="AJ18" s="53">
+        <v>-0.73</v>
+      </c>
+      <c r="AK18" s="53">
+        <v>25.06</v>
+      </c>
+      <c r="AL18" s="53">
+        <v>21.15</v>
+      </c>
+      <c r="AM18" s="53">
+        <v>13.8</v>
+      </c>
+      <c r="AN18" s="54">
+        <v>9.25</v>
+      </c>
+      <c r="AO18" s="47">
+        <f t="shared" si="0"/>
+        <v>5.3834999999999997</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
@@ -5386,26 +6405,78 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
+      <c r="S19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" s="52">
+        <v>48.81</v>
+      </c>
+      <c r="V19" s="53">
+        <v>47.9</v>
+      </c>
+      <c r="W19" s="53">
+        <v>10.11</v>
+      </c>
+      <c r="X19" s="53">
+        <v>22.08</v>
+      </c>
+      <c r="Y19" s="53">
+        <v>1.45</v>
+      </c>
+      <c r="Z19" s="53">
+        <v>72.28</v>
+      </c>
+      <c r="AA19" s="53">
+        <v>-26.33</v>
+      </c>
+      <c r="AB19" s="53">
+        <v>19.29</v>
+      </c>
+      <c r="AC19" s="53">
+        <v>24.14</v>
+      </c>
+      <c r="AD19" s="53">
+        <v>-0.76</v>
+      </c>
+      <c r="AE19" s="53">
+        <v>-3.24</v>
+      </c>
+      <c r="AF19" s="53">
+        <v>62.03</v>
+      </c>
+      <c r="AG19" s="53">
+        <v>61.36</v>
+      </c>
+      <c r="AH19" s="53">
+        <v>66.34</v>
+      </c>
+      <c r="AI19" s="53">
+        <v>74.3</v>
+      </c>
+      <c r="AJ19" s="53">
+        <v>-51.57</v>
+      </c>
+      <c r="AK19" s="53">
+        <v>5.39</v>
+      </c>
+      <c r="AL19" s="53">
+        <v>33.67</v>
+      </c>
+      <c r="AM19" s="53">
+        <v>-1.27</v>
+      </c>
+      <c r="AN19" s="54">
+        <v>-35.44</v>
+      </c>
+      <c r="AO19" s="47">
+        <f t="shared" si="0"/>
+        <v>21.527000000000005</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>55</v>
       </c>
@@ -5419,26 +6490,78 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
+      <c r="S20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="52">
+        <v>-0.8</v>
+      </c>
+      <c r="V20" s="53">
+        <v>0</v>
+      </c>
+      <c r="W20" s="53">
+        <v>-0.78</v>
+      </c>
+      <c r="X20" s="53">
+        <v>-28.84</v>
+      </c>
+      <c r="Y20" s="53">
+        <v>2.36</v>
+      </c>
+      <c r="Z20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="53">
+        <v>-20.18</v>
+      </c>
+      <c r="AB20" s="53">
+        <v>0.27</v>
+      </c>
+      <c r="AC20" s="53">
+        <v>-0.92</v>
+      </c>
+      <c r="AD20" s="53">
+        <v>-2.86</v>
+      </c>
+      <c r="AE20" s="53">
+        <v>-49.2</v>
+      </c>
+      <c r="AF20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="53">
+        <v>16.66</v>
+      </c>
+      <c r="AH20" s="53">
+        <v>0.69</v>
+      </c>
+      <c r="AI20" s="53">
+        <v>-26.82</v>
+      </c>
+      <c r="AJ20" s="53">
+        <v>-23.86</v>
+      </c>
+      <c r="AK20" s="53">
+        <v>-25</v>
+      </c>
+      <c r="AL20" s="53">
+        <v>-13.74</v>
+      </c>
+      <c r="AM20" s="53">
+        <v>-23.44</v>
+      </c>
+      <c r="AN20" s="54">
+        <v>-3.92</v>
+      </c>
+      <c r="AO20" s="47">
+        <f t="shared" si="0"/>
+        <v>-10.019000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>38</v>
       </c>
@@ -5452,26 +6575,78 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
+      <c r="S21" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="52">
+        <v>45.53</v>
+      </c>
+      <c r="V21" s="53">
+        <v>48.44</v>
+      </c>
+      <c r="W21" s="53">
+        <v>21.17</v>
+      </c>
+      <c r="X21" s="53">
+        <v>-17.52</v>
+      </c>
+      <c r="Y21" s="53">
+        <v>47.83</v>
+      </c>
+      <c r="Z21" s="53">
+        <v>97.61</v>
+      </c>
+      <c r="AA21" s="53">
+        <v>22.31</v>
+      </c>
+      <c r="AB21" s="53">
+        <v>22.17</v>
+      </c>
+      <c r="AC21" s="53">
+        <v>23.94</v>
+      </c>
+      <c r="AD21" s="53">
+        <v>50.42</v>
+      </c>
+      <c r="AE21" s="53">
+        <v>-78.94</v>
+      </c>
+      <c r="AF21" s="53">
+        <v>59.55</v>
+      </c>
+      <c r="AG21" s="53">
+        <v>48.88</v>
+      </c>
+      <c r="AH21" s="53">
+        <v>-1.2</v>
+      </c>
+      <c r="AI21" s="53">
+        <v>91.94</v>
+      </c>
+      <c r="AJ21" s="53">
+        <v>20.88</v>
+      </c>
+      <c r="AK21" s="53">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="AL21" s="53">
+        <v>29.95</v>
+      </c>
+      <c r="AM21" s="53">
+        <v>26.15</v>
+      </c>
+      <c r="AN21" s="54">
+        <v>46.4</v>
+      </c>
+      <c r="AO21" s="47">
+        <f t="shared" si="0"/>
+        <v>33.788500000000006</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -5485,26 +6660,78 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
+      <c r="S22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="52">
+        <v>1.62</v>
+      </c>
+      <c r="V22" s="53">
+        <v>-15.98</v>
+      </c>
+      <c r="W22" s="53">
+        <v>0.79</v>
+      </c>
+      <c r="X22" s="53">
+        <v>1.43</v>
+      </c>
+      <c r="Y22" s="53">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="Z22" s="53">
+        <v>-0.33</v>
+      </c>
+      <c r="AA22" s="53">
+        <v>1.58</v>
+      </c>
+      <c r="AB22" s="53">
+        <v>0.54</v>
+      </c>
+      <c r="AC22" s="53">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="AD22" s="53">
+        <v>0.91</v>
+      </c>
+      <c r="AE22" s="53">
+        <v>1.21</v>
+      </c>
+      <c r="AF22" s="53">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AG22" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="AH22" s="53">
+        <v>1.37</v>
+      </c>
+      <c r="AI22" s="53">
+        <v>5.32</v>
+      </c>
+      <c r="AJ22" s="53">
+        <v>14.92</v>
+      </c>
+      <c r="AK22" s="53">
+        <v>10.99</v>
+      </c>
+      <c r="AL22" s="53">
+        <v>26.17</v>
+      </c>
+      <c r="AM22" s="53">
+        <v>1.21</v>
+      </c>
+      <c r="AN22" s="54">
+        <v>-22.72</v>
+      </c>
+      <c r="AO22" s="47">
+        <f t="shared" si="0"/>
+        <v>1.8305000000000002</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
@@ -5518,26 +6745,78 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
+      <c r="S23" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="52">
+        <v>47.9</v>
+      </c>
+      <c r="V23" s="53">
+        <v>45.13</v>
+      </c>
+      <c r="W23" s="53">
+        <v>8.02</v>
+      </c>
+      <c r="X23" s="53">
+        <v>49.7</v>
+      </c>
+      <c r="Y23" s="53">
+        <v>44.93</v>
+      </c>
+      <c r="Z23" s="53">
+        <v>71.13</v>
+      </c>
+      <c r="AA23" s="53">
+        <v>48.44</v>
+      </c>
+      <c r="AB23" s="53">
+        <v>31.59</v>
+      </c>
+      <c r="AC23" s="53">
+        <v>25.05</v>
+      </c>
+      <c r="AD23" s="53">
+        <v>46.5</v>
+      </c>
+      <c r="AE23" s="53">
+        <v>45.86</v>
+      </c>
+      <c r="AF23" s="53">
+        <v>59.23</v>
+      </c>
+      <c r="AG23" s="53">
+        <v>68.67</v>
+      </c>
+      <c r="AH23" s="53">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="AI23" s="53">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="AJ23" s="53">
+        <v>85.24</v>
+      </c>
+      <c r="AK23" s="53">
+        <v>42.16</v>
+      </c>
+      <c r="AL23" s="53">
+        <v>17.91</v>
+      </c>
+      <c r="AM23" s="53">
+        <v>32.65</v>
+      </c>
+      <c r="AN23" s="54">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="AO23" s="47">
+        <f t="shared" si="0"/>
+        <v>45.812999999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -5551,26 +6830,78 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
+      <c r="S24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="52">
+        <v>74.239999999999995</v>
+      </c>
+      <c r="V24" s="53">
+        <v>0</v>
+      </c>
+      <c r="W24" s="53">
+        <v>26.01</v>
+      </c>
+      <c r="X24" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="53">
+        <v>2.99</v>
+      </c>
+      <c r="Z24" s="53">
+        <v>64.69</v>
+      </c>
+      <c r="AA24" s="53">
+        <v>10.37</v>
+      </c>
+      <c r="AB24" s="53">
+        <v>-0.88</v>
+      </c>
+      <c r="AC24" s="53">
+        <v>9.64</v>
+      </c>
+      <c r="AD24" s="53">
+        <v>23.21</v>
+      </c>
+      <c r="AE24" s="53">
+        <v>-66.17</v>
+      </c>
+      <c r="AF24" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="53">
+        <v>-10.55</v>
+      </c>
+      <c r="AH24" s="53">
+        <v>7.97</v>
+      </c>
+      <c r="AI24" s="53">
+        <v>1.33</v>
+      </c>
+      <c r="AJ24" s="53">
+        <v>26.32</v>
+      </c>
+      <c r="AK24" s="53">
+        <v>6.69</v>
+      </c>
+      <c r="AL24" s="53">
+        <v>14.98</v>
+      </c>
+      <c r="AM24" s="53">
+        <v>-0.06</v>
+      </c>
+      <c r="AN24" s="54">
+        <v>-1.02</v>
+      </c>
+      <c r="AO24" s="47">
+        <f t="shared" si="0"/>
+        <v>9.4879999999999995</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -5584,26 +6915,78 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
+      <c r="S25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="52">
+        <v>0.13</v>
+      </c>
+      <c r="V25" s="53">
+        <v>0</v>
+      </c>
+      <c r="W25" s="53">
+        <v>0</v>
+      </c>
+      <c r="X25" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="53">
+        <v>1.33</v>
+      </c>
+      <c r="Z25" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="53">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AB25" s="53">
+        <v>-1.87</v>
+      </c>
+      <c r="AC25" s="53">
+        <v>6.54</v>
+      </c>
+      <c r="AD25" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="53">
+        <v>-50.51</v>
+      </c>
+      <c r="AF25" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="53">
+        <v>-1.35</v>
+      </c>
+      <c r="AH25" s="53">
+        <v>5.18</v>
+      </c>
+      <c r="AI25" s="53">
+        <v>2.11</v>
+      </c>
+      <c r="AJ25" s="53">
+        <v>22.71</v>
+      </c>
+      <c r="AK25" s="53">
+        <v>-8</v>
+      </c>
+      <c r="AL25" s="53">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="AM25" s="53">
+        <v>0.19</v>
+      </c>
+      <c r="AN25" s="54">
+        <v>-24.92</v>
+      </c>
+      <c r="AO25" s="47">
+        <f t="shared" si="0"/>
+        <v>-2.085</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -5617,26 +7000,78 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
+      <c r="S26" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U26" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V26" s="53">
+        <v>0</v>
+      </c>
+      <c r="W26" s="53">
+        <v>-23.53</v>
+      </c>
+      <c r="X26" s="53">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="Y26" s="53">
+        <v>-1.54</v>
+      </c>
+      <c r="Z26" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="53">
+        <v>-74.42</v>
+      </c>
+      <c r="AC26" s="53">
+        <v>-10.06</v>
+      </c>
+      <c r="AD26" s="53">
+        <v>0.33</v>
+      </c>
+      <c r="AE26" s="53">
+        <v>-72.349999999999994</v>
+      </c>
+      <c r="AF26" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="53">
+        <v>-20.55</v>
+      </c>
+      <c r="AH26" s="53">
+        <v>-0.23</v>
+      </c>
+      <c r="AI26" s="53">
+        <v>-5.29</v>
+      </c>
+      <c r="AJ26" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="53">
+        <v>-18.739999999999998</v>
+      </c>
+      <c r="AL26" s="53">
+        <v>-15.88</v>
+      </c>
+      <c r="AM26" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="54">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="47">
+        <f t="shared" si="0"/>
+        <v>-12.1555</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
@@ -5650,26 +7085,78 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
+      <c r="S27" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U27" s="52">
+        <v>50.57</v>
+      </c>
+      <c r="V27" s="53">
+        <v>100</v>
+      </c>
+      <c r="W27" s="53">
+        <v>91.2</v>
+      </c>
+      <c r="X27" s="53">
+        <v>65.72</v>
+      </c>
+      <c r="Y27" s="53">
+        <v>99.13</v>
+      </c>
+      <c r="Z27" s="53">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="AA27" s="53">
+        <v>95.69</v>
+      </c>
+      <c r="AB27" s="53">
+        <v>96.49</v>
+      </c>
+      <c r="AC27" s="53">
+        <v>96.09</v>
+      </c>
+      <c r="AD27" s="53">
+        <v>95.4</v>
+      </c>
+      <c r="AE27" s="53">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="AF27" s="53">
+        <v>98.45</v>
+      </c>
+      <c r="AG27" s="53">
+        <v>63.4</v>
+      </c>
+      <c r="AH27" s="53">
+        <v>96.31</v>
+      </c>
+      <c r="AI27" s="53">
+        <v>97.29</v>
+      </c>
+      <c r="AJ27" s="53">
+        <v>99.09</v>
+      </c>
+      <c r="AK27" s="53">
+        <v>94.11</v>
+      </c>
+      <c r="AL27" s="53">
+        <v>87.09</v>
+      </c>
+      <c r="AM27" s="53">
+        <v>99.11</v>
+      </c>
+      <c r="AN27" s="54">
+        <v>74.48</v>
+      </c>
+      <c r="AO27" s="47">
+        <f t="shared" si="0"/>
+        <v>87.70999999999998</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
@@ -5683,26 +7170,78 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
+      <c r="S28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U28" s="52">
+        <v>13.52</v>
+      </c>
+      <c r="V28" s="53">
+        <v>0</v>
+      </c>
+      <c r="W28" s="53">
+        <v>8.98</v>
+      </c>
+      <c r="X28" s="53">
+        <v>15.23</v>
+      </c>
+      <c r="Y28" s="53">
+        <v>49.17</v>
+      </c>
+      <c r="Z28" s="53">
+        <v>71.38</v>
+      </c>
+      <c r="AA28" s="53">
+        <v>51.26</v>
+      </c>
+      <c r="AB28" s="53">
+        <v>97.29</v>
+      </c>
+      <c r="AC28" s="53">
+        <v>49.2</v>
+      </c>
+      <c r="AD28" s="53">
+        <v>72.39</v>
+      </c>
+      <c r="AE28" s="53">
+        <v>6.14</v>
+      </c>
+      <c r="AF28" s="53">
+        <v>5.76</v>
+      </c>
+      <c r="AG28" s="53">
+        <v>11.71</v>
+      </c>
+      <c r="AH28" s="53">
+        <v>24.16</v>
+      </c>
+      <c r="AI28" s="53">
+        <v>25.44</v>
+      </c>
+      <c r="AJ28" s="53">
+        <v>50.44</v>
+      </c>
+      <c r="AK28" s="53">
+        <v>67.62</v>
+      </c>
+      <c r="AL28" s="53">
+        <v>73.06</v>
+      </c>
+      <c r="AM28" s="53">
+        <v>19.05</v>
+      </c>
+      <c r="AN28" s="54">
+        <v>13.38</v>
+      </c>
+      <c r="AO28" s="47">
+        <f t="shared" si="0"/>
+        <v>36.259</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
@@ -5716,26 +7255,78 @@
       <c r="P29" s="22"/>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
+      <c r="S29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="T29" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U29" s="52">
+        <v>24.18</v>
+      </c>
+      <c r="V29" s="53">
+        <v>50.41</v>
+      </c>
+      <c r="W29" s="53">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="X29" s="53">
+        <v>24.81</v>
+      </c>
+      <c r="Y29" s="53">
+        <v>22.88</v>
+      </c>
+      <c r="Z29" s="53">
+        <v>50.54</v>
+      </c>
+      <c r="AA29" s="53">
+        <v>45.93</v>
+      </c>
+      <c r="AB29" s="53">
+        <v>74.73</v>
+      </c>
+      <c r="AC29" s="53">
+        <v>88.52</v>
+      </c>
+      <c r="AD29" s="53">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="AE29" s="53">
+        <v>80.94</v>
+      </c>
+      <c r="AF29" s="53">
+        <v>28.12</v>
+      </c>
+      <c r="AG29" s="53">
+        <v>57.78</v>
+      </c>
+      <c r="AH29" s="53">
+        <v>29.55</v>
+      </c>
+      <c r="AI29" s="53">
+        <v>52.77</v>
+      </c>
+      <c r="AJ29" s="53">
+        <v>49.41</v>
+      </c>
+      <c r="AK29" s="53">
+        <v>78.72</v>
+      </c>
+      <c r="AL29" s="53">
+        <v>74.81</v>
+      </c>
+      <c r="AM29" s="53">
+        <v>25.17</v>
+      </c>
+      <c r="AN29" s="54">
+        <v>50.98</v>
+      </c>
+      <c r="AO29" s="47">
+        <f t="shared" si="0"/>
+        <v>51.229999999999983</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
@@ -5749,26 +7340,78 @@
       <c r="P30" s="22"/>
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
+      <c r="S30" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="U30" s="52">
+        <v>100</v>
+      </c>
+      <c r="V30" s="53">
+        <v>62.06</v>
+      </c>
+      <c r="W30" s="53">
+        <v>99.44</v>
+      </c>
+      <c r="X30" s="53">
+        <v>100</v>
+      </c>
+      <c r="Y30" s="53">
+        <v>97.2</v>
+      </c>
+      <c r="Z30" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA30" s="53">
+        <v>87.24</v>
+      </c>
+      <c r="AB30" s="53">
+        <v>99.58</v>
+      </c>
+      <c r="AC30" s="53">
+        <v>100</v>
+      </c>
+      <c r="AD30" s="53">
+        <v>97.63</v>
+      </c>
+      <c r="AE30" s="53">
+        <v>98.33</v>
+      </c>
+      <c r="AF30" s="53">
+        <v>96.56</v>
+      </c>
+      <c r="AG30" s="53">
+        <v>74.66</v>
+      </c>
+      <c r="AH30" s="53">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="AI30" s="53">
+        <v>93.48</v>
+      </c>
+      <c r="AJ30" s="53">
+        <v>98.99</v>
+      </c>
+      <c r="AK30" s="53">
+        <v>98.78</v>
+      </c>
+      <c r="AL30" s="53">
+        <v>100</v>
+      </c>
+      <c r="AM30" s="53">
+        <v>75.63</v>
+      </c>
+      <c r="AN30" s="54">
+        <v>75.73</v>
+      </c>
+      <c r="AO30" s="47">
+        <f t="shared" si="0"/>
+        <v>91.554999999999993</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
@@ -5782,26 +7425,78 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
-      <c r="AJ31" s="18"/>
+      <c r="S31" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T31" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="U31" s="52">
+        <v>37.39</v>
+      </c>
+      <c r="V31" s="53">
+        <v>62.26</v>
+      </c>
+      <c r="W31" s="53">
+        <v>43.1</v>
+      </c>
+      <c r="X31" s="53">
+        <v>48.51</v>
+      </c>
+      <c r="Y31" s="53">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="Z31" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA31" s="53">
+        <v>59.33</v>
+      </c>
+      <c r="AB31" s="53">
+        <v>76.22</v>
+      </c>
+      <c r="AC31" s="53">
+        <v>98.92</v>
+      </c>
+      <c r="AD31" s="53">
+        <v>71.34</v>
+      </c>
+      <c r="AE31" s="53">
+        <v>76.510000000000005</v>
+      </c>
+      <c r="AF31" s="53">
+        <v>69.37</v>
+      </c>
+      <c r="AG31" s="53">
+        <v>49.33</v>
+      </c>
+      <c r="AH31" s="53">
+        <v>58.35</v>
+      </c>
+      <c r="AI31" s="53">
+        <v>77.27</v>
+      </c>
+      <c r="AJ31" s="53">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="AK31" s="53">
+        <v>81.13</v>
+      </c>
+      <c r="AL31" s="53">
+        <v>58.98</v>
+      </c>
+      <c r="AM31" s="53">
+        <v>79.56</v>
+      </c>
+      <c r="AN31" s="54">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="AO31" s="47">
+        <f t="shared" si="0"/>
+        <v>66.406499999999994</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -5815,26 +7510,78 @@
       <c r="P32" s="22"/>
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="18"/>
-      <c r="AJ32" s="18"/>
+      <c r="S32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="U32" s="52">
+        <v>5.89</v>
+      </c>
+      <c r="V32" s="53">
+        <v>14.42</v>
+      </c>
+      <c r="W32" s="53">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="X32" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="53">
+        <v>26.67</v>
+      </c>
+      <c r="Z32" s="53">
+        <v>-0.1</v>
+      </c>
+      <c r="AA32" s="53">
+        <v>40.28</v>
+      </c>
+      <c r="AB32" s="53">
+        <v>24.89</v>
+      </c>
+      <c r="AC32" s="53">
+        <v>37.47</v>
+      </c>
+      <c r="AD32" s="53">
+        <v>-1.46</v>
+      </c>
+      <c r="AE32" s="53">
+        <v>-2.97</v>
+      </c>
+      <c r="AF32" s="53">
+        <v>37.76</v>
+      </c>
+      <c r="AG32" s="53">
+        <v>6.11</v>
+      </c>
+      <c r="AH32" s="53">
+        <v>25.02</v>
+      </c>
+      <c r="AI32" s="53">
+        <v>54.65</v>
+      </c>
+      <c r="AJ32" s="53">
+        <v>25.04</v>
+      </c>
+      <c r="AK32" s="53">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="AL32" s="53">
+        <v>21.83</v>
+      </c>
+      <c r="AM32" s="53">
+        <v>42.7</v>
+      </c>
+      <c r="AN32" s="54">
+        <v>26.65</v>
+      </c>
+      <c r="AO32" s="47">
+        <f t="shared" si="0"/>
+        <v>21.536999999999999</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -5848,26 +7595,78 @@
       <c r="P33" s="22"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="18"/>
+      <c r="S33" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="U33" s="52">
+        <v>24.69</v>
+      </c>
+      <c r="V33" s="53">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="W33" s="53">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="X33" s="53">
+        <v>25.13</v>
+      </c>
+      <c r="Y33" s="53">
+        <v>4.07</v>
+      </c>
+      <c r="Z33" s="53">
+        <v>52.38</v>
+      </c>
+      <c r="AA33" s="53">
+        <v>86.49</v>
+      </c>
+      <c r="AB33" s="53">
+        <v>25.88</v>
+      </c>
+      <c r="AC33" s="53">
+        <v>35.35</v>
+      </c>
+      <c r="AD33" s="53">
+        <v>23.41</v>
+      </c>
+      <c r="AE33" s="53">
+        <v>73.63</v>
+      </c>
+      <c r="AF33" s="53">
+        <v>50.38</v>
+      </c>
+      <c r="AG33" s="53">
+        <v>25.46</v>
+      </c>
+      <c r="AH33" s="53">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="AI33" s="53">
+        <v>47.4</v>
+      </c>
+      <c r="AJ33" s="53">
+        <v>49.88</v>
+      </c>
+      <c r="AK33" s="53">
+        <v>45.47</v>
+      </c>
+      <c r="AL33" s="53">
+        <v>36.85</v>
+      </c>
+      <c r="AM33" s="53">
+        <v>34.1</v>
+      </c>
+      <c r="AN33" s="54">
+        <v>25.96</v>
+      </c>
+      <c r="AO33" s="47">
+        <f t="shared" si="0"/>
+        <v>37.307500000000005</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>50</v>
       </c>
@@ -5881,26 +7680,78 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
+      <c r="S34" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T34" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="52">
+        <v>49.63</v>
+      </c>
+      <c r="V34" s="53">
+        <v>51.23</v>
+      </c>
+      <c r="W34" s="53">
+        <v>48.56</v>
+      </c>
+      <c r="X34" s="53">
+        <v>99.52</v>
+      </c>
+      <c r="Y34" s="53">
+        <v>74.08</v>
+      </c>
+      <c r="Z34" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA34" s="53">
+        <v>76.63</v>
+      </c>
+      <c r="AB34" s="53">
+        <v>86.45</v>
+      </c>
+      <c r="AC34" s="53">
+        <v>48.11</v>
+      </c>
+      <c r="AD34" s="53">
+        <v>49.62</v>
+      </c>
+      <c r="AE34" s="53">
+        <v>96.18</v>
+      </c>
+      <c r="AF34" s="53">
+        <v>26.07</v>
+      </c>
+      <c r="AG34" s="53">
+        <v>67.52</v>
+      </c>
+      <c r="AH34" s="53">
+        <v>50.05</v>
+      </c>
+      <c r="AI34" s="53">
+        <v>30.76</v>
+      </c>
+      <c r="AJ34" s="53">
+        <v>64.42</v>
+      </c>
+      <c r="AK34" s="53">
+        <v>51.97</v>
+      </c>
+      <c r="AL34" s="53">
+        <v>61.97</v>
+      </c>
+      <c r="AM34" s="53">
+        <v>71.75</v>
+      </c>
+      <c r="AN34" s="54">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="AO34" s="47">
+        <f t="shared" si="0"/>
+        <v>61.832500000000003</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -5908,82 +7759,236 @@
       <c r="P35" s="22"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
+      <c r="S35" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" s="52">
+        <v>49.55</v>
+      </c>
+      <c r="V35" s="53">
+        <v>40.53</v>
+      </c>
+      <c r="W35" s="53">
+        <v>-25.05</v>
+      </c>
+      <c r="X35" s="53">
+        <v>25.39</v>
+      </c>
+      <c r="Y35" s="53">
+        <v>50.9</v>
+      </c>
+      <c r="Z35" s="53">
+        <v>74.36</v>
+      </c>
+      <c r="AA35" s="53">
+        <v>62.9</v>
+      </c>
+      <c r="AB35" s="53">
+        <v>74.42</v>
+      </c>
+      <c r="AC35" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="53">
+        <v>50.05</v>
+      </c>
+      <c r="AE35" s="53">
+        <v>51.55</v>
+      </c>
+      <c r="AF35" s="53">
+        <v>59.66</v>
+      </c>
+      <c r="AG35" s="53">
+        <v>50.96</v>
+      </c>
+      <c r="AH35" s="53">
+        <v>77.27</v>
+      </c>
+      <c r="AI35" s="53">
+        <v>58.72</v>
+      </c>
+      <c r="AJ35" s="53">
+        <v>93.48</v>
+      </c>
+      <c r="AK35" s="53">
+        <v>25.6</v>
+      </c>
+      <c r="AL35" s="53">
+        <v>23.17</v>
+      </c>
+      <c r="AM35" s="53">
+        <v>38.18</v>
+      </c>
+      <c r="AN35" s="54">
+        <v>55.52</v>
+      </c>
+      <c r="AO35" s="47">
+        <f t="shared" si="0"/>
+        <v>46.857999999999997</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
+      <c r="S36" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" s="52">
+        <v>49.16</v>
+      </c>
+      <c r="V36" s="53">
+        <v>22.52</v>
+      </c>
+      <c r="W36" s="53">
+        <v>-23.59</v>
+      </c>
+      <c r="X36" s="53">
+        <v>26.68</v>
+      </c>
+      <c r="Y36" s="53">
+        <v>52.84</v>
+      </c>
+      <c r="Z36" s="53">
+        <v>49.48</v>
+      </c>
+      <c r="AA36" s="53">
+        <v>27.77</v>
+      </c>
+      <c r="AB36" s="53">
+        <v>47.64</v>
+      </c>
+      <c r="AC36" s="53">
+        <v>27.15</v>
+      </c>
+      <c r="AD36" s="53">
+        <v>52.5</v>
+      </c>
+      <c r="AE36" s="53">
+        <v>47.23</v>
+      </c>
+      <c r="AF36" s="53">
+        <v>24.52</v>
+      </c>
+      <c r="AG36" s="53">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="AH36" s="53">
+        <v>54.54</v>
+      </c>
+      <c r="AI36" s="53">
+        <v>40.29</v>
+      </c>
+      <c r="AJ36" s="53">
+        <v>48.6</v>
+      </c>
+      <c r="AK36" s="53">
+        <v>77.09</v>
+      </c>
+      <c r="AL36" s="53">
+        <v>16.66</v>
+      </c>
+      <c r="AM36" s="53">
+        <v>20.79</v>
+      </c>
+      <c r="AN36" s="54">
+        <v>51.63</v>
+      </c>
+      <c r="AO36" s="47">
+        <f t="shared" si="0"/>
+        <v>37.599000000000004</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
+    <row r="37" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
+      <c r="S37" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="T37" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U37" s="52">
+        <v>58.56</v>
+      </c>
+      <c r="V37" s="53">
+        <v>80.55</v>
+      </c>
+      <c r="W37" s="53">
+        <v>66.38</v>
+      </c>
+      <c r="X37" s="53">
+        <v>60.34</v>
+      </c>
+      <c r="Y37" s="53">
+        <v>70.33</v>
+      </c>
+      <c r="Z37" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA37" s="53">
+        <v>58.49</v>
+      </c>
+      <c r="AB37" s="53">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="AC37" s="53">
+        <v>75.08</v>
+      </c>
+      <c r="AD37" s="53">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="AE37" s="53">
+        <v>100</v>
+      </c>
+      <c r="AF37" s="53">
+        <v>83.71</v>
+      </c>
+      <c r="AG37" s="53">
+        <v>68.69</v>
+      </c>
+      <c r="AH37" s="53">
+        <v>84.23</v>
+      </c>
+      <c r="AI37" s="53">
+        <v>100</v>
+      </c>
+      <c r="AJ37" s="53">
+        <v>100</v>
+      </c>
+      <c r="AK37" s="53">
+        <v>78.430000000000007</v>
+      </c>
+      <c r="AL37" s="53">
+        <v>68.38</v>
+      </c>
+      <c r="AM37" s="53">
+        <v>91.9</v>
+      </c>
+      <c r="AN37" s="54">
+        <v>73.14</v>
+      </c>
+      <c r="AO37" s="47">
+        <f t="shared" si="0"/>
+        <v>75.790500000000009</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>1</v>
       </c>
@@ -5997,26 +8002,78 @@
       <c r="P38" s="22"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
+      <c r="S38" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="T38" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U38" s="52">
+        <v>50.5</v>
+      </c>
+      <c r="V38" s="53">
+        <v>81.75</v>
+      </c>
+      <c r="W38" s="53">
+        <v>30.47</v>
+      </c>
+      <c r="X38" s="53">
+        <v>51.07</v>
+      </c>
+      <c r="Y38" s="53">
+        <v>25.68</v>
+      </c>
+      <c r="Z38" s="53">
+        <v>48.81</v>
+      </c>
+      <c r="AA38" s="53">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="AB38" s="53">
+        <v>49.83</v>
+      </c>
+      <c r="AC38" s="53">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="AD38" s="53">
+        <v>79.66</v>
+      </c>
+      <c r="AE38" s="53">
+        <v>49.36</v>
+      </c>
+      <c r="AF38" s="53">
+        <v>61.57</v>
+      </c>
+      <c r="AG38" s="53">
+        <v>47.54</v>
+      </c>
+      <c r="AH38" s="53">
+        <v>77.94</v>
+      </c>
+      <c r="AI38" s="53">
+        <v>88.01</v>
+      </c>
+      <c r="AJ38" s="53">
+        <v>75.97</v>
+      </c>
+      <c r="AK38" s="53">
+        <v>75.59</v>
+      </c>
+      <c r="AL38" s="53">
+        <v>48.13</v>
+      </c>
+      <c r="AM38" s="53">
+        <v>62.39</v>
+      </c>
+      <c r="AN38" s="54">
+        <v>58.14</v>
+      </c>
+      <c r="AO38" s="47">
+        <f t="shared" si="0"/>
+        <v>56.661500000000011</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>80</v>
       </c>
@@ -6030,26 +8087,78 @@
       <c r="P39" s="22"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
+      <c r="S39" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39" s="52">
+        <v>53.44</v>
+      </c>
+      <c r="V39" s="53">
+        <v>48.13</v>
+      </c>
+      <c r="W39" s="53">
+        <v>50.3</v>
+      </c>
+      <c r="X39" s="53">
+        <v>49.78</v>
+      </c>
+      <c r="Y39" s="53">
+        <v>75.739999999999995</v>
+      </c>
+      <c r="Z39" s="53">
+        <v>72.75</v>
+      </c>
+      <c r="AA39" s="53">
+        <v>20.02</v>
+      </c>
+      <c r="AB39" s="53">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="AC39" s="53">
+        <v>32.72</v>
+      </c>
+      <c r="AD39" s="53">
+        <v>78.58</v>
+      </c>
+      <c r="AE39" s="53">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="AF39" s="53">
+        <v>51.93</v>
+      </c>
+      <c r="AG39" s="53">
+        <v>52.18</v>
+      </c>
+      <c r="AH39" s="53">
+        <v>84.78</v>
+      </c>
+      <c r="AI39" s="53">
+        <v>95.08</v>
+      </c>
+      <c r="AJ39" s="53">
+        <v>96.68</v>
+      </c>
+      <c r="AK39" s="53">
+        <v>74.92</v>
+      </c>
+      <c r="AL39" s="53">
+        <v>55.27</v>
+      </c>
+      <c r="AM39" s="53">
+        <v>62.53</v>
+      </c>
+      <c r="AN39" s="54">
+        <v>50.55</v>
+      </c>
+      <c r="AO39" s="47">
+        <f t="shared" si="0"/>
+        <v>60.935999999999993</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
@@ -6063,26 +8172,78 @@
       <c r="P40" s="22"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
+      <c r="S40" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U40" s="52">
+        <v>49.25</v>
+      </c>
+      <c r="V40" s="53">
+        <v>53.33</v>
+      </c>
+      <c r="W40" s="53">
+        <v>52.38</v>
+      </c>
+      <c r="X40" s="53">
+        <v>23.62</v>
+      </c>
+      <c r="Y40" s="53">
+        <v>49.31</v>
+      </c>
+      <c r="Z40" s="53">
+        <v>100</v>
+      </c>
+      <c r="AA40" s="53">
+        <v>43.03</v>
+      </c>
+      <c r="AB40" s="53">
+        <v>49.13</v>
+      </c>
+      <c r="AC40" s="53">
+        <v>31.36</v>
+      </c>
+      <c r="AD40" s="53">
+        <v>98.97</v>
+      </c>
+      <c r="AE40" s="53">
+        <v>75.3</v>
+      </c>
+      <c r="AF40" s="53">
+        <v>77.33</v>
+      </c>
+      <c r="AG40" s="53">
+        <v>49.52</v>
+      </c>
+      <c r="AH40" s="53">
+        <v>84.32</v>
+      </c>
+      <c r="AI40" s="53">
+        <v>40.72</v>
+      </c>
+      <c r="AJ40" s="53">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="AK40" s="53">
+        <v>70.53</v>
+      </c>
+      <c r="AL40" s="53">
+        <v>46.43</v>
+      </c>
+      <c r="AM40" s="53">
+        <v>31.33</v>
+      </c>
+      <c r="AN40" s="54">
+        <v>54.72</v>
+      </c>
+      <c r="AO40" s="47">
+        <f t="shared" si="0"/>
+        <v>57.707499999999996</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>81</v>
       </c>
@@ -6096,26 +8257,78 @@
       <c r="P41" s="22"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
+      <c r="S41" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T41" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U41" s="52">
+        <v>0</v>
+      </c>
+      <c r="V41" s="53">
+        <v>50.71</v>
+      </c>
+      <c r="W41" s="53">
+        <v>12.36</v>
+      </c>
+      <c r="X41" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="53">
+        <v>1.78</v>
+      </c>
+      <c r="Z41" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="53">
+        <v>9.35</v>
+      </c>
+      <c r="AB41" s="53">
+        <v>-2.48</v>
+      </c>
+      <c r="AC41" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="53">
+        <v>1.52</v>
+      </c>
+      <c r="AE41" s="53">
+        <v>-24.39</v>
+      </c>
+      <c r="AF41" s="53">
+        <v>1.82</v>
+      </c>
+      <c r="AG41" s="53">
+        <v>21.57</v>
+      </c>
+      <c r="AH41" s="53">
+        <v>20.04</v>
+      </c>
+      <c r="AI41" s="53">
+        <v>28.77</v>
+      </c>
+      <c r="AJ41" s="53">
+        <v>24.23</v>
+      </c>
+      <c r="AK41" s="53">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="AL41" s="53">
+        <v>41.12</v>
+      </c>
+      <c r="AM41" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="54">
+        <v>31.14</v>
+      </c>
+      <c r="AO41" s="47">
+        <f t="shared" si="0"/>
+        <v>11.729999999999999</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>82</v>
       </c>
@@ -6129,26 +8342,78 @@
       <c r="P42" s="22"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
+      <c r="S42" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T42" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U42" s="52">
+        <v>-0.21</v>
+      </c>
+      <c r="V42" s="53">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="W42" s="53">
+        <v>-7.62</v>
+      </c>
+      <c r="X42" s="53">
+        <v>-1.74</v>
+      </c>
+      <c r="Y42" s="53">
+        <v>22.21</v>
+      </c>
+      <c r="Z42" s="53">
+        <v>-2.48</v>
+      </c>
+      <c r="AA42" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="53">
+        <v>24.98</v>
+      </c>
+      <c r="AC42" s="53">
+        <v>7.86</v>
+      </c>
+      <c r="AD42" s="53">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="AE42" s="53">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="53">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AG42" s="53">
+        <v>23.45</v>
+      </c>
+      <c r="AH42" s="53">
+        <v>23.88</v>
+      </c>
+      <c r="AI42" s="53">
+        <v>22.78</v>
+      </c>
+      <c r="AJ42" s="53">
+        <v>49.71</v>
+      </c>
+      <c r="AK42" s="53">
+        <v>9.19</v>
+      </c>
+      <c r="AL42" s="53">
+        <v>25.99</v>
+      </c>
+      <c r="AM42" s="53">
+        <v>-0.34</v>
+      </c>
+      <c r="AN42" s="54">
+        <v>28.28</v>
+      </c>
+      <c r="AO42" s="47">
+        <f t="shared" si="0"/>
+        <v>12.860500000000002</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
@@ -6162,26 +8427,78 @@
       <c r="P43" s="22"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
-      <c r="AJ43" s="18"/>
+      <c r="S43" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="T43" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U43" s="52">
+        <v>99.72</v>
+      </c>
+      <c r="V43" s="53">
+        <v>99.83</v>
+      </c>
+      <c r="W43" s="53">
+        <v>86.82</v>
+      </c>
+      <c r="X43" s="53">
+        <v>99.5</v>
+      </c>
+      <c r="Y43" s="53">
+        <v>98.71</v>
+      </c>
+      <c r="Z43" s="53">
+        <v>73.16</v>
+      </c>
+      <c r="AA43" s="53">
+        <v>87.2</v>
+      </c>
+      <c r="AB43" s="53">
+        <v>75.05</v>
+      </c>
+      <c r="AC43" s="53">
+        <v>98.86</v>
+      </c>
+      <c r="AD43" s="53">
+        <v>90.52</v>
+      </c>
+      <c r="AE43" s="53">
+        <v>98.83</v>
+      </c>
+      <c r="AF43" s="53">
+        <v>100</v>
+      </c>
+      <c r="AG43" s="53">
+        <v>63.74</v>
+      </c>
+      <c r="AH43" s="53">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="AI43" s="53">
+        <v>73.63</v>
+      </c>
+      <c r="AJ43" s="53">
+        <v>100</v>
+      </c>
+      <c r="AK43" s="53">
+        <v>67.97</v>
+      </c>
+      <c r="AL43" s="53">
+        <v>75.19</v>
+      </c>
+      <c r="AM43" s="53">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="AN43" s="54">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="AO43" s="47">
+        <f t="shared" si="0"/>
+        <v>83.393500000000003</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>83</v>
       </c>
@@ -6195,26 +8512,78 @@
       <c r="P44" s="22"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
-      <c r="AJ44" s="18"/>
+      <c r="S44" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="T44" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U44" s="52">
+        <v>0</v>
+      </c>
+      <c r="V44" s="53">
+        <v>23.77</v>
+      </c>
+      <c r="W44" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="X44" s="53">
+        <v>14.43</v>
+      </c>
+      <c r="Y44" s="53">
+        <v>25.23</v>
+      </c>
+      <c r="Z44" s="53">
+        <v>65.59</v>
+      </c>
+      <c r="AA44" s="53">
+        <v>37.57</v>
+      </c>
+      <c r="AB44" s="53">
+        <v>12.74</v>
+      </c>
+      <c r="AC44" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="53">
+        <v>23.22</v>
+      </c>
+      <c r="AE44" s="53">
+        <v>46.44</v>
+      </c>
+      <c r="AF44" s="53">
+        <v>21.12</v>
+      </c>
+      <c r="AG44" s="53">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AH44" s="53">
+        <v>12.08</v>
+      </c>
+      <c r="AI44" s="53">
+        <v>16.02</v>
+      </c>
+      <c r="AJ44" s="53">
+        <v>74.5</v>
+      </c>
+      <c r="AK44" s="53">
+        <v>28.19</v>
+      </c>
+      <c r="AL44" s="53">
+        <v>21.99</v>
+      </c>
+      <c r="AM44" s="53">
+        <v>24.9</v>
+      </c>
+      <c r="AN44" s="54">
+        <v>17.45</v>
+      </c>
+      <c r="AO44" s="47">
+        <f t="shared" si="0"/>
+        <v>24.107499999999995</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>68</v>
       </c>
@@ -6228,26 +8597,78 @@
       <c r="P45" s="22"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="18"/>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="18"/>
+      <c r="S45" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="T45" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U45" s="52">
+        <v>0.61</v>
+      </c>
+      <c r="V45" s="53">
+        <v>17.87</v>
+      </c>
+      <c r="W45" s="53">
+        <v>32.14</v>
+      </c>
+      <c r="X45" s="53">
+        <v>11.49</v>
+      </c>
+      <c r="Y45" s="53">
+        <v>22.54</v>
+      </c>
+      <c r="Z45" s="53">
+        <v>50.02</v>
+      </c>
+      <c r="AA45" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB45" s="53">
+        <v>25.02</v>
+      </c>
+      <c r="AC45" s="53">
+        <v>5.47</v>
+      </c>
+      <c r="AD45" s="53">
+        <v>49.9</v>
+      </c>
+      <c r="AE45" s="53">
+        <v>48.56</v>
+      </c>
+      <c r="AF45" s="53">
+        <v>50.45</v>
+      </c>
+      <c r="AG45" s="53">
+        <v>9.74</v>
+      </c>
+      <c r="AH45" s="53">
+        <v>52.52</v>
+      </c>
+      <c r="AI45" s="53">
+        <v>31.46</v>
+      </c>
+      <c r="AJ45" s="53">
+        <v>36.28</v>
+      </c>
+      <c r="AK45" s="53">
+        <v>52.46</v>
+      </c>
+      <c r="AL45" s="53">
+        <v>41.56</v>
+      </c>
+      <c r="AM45" s="53">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="AN45" s="54">
+        <v>26.3</v>
+      </c>
+      <c r="AO45" s="47">
+        <f t="shared" si="0"/>
+        <v>29.195499999999992</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>75</v>
       </c>
@@ -6261,26 +8682,78 @@
       <c r="P46" s="22"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="18"/>
-      <c r="AE46" s="18"/>
-      <c r="AF46" s="18"/>
-      <c r="AG46" s="18"/>
-      <c r="AH46" s="18"/>
-      <c r="AI46" s="18"/>
-      <c r="AJ46" s="18"/>
+      <c r="S46" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="T46" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U46" s="52">
+        <v>50.32</v>
+      </c>
+      <c r="V46" s="53">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="W46" s="53">
+        <v>84.9</v>
+      </c>
+      <c r="X46" s="53">
+        <v>47.23</v>
+      </c>
+      <c r="Y46" s="53">
+        <v>99.7</v>
+      </c>
+      <c r="Z46" s="53">
+        <v>42.31</v>
+      </c>
+      <c r="AA46" s="53">
+        <v>67.33</v>
+      </c>
+      <c r="AB46" s="53">
+        <v>50.34</v>
+      </c>
+      <c r="AC46" s="53">
+        <v>78.209999999999994</v>
+      </c>
+      <c r="AD46" s="53">
+        <v>74.2</v>
+      </c>
+      <c r="AE46" s="53">
+        <v>85.09</v>
+      </c>
+      <c r="AF46" s="53">
+        <v>58.5</v>
+      </c>
+      <c r="AG46" s="53">
+        <v>62.07</v>
+      </c>
+      <c r="AH46" s="53">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="AI46" s="53">
+        <v>91.42</v>
+      </c>
+      <c r="AJ46" s="53">
+        <v>100</v>
+      </c>
+      <c r="AK46" s="53">
+        <v>75.89</v>
+      </c>
+      <c r="AL46" s="53">
+        <v>77.239999999999995</v>
+      </c>
+      <c r="AM46" s="53">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="AN46" s="54">
+        <v>31.29</v>
+      </c>
+      <c r="AO46" s="47">
+        <f t="shared" si="0"/>
+        <v>69.622000000000014</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>63</v>
       </c>
@@ -6294,26 +8767,78 @@
       <c r="P47" s="22"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="18"/>
-      <c r="AI47" s="18"/>
-      <c r="AJ47" s="18"/>
+      <c r="S47" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="T47" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" s="52">
+        <v>24.96</v>
+      </c>
+      <c r="V47" s="53">
+        <v>36.26</v>
+      </c>
+      <c r="W47" s="53">
+        <v>27.18</v>
+      </c>
+      <c r="X47" s="53">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="Y47" s="53">
+        <v>25.02</v>
+      </c>
+      <c r="Z47" s="53">
+        <v>75.77</v>
+      </c>
+      <c r="AA47" s="53">
+        <v>44.58</v>
+      </c>
+      <c r="AB47" s="53">
+        <v>7.57</v>
+      </c>
+      <c r="AC47" s="53">
+        <v>26.41</v>
+      </c>
+      <c r="AD47" s="53">
+        <v>48.9</v>
+      </c>
+      <c r="AE47" s="53">
+        <v>45.98</v>
+      </c>
+      <c r="AF47" s="53">
+        <v>65.31</v>
+      </c>
+      <c r="AG47" s="53">
+        <v>54.78</v>
+      </c>
+      <c r="AH47" s="53">
+        <v>63.95</v>
+      </c>
+      <c r="AI47" s="53">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="AJ47" s="53">
+        <v>73.64</v>
+      </c>
+      <c r="AK47" s="53">
+        <v>29.12</v>
+      </c>
+      <c r="AL47" s="53">
+        <v>51</v>
+      </c>
+      <c r="AM47" s="53">
+        <v>32.24</v>
+      </c>
+      <c r="AN47" s="54">
+        <v>17.29</v>
+      </c>
+      <c r="AO47" s="47">
+        <f t="shared" si="0"/>
+        <v>42.957999999999998</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>79</v>
       </c>
@@ -6327,26 +8852,78 @@
       <c r="P48" s="22"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="18"/>
-      <c r="AI48" s="18"/>
-      <c r="AJ48" s="18"/>
+      <c r="S48" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="T48" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" s="52">
+        <v>25.85</v>
+      </c>
+      <c r="V48" s="53">
+        <v>15.22</v>
+      </c>
+      <c r="W48" s="53">
+        <v>7.13</v>
+      </c>
+      <c r="X48" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="53">
+        <v>-2.92</v>
+      </c>
+      <c r="Z48" s="53">
+        <v>19.25</v>
+      </c>
+      <c r="AA48" s="53">
+        <v>28.25</v>
+      </c>
+      <c r="AB48" s="53">
+        <v>23.02</v>
+      </c>
+      <c r="AC48" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="53">
+        <v>-0.1</v>
+      </c>
+      <c r="AE48" s="53">
+        <v>1.01</v>
+      </c>
+      <c r="AF48" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="53">
+        <v>9.81</v>
+      </c>
+      <c r="AH48" s="53">
+        <v>7.49</v>
+      </c>
+      <c r="AI48" s="53">
+        <v>20.41</v>
+      </c>
+      <c r="AJ48" s="53">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="AK48" s="53">
+        <v>15.52</v>
+      </c>
+      <c r="AL48" s="53">
+        <v>23.44</v>
+      </c>
+      <c r="AM48" s="53">
+        <v>12.21</v>
+      </c>
+      <c r="AN48" s="54">
+        <v>15.92</v>
+      </c>
+      <c r="AO48" s="47">
+        <f t="shared" si="0"/>
+        <v>12.067</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>69</v>
       </c>
@@ -6360,26 +8937,78 @@
       <c r="P49" s="22"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="18"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="18"/>
+      <c r="S49" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="T49" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U49" s="52">
+        <v>-1.39</v>
+      </c>
+      <c r="V49" s="53">
+        <v>0</v>
+      </c>
+      <c r="W49" s="53">
+        <v>20.55</v>
+      </c>
+      <c r="X49" s="53">
+        <v>-0.08</v>
+      </c>
+      <c r="Y49" s="53">
+        <v>24.86</v>
+      </c>
+      <c r="Z49" s="53">
+        <v>14.35</v>
+      </c>
+      <c r="AA49" s="53">
+        <v>24.95</v>
+      </c>
+      <c r="AB49" s="53">
+        <v>49.94</v>
+      </c>
+      <c r="AC49" s="53">
+        <v>18.66</v>
+      </c>
+      <c r="AD49" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="53">
+        <v>9.74</v>
+      </c>
+      <c r="AF49" s="53">
+        <v>5.45</v>
+      </c>
+      <c r="AG49" s="53">
+        <v>22.75</v>
+      </c>
+      <c r="AH49" s="53">
+        <v>13.4</v>
+      </c>
+      <c r="AI49" s="53">
+        <v>18.52</v>
+      </c>
+      <c r="AJ49" s="53">
+        <v>24.18</v>
+      </c>
+      <c r="AK49" s="53">
+        <v>24.43</v>
+      </c>
+      <c r="AL49" s="53">
+        <v>29.4</v>
+      </c>
+      <c r="AM49" s="53">
+        <v>11.7</v>
+      </c>
+      <c r="AN49" s="54">
+        <v>33.21</v>
+      </c>
+      <c r="AO49" s="47">
+        <f t="shared" si="0"/>
+        <v>17.230999999999998</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>66</v>
       </c>
@@ -6393,26 +9022,78 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="18"/>
       <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="18"/>
-      <c r="AI50" s="18"/>
-      <c r="AJ50" s="18"/>
+      <c r="S50" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="T50" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="U50" s="55">
+        <v>47.88</v>
+      </c>
+      <c r="V50" s="56">
+        <v>64.97</v>
+      </c>
+      <c r="W50" s="56">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="X50" s="56">
+        <v>40.83</v>
+      </c>
+      <c r="Y50" s="56">
+        <v>46.94</v>
+      </c>
+      <c r="Z50" s="56">
+        <v>100</v>
+      </c>
+      <c r="AA50" s="56">
+        <v>36.78</v>
+      </c>
+      <c r="AB50" s="56">
+        <v>48.66</v>
+      </c>
+      <c r="AC50" s="56">
+        <v>47.16</v>
+      </c>
+      <c r="AD50" s="56">
+        <v>70.7</v>
+      </c>
+      <c r="AE50" s="56">
+        <v>50.06</v>
+      </c>
+      <c r="AF50" s="56">
+        <v>49.85</v>
+      </c>
+      <c r="AG50" s="56">
+        <v>55.57</v>
+      </c>
+      <c r="AH50" s="56">
+        <v>36.01</v>
+      </c>
+      <c r="AI50" s="56">
+        <v>75.14</v>
+      </c>
+      <c r="AJ50" s="56">
+        <v>50.81</v>
+      </c>
+      <c r="AK50" s="56">
+        <v>26.32</v>
+      </c>
+      <c r="AL50" s="56">
+        <v>75.58</v>
+      </c>
+      <c r="AM50" s="56">
+        <v>58.8</v>
+      </c>
+      <c r="AN50" s="57">
+        <v>46.28</v>
+      </c>
+      <c r="AO50" s="48">
+        <f t="shared" si="0"/>
+        <v>53.203500000000005</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>74</v>
       </c>
@@ -6445,7 +9126,7 @@
       <c r="AI51" s="18"/>
       <c r="AJ51" s="19"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>71</v>
       </c>
@@ -6456,7 +9137,7 @@
         <v>83.393500000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>60</v>
       </c>
@@ -6467,7 +9148,7 @@
         <v>87.70999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>64</v>
       </c>
@@ -6478,52 +9159,52 @@
         <v>91.554999999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="24"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="24"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="24"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="24"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="24"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="24"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="24"/>
@@ -6561,3582 +9242,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D01844-21CA-5A43-95BB-F4ECB6174AD5}">
-  <dimension ref="A1:W51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-    </row>
-    <row r="2" spans="1:23" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="49">
-        <v>92.48</v>
-      </c>
-      <c r="D3" s="50">
-        <v>92.61</v>
-      </c>
-      <c r="E3" s="50">
-        <v>70.3</v>
-      </c>
-      <c r="F3" s="50">
-        <v>92.49</v>
-      </c>
-      <c r="G3" s="50">
-        <v>91.62</v>
-      </c>
-      <c r="H3" s="50">
-        <v>92.94</v>
-      </c>
-      <c r="I3" s="50">
-        <v>79.959999999999994</v>
-      </c>
-      <c r="J3" s="50">
-        <v>81.48</v>
-      </c>
-      <c r="K3" s="50">
-        <v>93.94</v>
-      </c>
-      <c r="L3" s="50">
-        <v>91.18</v>
-      </c>
-      <c r="M3" s="50">
-        <v>86.56</v>
-      </c>
-      <c r="N3" s="50">
-        <v>61.7</v>
-      </c>
-      <c r="O3" s="50">
-        <v>83.18</v>
-      </c>
-      <c r="P3" s="50">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="Q3" s="50">
-        <v>93.3</v>
-      </c>
-      <c r="R3" s="50">
-        <v>88.09</v>
-      </c>
-      <c r="S3" s="50">
-        <v>93.59</v>
-      </c>
-      <c r="T3" s="50">
-        <v>89.23</v>
-      </c>
-      <c r="U3" s="50">
-        <v>68.08</v>
-      </c>
-      <c r="V3" s="51">
-        <v>63.95</v>
-      </c>
-      <c r="W3" s="46">
-        <f>AVERAGE(C3:V3)</f>
-        <v>84.373500000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="52">
-        <v>54.49</v>
-      </c>
-      <c r="D4" s="53">
-        <v>53.69</v>
-      </c>
-      <c r="E4" s="53">
-        <v>53.07</v>
-      </c>
-      <c r="F4" s="53">
-        <v>29.77</v>
-      </c>
-      <c r="G4" s="53">
-        <v>51.47</v>
-      </c>
-      <c r="H4" s="53">
-        <v>81.650000000000006</v>
-      </c>
-      <c r="I4" s="53">
-        <v>38.31</v>
-      </c>
-      <c r="J4" s="53">
-        <v>100</v>
-      </c>
-      <c r="K4" s="53">
-        <v>79.19</v>
-      </c>
-      <c r="L4" s="53">
-        <v>75.2</v>
-      </c>
-      <c r="M4" s="53">
-        <v>77.290000000000006</v>
-      </c>
-      <c r="N4" s="53">
-        <v>79.36</v>
-      </c>
-      <c r="O4" s="53">
-        <v>52.63</v>
-      </c>
-      <c r="P4" s="53">
-        <v>22.88</v>
-      </c>
-      <c r="Q4" s="53">
-        <v>100</v>
-      </c>
-      <c r="R4" s="53">
-        <v>96.27</v>
-      </c>
-      <c r="S4" s="53">
-        <v>82.98</v>
-      </c>
-      <c r="T4" s="53">
-        <v>55.24</v>
-      </c>
-      <c r="U4" s="53">
-        <v>53.61</v>
-      </c>
-      <c r="V4" s="54">
-        <v>67.84</v>
-      </c>
-      <c r="W4" s="47">
-        <f t="shared" ref="W4:W50" si="0">AVERAGE(C4:V4)</f>
-        <v>65.246999999999986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="52">
-        <v>95.4</v>
-      </c>
-      <c r="D5" s="53">
-        <v>96.62</v>
-      </c>
-      <c r="E5" s="53">
-        <v>96.72</v>
-      </c>
-      <c r="F5" s="53">
-        <v>96.42</v>
-      </c>
-      <c r="G5" s="53">
-        <v>96.54</v>
-      </c>
-      <c r="H5" s="53">
-        <v>95.14</v>
-      </c>
-      <c r="I5" s="53">
-        <v>96.2</v>
-      </c>
-      <c r="J5" s="53">
-        <v>95.42</v>
-      </c>
-      <c r="K5" s="53">
-        <v>97.31</v>
-      </c>
-      <c r="L5" s="53">
-        <v>96.32</v>
-      </c>
-      <c r="M5" s="53">
-        <v>49.87</v>
-      </c>
-      <c r="N5" s="53">
-        <v>97.98</v>
-      </c>
-      <c r="O5" s="53">
-        <v>96.52</v>
-      </c>
-      <c r="P5" s="53">
-        <v>95.07</v>
-      </c>
-      <c r="Q5" s="53">
-        <v>96.97</v>
-      </c>
-      <c r="R5" s="53">
-        <v>96.21</v>
-      </c>
-      <c r="S5" s="53">
-        <v>97.39</v>
-      </c>
-      <c r="T5" s="53">
-        <v>96.95</v>
-      </c>
-      <c r="U5" s="53">
-        <v>96.04</v>
-      </c>
-      <c r="V5" s="54">
-        <v>84.27</v>
-      </c>
-      <c r="W5" s="47">
-        <f t="shared" si="0"/>
-        <v>93.467999999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="52">
-        <v>93.82</v>
-      </c>
-      <c r="D6" s="53">
-        <v>95.54</v>
-      </c>
-      <c r="E6" s="53">
-        <v>75.52</v>
-      </c>
-      <c r="F6" s="53">
-        <v>80.849999999999994</v>
-      </c>
-      <c r="G6" s="53">
-        <v>91.09</v>
-      </c>
-      <c r="H6" s="53">
-        <v>94.36</v>
-      </c>
-      <c r="I6" s="53">
-        <v>75.989999999999995</v>
-      </c>
-      <c r="J6" s="53">
-        <v>94.03</v>
-      </c>
-      <c r="K6" s="53">
-        <v>86.54</v>
-      </c>
-      <c r="L6" s="53">
-        <v>91.47</v>
-      </c>
-      <c r="M6" s="53">
-        <v>93.56</v>
-      </c>
-      <c r="N6" s="53">
-        <v>81.93</v>
-      </c>
-      <c r="O6" s="53">
-        <v>95.46</v>
-      </c>
-      <c r="P6" s="53">
-        <v>94.93</v>
-      </c>
-      <c r="Q6" s="53">
-        <v>91.81</v>
-      </c>
-      <c r="R6" s="53">
-        <v>95.28</v>
-      </c>
-      <c r="S6" s="53">
-        <v>76.38</v>
-      </c>
-      <c r="T6" s="53">
-        <v>93.81</v>
-      </c>
-      <c r="U6" s="53">
-        <v>70.91</v>
-      </c>
-      <c r="V6" s="54">
-        <v>86</v>
-      </c>
-      <c r="W6" s="47">
-        <f t="shared" si="0"/>
-        <v>87.963999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="52">
-        <v>55.89</v>
-      </c>
-      <c r="D7" s="53">
-        <v>73.5</v>
-      </c>
-      <c r="E7" s="53">
-        <v>31.18</v>
-      </c>
-      <c r="F7" s="53">
-        <v>54.39</v>
-      </c>
-      <c r="G7" s="53">
-        <v>57.08</v>
-      </c>
-      <c r="H7" s="53">
-        <v>79.86</v>
-      </c>
-      <c r="I7" s="53">
-        <v>56.51</v>
-      </c>
-      <c r="J7" s="53">
-        <v>73.11</v>
-      </c>
-      <c r="K7" s="53">
-        <v>90.13</v>
-      </c>
-      <c r="L7" s="53">
-        <v>100</v>
-      </c>
-      <c r="M7" s="53">
-        <v>82.16</v>
-      </c>
-      <c r="N7" s="53">
-        <v>56.5</v>
-      </c>
-      <c r="O7" s="53">
-        <v>68.52</v>
-      </c>
-      <c r="P7" s="53">
-        <v>55.06</v>
-      </c>
-      <c r="Q7" s="53">
-        <v>80.23</v>
-      </c>
-      <c r="R7" s="53">
-        <v>81.55</v>
-      </c>
-      <c r="S7" s="53">
-        <v>75.39</v>
-      </c>
-      <c r="T7" s="53">
-        <v>70.34</v>
-      </c>
-      <c r="U7" s="53">
-        <v>93.5</v>
-      </c>
-      <c r="V7" s="54">
-        <v>60.22</v>
-      </c>
-      <c r="W7" s="47">
-        <f t="shared" si="0"/>
-        <v>69.756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="52">
-        <v>47.72</v>
-      </c>
-      <c r="D8" s="53">
-        <v>52.35</v>
-      </c>
-      <c r="E8" s="53">
-        <v>20.59</v>
-      </c>
-      <c r="F8" s="53">
-        <v>24.54</v>
-      </c>
-      <c r="G8" s="53">
-        <v>71.680000000000007</v>
-      </c>
-      <c r="H8" s="53">
-        <v>72.03</v>
-      </c>
-      <c r="I8" s="53">
-        <v>29.85</v>
-      </c>
-      <c r="J8" s="53">
-        <v>75.13</v>
-      </c>
-      <c r="K8" s="53">
-        <v>73.849999999999994</v>
-      </c>
-      <c r="L8" s="53">
-        <v>73.83</v>
-      </c>
-      <c r="M8" s="53">
-        <v>71.83</v>
-      </c>
-      <c r="N8" s="53">
-        <v>58.82</v>
-      </c>
-      <c r="O8" s="53">
-        <v>60.47</v>
-      </c>
-      <c r="P8" s="53">
-        <v>28.21</v>
-      </c>
-      <c r="Q8" s="53">
-        <v>48.99</v>
-      </c>
-      <c r="R8" s="53">
-        <v>33.81</v>
-      </c>
-      <c r="S8" s="53">
-        <v>51.64</v>
-      </c>
-      <c r="T8" s="53">
-        <v>50.1</v>
-      </c>
-      <c r="U8" s="53">
-        <v>57.87</v>
-      </c>
-      <c r="V8" s="54">
-        <v>38.049999999999997</v>
-      </c>
-      <c r="W8" s="47">
-        <f t="shared" si="0"/>
-        <v>52.068000000000019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="52">
-        <v>0</v>
-      </c>
-      <c r="D9" s="53">
-        <v>74.33</v>
-      </c>
-      <c r="E9" s="53">
-        <v>23.23</v>
-      </c>
-      <c r="F9" s="53">
-        <v>51.21</v>
-      </c>
-      <c r="G9" s="53">
-        <v>-0.13</v>
-      </c>
-      <c r="H9" s="53">
-        <v>74.44</v>
-      </c>
-      <c r="I9" s="53">
-        <v>45.22</v>
-      </c>
-      <c r="J9" s="53">
-        <v>99.99</v>
-      </c>
-      <c r="K9" s="53">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="L9" s="53">
-        <v>75.86</v>
-      </c>
-      <c r="M9" s="53">
-        <v>73.28</v>
-      </c>
-      <c r="N9" s="53">
-        <v>79.62</v>
-      </c>
-      <c r="O9" s="53">
-        <v>63.38</v>
-      </c>
-      <c r="P9" s="53">
-        <v>10.96</v>
-      </c>
-      <c r="Q9" s="53">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="R9" s="53">
-        <v>76.56</v>
-      </c>
-      <c r="S9" s="53">
-        <v>24.66</v>
-      </c>
-      <c r="T9" s="53">
-        <v>50.9</v>
-      </c>
-      <c r="U9" s="53">
-        <v>72.27</v>
-      </c>
-      <c r="V9" s="54">
-        <v>63.88</v>
-      </c>
-      <c r="W9" s="47">
-        <f t="shared" si="0"/>
-        <v>55.420500000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="52">
-        <v>25.09</v>
-      </c>
-      <c r="D10" s="53">
-        <v>75.66</v>
-      </c>
-      <c r="E10" s="53">
-        <v>28.44</v>
-      </c>
-      <c r="F10" s="53">
-        <v>37</v>
-      </c>
-      <c r="G10" s="53">
-        <v>46.79</v>
-      </c>
-      <c r="H10" s="53">
-        <v>63.64</v>
-      </c>
-      <c r="I10" s="53">
-        <v>57.06</v>
-      </c>
-      <c r="J10" s="53">
-        <v>49.82</v>
-      </c>
-      <c r="K10" s="53">
-        <v>48.5</v>
-      </c>
-      <c r="L10" s="53">
-        <v>98.83</v>
-      </c>
-      <c r="M10" s="53">
-        <v>51.57</v>
-      </c>
-      <c r="N10" s="53">
-        <v>75.459999999999994</v>
-      </c>
-      <c r="O10" s="53">
-        <v>40.06</v>
-      </c>
-      <c r="P10" s="53">
-        <v>37.35</v>
-      </c>
-      <c r="Q10" s="53">
-        <v>68.459999999999994</v>
-      </c>
-      <c r="R10" s="53">
-        <v>74.88</v>
-      </c>
-      <c r="S10" s="53">
-        <v>52.85</v>
-      </c>
-      <c r="T10" s="53">
-        <v>43.53</v>
-      </c>
-      <c r="U10" s="53">
-        <v>51.07</v>
-      </c>
-      <c r="V10" s="54">
-        <v>53.71</v>
-      </c>
-      <c r="W10" s="47">
-        <f t="shared" si="0"/>
-        <v>53.988500000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="52">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D11" s="53">
-        <v>0</v>
-      </c>
-      <c r="E11" s="53">
-        <v>24.68</v>
-      </c>
-      <c r="F11" s="53">
-        <v>25.77</v>
-      </c>
-      <c r="G11" s="53">
-        <v>48.69</v>
-      </c>
-      <c r="H11" s="53">
-        <v>73.459999999999994</v>
-      </c>
-      <c r="I11" s="53">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J11" s="53">
-        <v>61.25</v>
-      </c>
-      <c r="K11" s="53">
-        <v>49.12</v>
-      </c>
-      <c r="L11" s="53">
-        <v>72.05</v>
-      </c>
-      <c r="M11" s="53">
-        <v>23.86</v>
-      </c>
-      <c r="N11" s="53">
-        <v>11.82</v>
-      </c>
-      <c r="O11" s="53">
-        <v>60.95</v>
-      </c>
-      <c r="P11" s="53">
-        <v>11.81</v>
-      </c>
-      <c r="Q11" s="53">
-        <v>12.88</v>
-      </c>
-      <c r="R11" s="53">
-        <v>0</v>
-      </c>
-      <c r="S11" s="53">
-        <v>50.79</v>
-      </c>
-      <c r="T11" s="53">
-        <v>72.489999999999995</v>
-      </c>
-      <c r="U11" s="53">
-        <v>23.74</v>
-      </c>
-      <c r="V11" s="54">
-        <v>41.7</v>
-      </c>
-      <c r="W11" s="47">
-        <f t="shared" si="0"/>
-        <v>34.272500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="52">
-        <v>-0.11</v>
-      </c>
-      <c r="D12" s="53">
-        <v>0</v>
-      </c>
-      <c r="E12" s="53">
-        <v>5.47</v>
-      </c>
-      <c r="F12" s="53">
-        <v>-3.68</v>
-      </c>
-      <c r="G12" s="53">
-        <v>0</v>
-      </c>
-      <c r="H12" s="53">
-        <v>0</v>
-      </c>
-      <c r="I12" s="53">
-        <v>8.39</v>
-      </c>
-      <c r="J12" s="53">
-        <v>-22.36</v>
-      </c>
-      <c r="K12" s="53">
-        <v>0</v>
-      </c>
-      <c r="L12" s="53">
-        <v>26.17</v>
-      </c>
-      <c r="M12" s="53">
-        <v>1.03</v>
-      </c>
-      <c r="N12" s="53">
-        <v>25.3</v>
-      </c>
-      <c r="O12" s="53">
-        <v>28.86</v>
-      </c>
-      <c r="P12" s="53">
-        <v>-0.11</v>
-      </c>
-      <c r="Q12" s="53">
-        <v>9.69</v>
-      </c>
-      <c r="R12" s="53">
-        <v>-13.36</v>
-      </c>
-      <c r="S12" s="53">
-        <v>18.54</v>
-      </c>
-      <c r="T12" s="53">
-        <v>21.69</v>
-      </c>
-      <c r="U12" s="53">
-        <v>23.56</v>
-      </c>
-      <c r="V12" s="54">
-        <v>0.49</v>
-      </c>
-      <c r="W12" s="47">
-        <f t="shared" si="0"/>
-        <v>6.4784999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="52">
-        <v>99.13</v>
-      </c>
-      <c r="D13" s="53">
-        <v>100</v>
-      </c>
-      <c r="E13" s="53">
-        <v>98.74</v>
-      </c>
-      <c r="F13" s="53">
-        <v>97.97</v>
-      </c>
-      <c r="G13" s="53">
-        <v>99.65</v>
-      </c>
-      <c r="H13" s="53">
-        <v>96.29</v>
-      </c>
-      <c r="I13" s="53">
-        <v>100</v>
-      </c>
-      <c r="J13" s="53">
-        <v>100</v>
-      </c>
-      <c r="K13" s="53">
-        <v>100</v>
-      </c>
-      <c r="L13" s="53">
-        <v>100</v>
-      </c>
-      <c r="M13" s="53">
-        <v>97.59</v>
-      </c>
-      <c r="N13" s="53">
-        <v>100</v>
-      </c>
-      <c r="O13" s="53">
-        <v>100</v>
-      </c>
-      <c r="P13" s="53">
-        <v>98.74</v>
-      </c>
-      <c r="Q13" s="53">
-        <v>98.6</v>
-      </c>
-      <c r="R13" s="53">
-        <v>99.83</v>
-      </c>
-      <c r="S13" s="53">
-        <v>97.19</v>
-      </c>
-      <c r="T13" s="53">
-        <v>88.47</v>
-      </c>
-      <c r="U13" s="53">
-        <v>99.43</v>
-      </c>
-      <c r="V13" s="54">
-        <v>73.97</v>
-      </c>
-      <c r="W13" s="47">
-        <f t="shared" si="0"/>
-        <v>97.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="52">
-        <v>100</v>
-      </c>
-      <c r="D14" s="53">
-        <v>100</v>
-      </c>
-      <c r="E14" s="53">
-        <v>90.04</v>
-      </c>
-      <c r="F14" s="53">
-        <v>100</v>
-      </c>
-      <c r="G14" s="53">
-        <v>96.62</v>
-      </c>
-      <c r="H14" s="53">
-        <v>100</v>
-      </c>
-      <c r="I14" s="53">
-        <v>100</v>
-      </c>
-      <c r="J14" s="53">
-        <v>99.61</v>
-      </c>
-      <c r="K14" s="53">
-        <v>100</v>
-      </c>
-      <c r="L14" s="53">
-        <v>96.03</v>
-      </c>
-      <c r="M14" s="53">
-        <v>100</v>
-      </c>
-      <c r="N14" s="53">
-        <v>100</v>
-      </c>
-      <c r="O14" s="53">
-        <v>99.46</v>
-      </c>
-      <c r="P14" s="53">
-        <v>99.34</v>
-      </c>
-      <c r="Q14" s="53">
-        <v>98.21</v>
-      </c>
-      <c r="R14" s="53">
-        <v>99.15</v>
-      </c>
-      <c r="S14" s="53">
-        <v>96.18</v>
-      </c>
-      <c r="T14" s="53">
-        <v>92.23</v>
-      </c>
-      <c r="U14" s="53">
-        <v>100</v>
-      </c>
-      <c r="V14" s="54">
-        <v>96.52</v>
-      </c>
-      <c r="W14" s="47">
-        <f t="shared" si="0"/>
-        <v>98.169500000000014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="52">
-        <v>6.54</v>
-      </c>
-      <c r="D15" s="53">
-        <v>26.92</v>
-      </c>
-      <c r="E15" s="53">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="F15" s="53">
-        <v>26.09</v>
-      </c>
-      <c r="G15" s="53">
-        <v>46.89</v>
-      </c>
-      <c r="H15" s="53">
-        <v>100</v>
-      </c>
-      <c r="I15" s="53">
-        <v>0</v>
-      </c>
-      <c r="J15" s="53">
-        <v>-12.45</v>
-      </c>
-      <c r="K15" s="53">
-        <v>9.94</v>
-      </c>
-      <c r="L15" s="53">
-        <v>48.74</v>
-      </c>
-      <c r="M15" s="53">
-        <v>25.5</v>
-      </c>
-      <c r="N15" s="53">
-        <v>34.26</v>
-      </c>
-      <c r="O15" s="53">
-        <v>31.45</v>
-      </c>
-      <c r="P15" s="53">
-        <v>13.58</v>
-      </c>
-      <c r="Q15" s="53">
-        <v>49.78</v>
-      </c>
-      <c r="R15" s="53">
-        <v>25.17</v>
-      </c>
-      <c r="S15" s="53">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="T15" s="53">
-        <v>39.71</v>
-      </c>
-      <c r="U15" s="53">
-        <v>24.69</v>
-      </c>
-      <c r="V15" s="54">
-        <v>44.29</v>
-      </c>
-      <c r="W15" s="47">
-        <f t="shared" si="0"/>
-        <v>28.883499999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="52">
-        <v>24.74</v>
-      </c>
-      <c r="D16" s="53">
-        <v>50.74</v>
-      </c>
-      <c r="E16" s="53">
-        <v>12.71</v>
-      </c>
-      <c r="F16" s="53">
-        <v>12.8</v>
-      </c>
-      <c r="G16" s="53">
-        <v>0</v>
-      </c>
-      <c r="H16" s="53">
-        <v>49.85</v>
-      </c>
-      <c r="I16" s="53">
-        <v>8.1</v>
-      </c>
-      <c r="J16" s="53">
-        <v>11.73</v>
-      </c>
-      <c r="K16" s="53">
-        <v>27.34</v>
-      </c>
-      <c r="L16" s="53">
-        <v>22.46</v>
-      </c>
-      <c r="M16" s="53">
-        <v>0.74</v>
-      </c>
-      <c r="N16" s="53">
-        <v>25.21</v>
-      </c>
-      <c r="O16" s="53">
-        <v>40.85</v>
-      </c>
-      <c r="P16" s="53">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="Q16" s="53">
-        <v>2.16</v>
-      </c>
-      <c r="R16" s="53">
-        <v>-13.37</v>
-      </c>
-      <c r="S16" s="53">
-        <v>24.62</v>
-      </c>
-      <c r="T16" s="53">
-        <v>21.7</v>
-      </c>
-      <c r="U16" s="53">
-        <v>24.28</v>
-      </c>
-      <c r="V16" s="54">
-        <v>48.92</v>
-      </c>
-      <c r="W16" s="47">
-        <f t="shared" si="0"/>
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="52">
-        <v>8.6</v>
-      </c>
-      <c r="D17" s="53">
-        <v>25.66</v>
-      </c>
-      <c r="E17" s="53">
-        <v>1.85</v>
-      </c>
-      <c r="F17" s="53">
-        <v>9.67</v>
-      </c>
-      <c r="G17" s="53">
-        <v>52.74</v>
-      </c>
-      <c r="H17" s="53">
-        <v>0</v>
-      </c>
-      <c r="I17" s="53">
-        <v>6.99</v>
-      </c>
-      <c r="J17" s="53">
-        <v>-24.44</v>
-      </c>
-      <c r="K17" s="53">
-        <v>-8.7899999999999991</v>
-      </c>
-      <c r="L17" s="53">
-        <v>-0.2</v>
-      </c>
-      <c r="M17" s="53">
-        <v>1.93</v>
-      </c>
-      <c r="N17" s="53">
-        <v>24.41</v>
-      </c>
-      <c r="O17" s="53">
-        <v>57.29</v>
-      </c>
-      <c r="P17" s="53">
-        <v>5.48</v>
-      </c>
-      <c r="Q17" s="53">
-        <v>24.55</v>
-      </c>
-      <c r="R17" s="53">
-        <v>-9.91</v>
-      </c>
-      <c r="S17" s="53">
-        <v>-10.5</v>
-      </c>
-      <c r="T17" s="53">
-        <v>34.18</v>
-      </c>
-      <c r="U17" s="53">
-        <v>24.11</v>
-      </c>
-      <c r="V17" s="54">
-        <v>-38.659999999999997</v>
-      </c>
-      <c r="W17" s="47">
-        <f t="shared" si="0"/>
-        <v>9.2480000000000011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="52">
-        <v>-1.52</v>
-      </c>
-      <c r="D18" s="53">
-        <v>0</v>
-      </c>
-      <c r="E18" s="53">
-        <v>29.79</v>
-      </c>
-      <c r="F18" s="53">
-        <v>0</v>
-      </c>
-      <c r="G18" s="53">
-        <v>0.63</v>
-      </c>
-      <c r="H18" s="53">
-        <v>30</v>
-      </c>
-      <c r="I18" s="53">
-        <v>0</v>
-      </c>
-      <c r="J18" s="53">
-        <v>-49.24</v>
-      </c>
-      <c r="K18" s="53">
-        <v>3.1</v>
-      </c>
-      <c r="L18" s="53">
-        <v>22.77</v>
-      </c>
-      <c r="M18" s="53">
-        <v>-1.86</v>
-      </c>
-      <c r="N18" s="53">
-        <v>0</v>
-      </c>
-      <c r="O18" s="53">
-        <v>11.65</v>
-      </c>
-      <c r="P18" s="53">
-        <v>-2.31</v>
-      </c>
-      <c r="Q18" s="53">
-        <v>-3.87</v>
-      </c>
-      <c r="R18" s="53">
-        <v>-0.73</v>
-      </c>
-      <c r="S18" s="53">
-        <v>25.06</v>
-      </c>
-      <c r="T18" s="53">
-        <v>21.15</v>
-      </c>
-      <c r="U18" s="53">
-        <v>13.8</v>
-      </c>
-      <c r="V18" s="54">
-        <v>9.25</v>
-      </c>
-      <c r="W18" s="47">
-        <f t="shared" si="0"/>
-        <v>5.3834999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="52">
-        <v>48.81</v>
-      </c>
-      <c r="D19" s="53">
-        <v>47.9</v>
-      </c>
-      <c r="E19" s="53">
-        <v>10.11</v>
-      </c>
-      <c r="F19" s="53">
-        <v>22.08</v>
-      </c>
-      <c r="G19" s="53">
-        <v>1.45</v>
-      </c>
-      <c r="H19" s="53">
-        <v>72.28</v>
-      </c>
-      <c r="I19" s="53">
-        <v>-26.33</v>
-      </c>
-      <c r="J19" s="53">
-        <v>19.29</v>
-      </c>
-      <c r="K19" s="53">
-        <v>24.14</v>
-      </c>
-      <c r="L19" s="53">
-        <v>-0.76</v>
-      </c>
-      <c r="M19" s="53">
-        <v>-3.24</v>
-      </c>
-      <c r="N19" s="53">
-        <v>62.03</v>
-      </c>
-      <c r="O19" s="53">
-        <v>61.36</v>
-      </c>
-      <c r="P19" s="53">
-        <v>66.34</v>
-      </c>
-      <c r="Q19" s="53">
-        <v>74.3</v>
-      </c>
-      <c r="R19" s="53">
-        <v>-51.57</v>
-      </c>
-      <c r="S19" s="53">
-        <v>5.39</v>
-      </c>
-      <c r="T19" s="53">
-        <v>33.67</v>
-      </c>
-      <c r="U19" s="53">
-        <v>-1.27</v>
-      </c>
-      <c r="V19" s="54">
-        <v>-35.44</v>
-      </c>
-      <c r="W19" s="47">
-        <f t="shared" si="0"/>
-        <v>21.527000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="52">
-        <v>-0.8</v>
-      </c>
-      <c r="D20" s="53">
-        <v>0</v>
-      </c>
-      <c r="E20" s="53">
-        <v>-0.78</v>
-      </c>
-      <c r="F20" s="53">
-        <v>-28.84</v>
-      </c>
-      <c r="G20" s="53">
-        <v>2.36</v>
-      </c>
-      <c r="H20" s="53">
-        <v>0</v>
-      </c>
-      <c r="I20" s="53">
-        <v>-20.18</v>
-      </c>
-      <c r="J20" s="53">
-        <v>0.27</v>
-      </c>
-      <c r="K20" s="53">
-        <v>-0.92</v>
-      </c>
-      <c r="L20" s="53">
-        <v>-2.86</v>
-      </c>
-      <c r="M20" s="53">
-        <v>-49.2</v>
-      </c>
-      <c r="N20" s="53">
-        <v>0</v>
-      </c>
-      <c r="O20" s="53">
-        <v>16.66</v>
-      </c>
-      <c r="P20" s="53">
-        <v>0.69</v>
-      </c>
-      <c r="Q20" s="53">
-        <v>-26.82</v>
-      </c>
-      <c r="R20" s="53">
-        <v>-23.86</v>
-      </c>
-      <c r="S20" s="53">
-        <v>-25</v>
-      </c>
-      <c r="T20" s="53">
-        <v>-13.74</v>
-      </c>
-      <c r="U20" s="53">
-        <v>-23.44</v>
-      </c>
-      <c r="V20" s="54">
-        <v>-3.92</v>
-      </c>
-      <c r="W20" s="47">
-        <f t="shared" si="0"/>
-        <v>-10.019000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="52">
-        <v>45.53</v>
-      </c>
-      <c r="D21" s="53">
-        <v>48.44</v>
-      </c>
-      <c r="E21" s="53">
-        <v>21.17</v>
-      </c>
-      <c r="F21" s="53">
-        <v>-17.52</v>
-      </c>
-      <c r="G21" s="53">
-        <v>47.83</v>
-      </c>
-      <c r="H21" s="53">
-        <v>97.61</v>
-      </c>
-      <c r="I21" s="53">
-        <v>22.31</v>
-      </c>
-      <c r="J21" s="53">
-        <v>22.17</v>
-      </c>
-      <c r="K21" s="53">
-        <v>23.94</v>
-      </c>
-      <c r="L21" s="53">
-        <v>50.42</v>
-      </c>
-      <c r="M21" s="53">
-        <v>-78.94</v>
-      </c>
-      <c r="N21" s="53">
-        <v>59.55</v>
-      </c>
-      <c r="O21" s="53">
-        <v>48.88</v>
-      </c>
-      <c r="P21" s="53">
-        <v>-1.2</v>
-      </c>
-      <c r="Q21" s="53">
-        <v>91.94</v>
-      </c>
-      <c r="R21" s="53">
-        <v>20.88</v>
-      </c>
-      <c r="S21" s="53">
-        <v>70.260000000000005</v>
-      </c>
-      <c r="T21" s="53">
-        <v>29.95</v>
-      </c>
-      <c r="U21" s="53">
-        <v>26.15</v>
-      </c>
-      <c r="V21" s="54">
-        <v>46.4</v>
-      </c>
-      <c r="W21" s="47">
-        <f t="shared" si="0"/>
-        <v>33.788500000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="52">
-        <v>1.62</v>
-      </c>
-      <c r="D22" s="53">
-        <v>-15.98</v>
-      </c>
-      <c r="E22" s="53">
-        <v>0.79</v>
-      </c>
-      <c r="F22" s="53">
-        <v>1.43</v>
-      </c>
-      <c r="G22" s="53">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="H22" s="53">
-        <v>-0.33</v>
-      </c>
-      <c r="I22" s="53">
-        <v>1.58</v>
-      </c>
-      <c r="J22" s="53">
-        <v>0.54</v>
-      </c>
-      <c r="K22" s="53">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="L22" s="53">
-        <v>0.91</v>
-      </c>
-      <c r="M22" s="53">
-        <v>1.21</v>
-      </c>
-      <c r="N22" s="53">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="O22" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="P22" s="53">
-        <v>1.37</v>
-      </c>
-      <c r="Q22" s="53">
-        <v>5.32</v>
-      </c>
-      <c r="R22" s="53">
-        <v>14.92</v>
-      </c>
-      <c r="S22" s="53">
-        <v>10.99</v>
-      </c>
-      <c r="T22" s="53">
-        <v>26.17</v>
-      </c>
-      <c r="U22" s="53">
-        <v>1.21</v>
-      </c>
-      <c r="V22" s="54">
-        <v>-22.72</v>
-      </c>
-      <c r="W22" s="47">
-        <f t="shared" si="0"/>
-        <v>1.8305000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="52">
-        <v>47.9</v>
-      </c>
-      <c r="D23" s="53">
-        <v>45.13</v>
-      </c>
-      <c r="E23" s="53">
-        <v>8.02</v>
-      </c>
-      <c r="F23" s="53">
-        <v>49.7</v>
-      </c>
-      <c r="G23" s="53">
-        <v>44.93</v>
-      </c>
-      <c r="H23" s="53">
-        <v>71.13</v>
-      </c>
-      <c r="I23" s="53">
-        <v>48.44</v>
-      </c>
-      <c r="J23" s="53">
-        <v>31.59</v>
-      </c>
-      <c r="K23" s="53">
-        <v>25.05</v>
-      </c>
-      <c r="L23" s="53">
-        <v>46.5</v>
-      </c>
-      <c r="M23" s="53">
-        <v>45.86</v>
-      </c>
-      <c r="N23" s="53">
-        <v>59.23</v>
-      </c>
-      <c r="O23" s="53">
-        <v>68.67</v>
-      </c>
-      <c r="P23" s="53">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="Q23" s="53">
-        <v>73.260000000000005</v>
-      </c>
-      <c r="R23" s="53">
-        <v>85.24</v>
-      </c>
-      <c r="S23" s="53">
-        <v>42.16</v>
-      </c>
-      <c r="T23" s="53">
-        <v>17.91</v>
-      </c>
-      <c r="U23" s="53">
-        <v>32.65</v>
-      </c>
-      <c r="V23" s="54">
-        <v>38.229999999999997</v>
-      </c>
-      <c r="W23" s="47">
-        <f t="shared" si="0"/>
-        <v>45.812999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="52">
-        <v>74.239999999999995</v>
-      </c>
-      <c r="D24" s="53">
-        <v>0</v>
-      </c>
-      <c r="E24" s="53">
-        <v>26.01</v>
-      </c>
-      <c r="F24" s="53">
-        <v>0</v>
-      </c>
-      <c r="G24" s="53">
-        <v>2.99</v>
-      </c>
-      <c r="H24" s="53">
-        <v>64.69</v>
-      </c>
-      <c r="I24" s="53">
-        <v>10.37</v>
-      </c>
-      <c r="J24" s="53">
-        <v>-0.88</v>
-      </c>
-      <c r="K24" s="53">
-        <v>9.64</v>
-      </c>
-      <c r="L24" s="53">
-        <v>23.21</v>
-      </c>
-      <c r="M24" s="53">
-        <v>-66.17</v>
-      </c>
-      <c r="N24" s="53">
-        <v>0</v>
-      </c>
-      <c r="O24" s="53">
-        <v>-10.55</v>
-      </c>
-      <c r="P24" s="53">
-        <v>7.97</v>
-      </c>
-      <c r="Q24" s="53">
-        <v>1.33</v>
-      </c>
-      <c r="R24" s="53">
-        <v>26.32</v>
-      </c>
-      <c r="S24" s="53">
-        <v>6.69</v>
-      </c>
-      <c r="T24" s="53">
-        <v>14.98</v>
-      </c>
-      <c r="U24" s="53">
-        <v>-0.06</v>
-      </c>
-      <c r="V24" s="54">
-        <v>-1.02</v>
-      </c>
-      <c r="W24" s="47">
-        <f t="shared" si="0"/>
-        <v>9.4879999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="52">
-        <v>0.13</v>
-      </c>
-      <c r="D25" s="53">
-        <v>0</v>
-      </c>
-      <c r="E25" s="53">
-        <v>0</v>
-      </c>
-      <c r="F25" s="53">
-        <v>0</v>
-      </c>
-      <c r="G25" s="53">
-        <v>1.33</v>
-      </c>
-      <c r="H25" s="53">
-        <v>0</v>
-      </c>
-      <c r="I25" s="53">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="J25" s="53">
-        <v>-1.87</v>
-      </c>
-      <c r="K25" s="53">
-        <v>6.54</v>
-      </c>
-      <c r="L25" s="53">
-        <v>0</v>
-      </c>
-      <c r="M25" s="53">
-        <v>-50.51</v>
-      </c>
-      <c r="N25" s="53">
-        <v>0</v>
-      </c>
-      <c r="O25" s="53">
-        <v>-1.35</v>
-      </c>
-      <c r="P25" s="53">
-        <v>5.18</v>
-      </c>
-      <c r="Q25" s="53">
-        <v>2.11</v>
-      </c>
-      <c r="R25" s="53">
-        <v>22.71</v>
-      </c>
-      <c r="S25" s="53">
-        <v>-8</v>
-      </c>
-      <c r="T25" s="53">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="U25" s="53">
-        <v>0.19</v>
-      </c>
-      <c r="V25" s="54">
-        <v>-24.92</v>
-      </c>
-      <c r="W25" s="47">
-        <f t="shared" si="0"/>
-        <v>-2.085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="52">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D26" s="53">
-        <v>0</v>
-      </c>
-      <c r="E26" s="53">
-        <v>-23.53</v>
-      </c>
-      <c r="F26" s="53">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="G26" s="53">
-        <v>-1.54</v>
-      </c>
-      <c r="H26" s="53">
-        <v>0</v>
-      </c>
-      <c r="I26" s="53">
-        <v>0</v>
-      </c>
-      <c r="J26" s="53">
-        <v>-74.42</v>
-      </c>
-      <c r="K26" s="53">
-        <v>-10.06</v>
-      </c>
-      <c r="L26" s="53">
-        <v>0.33</v>
-      </c>
-      <c r="M26" s="53">
-        <v>-72.349999999999994</v>
-      </c>
-      <c r="N26" s="53">
-        <v>0</v>
-      </c>
-      <c r="O26" s="53">
-        <v>-20.55</v>
-      </c>
-      <c r="P26" s="53">
-        <v>-0.23</v>
-      </c>
-      <c r="Q26" s="53">
-        <v>-5.29</v>
-      </c>
-      <c r="R26" s="53">
-        <v>0</v>
-      </c>
-      <c r="S26" s="53">
-        <v>-18.739999999999998</v>
-      </c>
-      <c r="T26" s="53">
-        <v>-15.88</v>
-      </c>
-      <c r="U26" s="53">
-        <v>0</v>
-      </c>
-      <c r="V26" s="54">
-        <v>0</v>
-      </c>
-      <c r="W26" s="47">
-        <f t="shared" si="0"/>
-        <v>-12.1555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="52">
-        <v>50.57</v>
-      </c>
-      <c r="D27" s="53">
-        <v>100</v>
-      </c>
-      <c r="E27" s="53">
-        <v>91.2</v>
-      </c>
-      <c r="F27" s="53">
-        <v>65.72</v>
-      </c>
-      <c r="G27" s="53">
-        <v>99.13</v>
-      </c>
-      <c r="H27" s="53">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="I27" s="53">
-        <v>95.69</v>
-      </c>
-      <c r="J27" s="53">
-        <v>96.49</v>
-      </c>
-      <c r="K27" s="53">
-        <v>96.09</v>
-      </c>
-      <c r="L27" s="53">
-        <v>95.4</v>
-      </c>
-      <c r="M27" s="53">
-        <v>76.010000000000005</v>
-      </c>
-      <c r="N27" s="53">
-        <v>98.45</v>
-      </c>
-      <c r="O27" s="53">
-        <v>63.4</v>
-      </c>
-      <c r="P27" s="53">
-        <v>96.31</v>
-      </c>
-      <c r="Q27" s="53">
-        <v>97.29</v>
-      </c>
-      <c r="R27" s="53">
-        <v>99.09</v>
-      </c>
-      <c r="S27" s="53">
-        <v>94.11</v>
-      </c>
-      <c r="T27" s="53">
-        <v>87.09</v>
-      </c>
-      <c r="U27" s="53">
-        <v>99.11</v>
-      </c>
-      <c r="V27" s="54">
-        <v>74.48</v>
-      </c>
-      <c r="W27" s="47">
-        <f t="shared" si="0"/>
-        <v>87.70999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="52">
-        <v>13.52</v>
-      </c>
-      <c r="D28" s="53">
-        <v>0</v>
-      </c>
-      <c r="E28" s="53">
-        <v>8.98</v>
-      </c>
-      <c r="F28" s="53">
-        <v>15.23</v>
-      </c>
-      <c r="G28" s="53">
-        <v>49.17</v>
-      </c>
-      <c r="H28" s="53">
-        <v>71.38</v>
-      </c>
-      <c r="I28" s="53">
-        <v>51.26</v>
-      </c>
-      <c r="J28" s="53">
-        <v>97.29</v>
-      </c>
-      <c r="K28" s="53">
-        <v>49.2</v>
-      </c>
-      <c r="L28" s="53">
-        <v>72.39</v>
-      </c>
-      <c r="M28" s="53">
-        <v>6.14</v>
-      </c>
-      <c r="N28" s="53">
-        <v>5.76</v>
-      </c>
-      <c r="O28" s="53">
-        <v>11.71</v>
-      </c>
-      <c r="P28" s="53">
-        <v>24.16</v>
-      </c>
-      <c r="Q28" s="53">
-        <v>25.44</v>
-      </c>
-      <c r="R28" s="53">
-        <v>50.44</v>
-      </c>
-      <c r="S28" s="53">
-        <v>67.62</v>
-      </c>
-      <c r="T28" s="53">
-        <v>73.06</v>
-      </c>
-      <c r="U28" s="53">
-        <v>19.05</v>
-      </c>
-      <c r="V28" s="54">
-        <v>13.38</v>
-      </c>
-      <c r="W28" s="47">
-        <f t="shared" si="0"/>
-        <v>36.259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="52">
-        <v>24.18</v>
-      </c>
-      <c r="D29" s="53">
-        <v>50.41</v>
-      </c>
-      <c r="E29" s="53">
-        <v>39.840000000000003</v>
-      </c>
-      <c r="F29" s="53">
-        <v>24.81</v>
-      </c>
-      <c r="G29" s="53">
-        <v>22.88</v>
-      </c>
-      <c r="H29" s="53">
-        <v>50.54</v>
-      </c>
-      <c r="I29" s="53">
-        <v>45.93</v>
-      </c>
-      <c r="J29" s="53">
-        <v>74.73</v>
-      </c>
-      <c r="K29" s="53">
-        <v>88.52</v>
-      </c>
-      <c r="L29" s="53">
-        <v>74.510000000000005</v>
-      </c>
-      <c r="M29" s="53">
-        <v>80.94</v>
-      </c>
-      <c r="N29" s="53">
-        <v>28.12</v>
-      </c>
-      <c r="O29" s="53">
-        <v>57.78</v>
-      </c>
-      <c r="P29" s="53">
-        <v>29.55</v>
-      </c>
-      <c r="Q29" s="53">
-        <v>52.77</v>
-      </c>
-      <c r="R29" s="53">
-        <v>49.41</v>
-      </c>
-      <c r="S29" s="53">
-        <v>78.72</v>
-      </c>
-      <c r="T29" s="53">
-        <v>74.81</v>
-      </c>
-      <c r="U29" s="53">
-        <v>25.17</v>
-      </c>
-      <c r="V29" s="54">
-        <v>50.98</v>
-      </c>
-      <c r="W29" s="47">
-        <f t="shared" si="0"/>
-        <v>51.229999999999983</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="52">
-        <v>100</v>
-      </c>
-      <c r="D30" s="53">
-        <v>62.06</v>
-      </c>
-      <c r="E30" s="53">
-        <v>99.44</v>
-      </c>
-      <c r="F30" s="53">
-        <v>100</v>
-      </c>
-      <c r="G30" s="53">
-        <v>97.2</v>
-      </c>
-      <c r="H30" s="53">
-        <v>100</v>
-      </c>
-      <c r="I30" s="53">
-        <v>87.24</v>
-      </c>
-      <c r="J30" s="53">
-        <v>99.58</v>
-      </c>
-      <c r="K30" s="53">
-        <v>100</v>
-      </c>
-      <c r="L30" s="53">
-        <v>97.63</v>
-      </c>
-      <c r="M30" s="53">
-        <v>98.33</v>
-      </c>
-      <c r="N30" s="53">
-        <v>96.56</v>
-      </c>
-      <c r="O30" s="53">
-        <v>74.66</v>
-      </c>
-      <c r="P30" s="53">
-        <v>75.790000000000006</v>
-      </c>
-      <c r="Q30" s="53">
-        <v>93.48</v>
-      </c>
-      <c r="R30" s="53">
-        <v>98.99</v>
-      </c>
-      <c r="S30" s="53">
-        <v>98.78</v>
-      </c>
-      <c r="T30" s="53">
-        <v>100</v>
-      </c>
-      <c r="U30" s="53">
-        <v>75.63</v>
-      </c>
-      <c r="V30" s="54">
-        <v>75.73</v>
-      </c>
-      <c r="W30" s="47">
-        <f t="shared" si="0"/>
-        <v>91.554999999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="52">
-        <v>37.39</v>
-      </c>
-      <c r="D31" s="53">
-        <v>62.26</v>
-      </c>
-      <c r="E31" s="53">
-        <v>43.1</v>
-      </c>
-      <c r="F31" s="53">
-        <v>48.51</v>
-      </c>
-      <c r="G31" s="53">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="H31" s="53">
-        <v>100</v>
-      </c>
-      <c r="I31" s="53">
-        <v>59.33</v>
-      </c>
-      <c r="J31" s="53">
-        <v>76.22</v>
-      </c>
-      <c r="K31" s="53">
-        <v>98.92</v>
-      </c>
-      <c r="L31" s="53">
-        <v>71.34</v>
-      </c>
-      <c r="M31" s="53">
-        <v>76.510000000000005</v>
-      </c>
-      <c r="N31" s="53">
-        <v>69.37</v>
-      </c>
-      <c r="O31" s="53">
-        <v>49.33</v>
-      </c>
-      <c r="P31" s="53">
-        <v>58.35</v>
-      </c>
-      <c r="Q31" s="53">
-        <v>77.27</v>
-      </c>
-      <c r="R31" s="53">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="S31" s="53">
-        <v>81.13</v>
-      </c>
-      <c r="T31" s="53">
-        <v>58.98</v>
-      </c>
-      <c r="U31" s="53">
-        <v>79.56</v>
-      </c>
-      <c r="V31" s="54">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="W31" s="47">
-        <f t="shared" si="0"/>
-        <v>66.406499999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="52">
-        <v>5.89</v>
-      </c>
-      <c r="D32" s="53">
-        <v>14.42</v>
-      </c>
-      <c r="E32" s="53">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="F32" s="53">
-        <v>0</v>
-      </c>
-      <c r="G32" s="53">
-        <v>26.67</v>
-      </c>
-      <c r="H32" s="53">
-        <v>-0.1</v>
-      </c>
-      <c r="I32" s="53">
-        <v>40.28</v>
-      </c>
-      <c r="J32" s="53">
-        <v>24.89</v>
-      </c>
-      <c r="K32" s="53">
-        <v>37.47</v>
-      </c>
-      <c r="L32" s="53">
-        <v>-1.46</v>
-      </c>
-      <c r="M32" s="53">
-        <v>-2.97</v>
-      </c>
-      <c r="N32" s="53">
-        <v>37.76</v>
-      </c>
-      <c r="O32" s="53">
-        <v>6.11</v>
-      </c>
-      <c r="P32" s="53">
-        <v>25.02</v>
-      </c>
-      <c r="Q32" s="53">
-        <v>54.65</v>
-      </c>
-      <c r="R32" s="53">
-        <v>25.04</v>
-      </c>
-      <c r="S32" s="53">
-        <v>36.270000000000003</v>
-      </c>
-      <c r="T32" s="53">
-        <v>21.83</v>
-      </c>
-      <c r="U32" s="53">
-        <v>42.7</v>
-      </c>
-      <c r="V32" s="54">
-        <v>26.65</v>
-      </c>
-      <c r="W32" s="47">
-        <f t="shared" si="0"/>
-        <v>21.536999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="52">
-        <v>24.69</v>
-      </c>
-      <c r="D33" s="53">
-        <v>34.229999999999997</v>
-      </c>
-      <c r="E33" s="53">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="F33" s="53">
-        <v>25.13</v>
-      </c>
-      <c r="G33" s="53">
-        <v>4.07</v>
-      </c>
-      <c r="H33" s="53">
-        <v>52.38</v>
-      </c>
-      <c r="I33" s="53">
-        <v>86.49</v>
-      </c>
-      <c r="J33" s="53">
-        <v>25.88</v>
-      </c>
-      <c r="K33" s="53">
-        <v>35.35</v>
-      </c>
-      <c r="L33" s="53">
-        <v>23.41</v>
-      </c>
-      <c r="M33" s="53">
-        <v>73.63</v>
-      </c>
-      <c r="N33" s="53">
-        <v>50.38</v>
-      </c>
-      <c r="O33" s="53">
-        <v>25.46</v>
-      </c>
-      <c r="P33" s="53">
-        <v>35.840000000000003</v>
-      </c>
-      <c r="Q33" s="53">
-        <v>47.4</v>
-      </c>
-      <c r="R33" s="53">
-        <v>49.88</v>
-      </c>
-      <c r="S33" s="53">
-        <v>45.47</v>
-      </c>
-      <c r="T33" s="53">
-        <v>36.85</v>
-      </c>
-      <c r="U33" s="53">
-        <v>34.1</v>
-      </c>
-      <c r="V33" s="54">
-        <v>25.96</v>
-      </c>
-      <c r="W33" s="47">
-        <f t="shared" si="0"/>
-        <v>37.307500000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="52">
-        <v>49.63</v>
-      </c>
-      <c r="D34" s="53">
-        <v>51.23</v>
-      </c>
-      <c r="E34" s="53">
-        <v>48.56</v>
-      </c>
-      <c r="F34" s="53">
-        <v>99.52</v>
-      </c>
-      <c r="G34" s="53">
-        <v>74.08</v>
-      </c>
-      <c r="H34" s="53">
-        <v>100</v>
-      </c>
-      <c r="I34" s="53">
-        <v>76.63</v>
-      </c>
-      <c r="J34" s="53">
-        <v>86.45</v>
-      </c>
-      <c r="K34" s="53">
-        <v>48.11</v>
-      </c>
-      <c r="L34" s="53">
-        <v>49.62</v>
-      </c>
-      <c r="M34" s="53">
-        <v>96.18</v>
-      </c>
-      <c r="N34" s="53">
-        <v>26.07</v>
-      </c>
-      <c r="O34" s="53">
-        <v>67.52</v>
-      </c>
-      <c r="P34" s="53">
-        <v>50.05</v>
-      </c>
-      <c r="Q34" s="53">
-        <v>30.76</v>
-      </c>
-      <c r="R34" s="53">
-        <v>64.42</v>
-      </c>
-      <c r="S34" s="53">
-        <v>51.97</v>
-      </c>
-      <c r="T34" s="53">
-        <v>61.97</v>
-      </c>
-      <c r="U34" s="53">
-        <v>71.75</v>
-      </c>
-      <c r="V34" s="54">
-        <v>32.130000000000003</v>
-      </c>
-      <c r="W34" s="47">
-        <f t="shared" si="0"/>
-        <v>61.832500000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="52">
-        <v>49.55</v>
-      </c>
-      <c r="D35" s="53">
-        <v>40.53</v>
-      </c>
-      <c r="E35" s="53">
-        <v>-25.05</v>
-      </c>
-      <c r="F35" s="53">
-        <v>25.39</v>
-      </c>
-      <c r="G35" s="53">
-        <v>50.9</v>
-      </c>
-      <c r="H35" s="53">
-        <v>74.36</v>
-      </c>
-      <c r="I35" s="53">
-        <v>62.9</v>
-      </c>
-      <c r="J35" s="53">
-        <v>74.42</v>
-      </c>
-      <c r="K35" s="53">
-        <v>0</v>
-      </c>
-      <c r="L35" s="53">
-        <v>50.05</v>
-      </c>
-      <c r="M35" s="53">
-        <v>51.55</v>
-      </c>
-      <c r="N35" s="53">
-        <v>59.66</v>
-      </c>
-      <c r="O35" s="53">
-        <v>50.96</v>
-      </c>
-      <c r="P35" s="53">
-        <v>77.27</v>
-      </c>
-      <c r="Q35" s="53">
-        <v>58.72</v>
-      </c>
-      <c r="R35" s="53">
-        <v>93.48</v>
-      </c>
-      <c r="S35" s="53">
-        <v>25.6</v>
-      </c>
-      <c r="T35" s="53">
-        <v>23.17</v>
-      </c>
-      <c r="U35" s="53">
-        <v>38.18</v>
-      </c>
-      <c r="V35" s="54">
-        <v>55.52</v>
-      </c>
-      <c r="W35" s="47">
-        <f t="shared" si="0"/>
-        <v>46.857999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="52">
-        <v>49.16</v>
-      </c>
-      <c r="D36" s="53">
-        <v>22.52</v>
-      </c>
-      <c r="E36" s="53">
-        <v>-23.59</v>
-      </c>
-      <c r="F36" s="53">
-        <v>26.68</v>
-      </c>
-      <c r="G36" s="53">
-        <v>52.84</v>
-      </c>
-      <c r="H36" s="53">
-        <v>49.48</v>
-      </c>
-      <c r="I36" s="53">
-        <v>27.77</v>
-      </c>
-      <c r="J36" s="53">
-        <v>47.64</v>
-      </c>
-      <c r="K36" s="53">
-        <v>27.15</v>
-      </c>
-      <c r="L36" s="53">
-        <v>52.5</v>
-      </c>
-      <c r="M36" s="53">
-        <v>47.23</v>
-      </c>
-      <c r="N36" s="53">
-        <v>24.52</v>
-      </c>
-      <c r="O36" s="53">
-        <v>38.479999999999997</v>
-      </c>
-      <c r="P36" s="53">
-        <v>54.54</v>
-      </c>
-      <c r="Q36" s="53">
-        <v>40.29</v>
-      </c>
-      <c r="R36" s="53">
-        <v>48.6</v>
-      </c>
-      <c r="S36" s="53">
-        <v>77.09</v>
-      </c>
-      <c r="T36" s="53">
-        <v>16.66</v>
-      </c>
-      <c r="U36" s="53">
-        <v>20.79</v>
-      </c>
-      <c r="V36" s="54">
-        <v>51.63</v>
-      </c>
-      <c r="W36" s="47">
-        <f t="shared" si="0"/>
-        <v>37.599000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="52">
-        <v>58.56</v>
-      </c>
-      <c r="D37" s="53">
-        <v>80.55</v>
-      </c>
-      <c r="E37" s="53">
-        <v>66.38</v>
-      </c>
-      <c r="F37" s="53">
-        <v>60.34</v>
-      </c>
-      <c r="G37" s="53">
-        <v>70.33</v>
-      </c>
-      <c r="H37" s="53">
-        <v>100</v>
-      </c>
-      <c r="I37" s="53">
-        <v>58.49</v>
-      </c>
-      <c r="J37" s="53">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="K37" s="53">
-        <v>75.08</v>
-      </c>
-      <c r="L37" s="53">
-        <v>64.150000000000006</v>
-      </c>
-      <c r="M37" s="53">
-        <v>100</v>
-      </c>
-      <c r="N37" s="53">
-        <v>83.71</v>
-      </c>
-      <c r="O37" s="53">
-        <v>68.69</v>
-      </c>
-      <c r="P37" s="53">
-        <v>84.23</v>
-      </c>
-      <c r="Q37" s="53">
-        <v>100</v>
-      </c>
-      <c r="R37" s="53">
-        <v>100</v>
-      </c>
-      <c r="S37" s="53">
-        <v>78.430000000000007</v>
-      </c>
-      <c r="T37" s="53">
-        <v>68.38</v>
-      </c>
-      <c r="U37" s="53">
-        <v>91.9</v>
-      </c>
-      <c r="V37" s="54">
-        <v>73.14</v>
-      </c>
-      <c r="W37" s="47">
-        <f t="shared" si="0"/>
-        <v>75.790500000000009</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="52">
-        <v>50.5</v>
-      </c>
-      <c r="D38" s="53">
-        <v>81.75</v>
-      </c>
-      <c r="E38" s="53">
-        <v>30.47</v>
-      </c>
-      <c r="F38" s="53">
-        <v>51.07</v>
-      </c>
-      <c r="G38" s="53">
-        <v>25.68</v>
-      </c>
-      <c r="H38" s="53">
-        <v>48.81</v>
-      </c>
-      <c r="I38" s="53">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="J38" s="53">
-        <v>49.83</v>
-      </c>
-      <c r="K38" s="53">
-        <v>36.479999999999997</v>
-      </c>
-      <c r="L38" s="53">
-        <v>79.66</v>
-      </c>
-      <c r="M38" s="53">
-        <v>49.36</v>
-      </c>
-      <c r="N38" s="53">
-        <v>61.57</v>
-      </c>
-      <c r="O38" s="53">
-        <v>47.54</v>
-      </c>
-      <c r="P38" s="53">
-        <v>77.94</v>
-      </c>
-      <c r="Q38" s="53">
-        <v>88.01</v>
-      </c>
-      <c r="R38" s="53">
-        <v>75.97</v>
-      </c>
-      <c r="S38" s="53">
-        <v>75.59</v>
-      </c>
-      <c r="T38" s="53">
-        <v>48.13</v>
-      </c>
-      <c r="U38" s="53">
-        <v>62.39</v>
-      </c>
-      <c r="V38" s="54">
-        <v>58.14</v>
-      </c>
-      <c r="W38" s="47">
-        <f t="shared" si="0"/>
-        <v>56.661500000000011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="52">
-        <v>53.44</v>
-      </c>
-      <c r="D39" s="53">
-        <v>48.13</v>
-      </c>
-      <c r="E39" s="53">
-        <v>50.3</v>
-      </c>
-      <c r="F39" s="53">
-        <v>49.78</v>
-      </c>
-      <c r="G39" s="53">
-        <v>75.739999999999995</v>
-      </c>
-      <c r="H39" s="53">
-        <v>72.75</v>
-      </c>
-      <c r="I39" s="53">
-        <v>20.02</v>
-      </c>
-      <c r="J39" s="53">
-        <v>40.520000000000003</v>
-      </c>
-      <c r="K39" s="53">
-        <v>32.72</v>
-      </c>
-      <c r="L39" s="53">
-        <v>78.58</v>
-      </c>
-      <c r="M39" s="53">
-        <v>72.819999999999993</v>
-      </c>
-      <c r="N39" s="53">
-        <v>51.93</v>
-      </c>
-      <c r="O39" s="53">
-        <v>52.18</v>
-      </c>
-      <c r="P39" s="53">
-        <v>84.78</v>
-      </c>
-      <c r="Q39" s="53">
-        <v>95.08</v>
-      </c>
-      <c r="R39" s="53">
-        <v>96.68</v>
-      </c>
-      <c r="S39" s="53">
-        <v>74.92</v>
-      </c>
-      <c r="T39" s="53">
-        <v>55.27</v>
-      </c>
-      <c r="U39" s="53">
-        <v>62.53</v>
-      </c>
-      <c r="V39" s="54">
-        <v>50.55</v>
-      </c>
-      <c r="W39" s="47">
-        <f t="shared" si="0"/>
-        <v>60.935999999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="52">
-        <v>49.25</v>
-      </c>
-      <c r="D40" s="53">
-        <v>53.33</v>
-      </c>
-      <c r="E40" s="53">
-        <v>52.38</v>
-      </c>
-      <c r="F40" s="53">
-        <v>23.62</v>
-      </c>
-      <c r="G40" s="53">
-        <v>49.31</v>
-      </c>
-      <c r="H40" s="53">
-        <v>100</v>
-      </c>
-      <c r="I40" s="53">
-        <v>43.03</v>
-      </c>
-      <c r="J40" s="53">
-        <v>49.13</v>
-      </c>
-      <c r="K40" s="53">
-        <v>31.36</v>
-      </c>
-      <c r="L40" s="53">
-        <v>98.97</v>
-      </c>
-      <c r="M40" s="53">
-        <v>75.3</v>
-      </c>
-      <c r="N40" s="53">
-        <v>77.33</v>
-      </c>
-      <c r="O40" s="53">
-        <v>49.52</v>
-      </c>
-      <c r="P40" s="53">
-        <v>84.32</v>
-      </c>
-      <c r="Q40" s="53">
-        <v>40.72</v>
-      </c>
-      <c r="R40" s="53">
-        <v>73.569999999999993</v>
-      </c>
-      <c r="S40" s="53">
-        <v>70.53</v>
-      </c>
-      <c r="T40" s="53">
-        <v>46.43</v>
-      </c>
-      <c r="U40" s="53">
-        <v>31.33</v>
-      </c>
-      <c r="V40" s="54">
-        <v>54.72</v>
-      </c>
-      <c r="W40" s="47">
-        <f t="shared" si="0"/>
-        <v>57.707499999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="52">
-        <v>0</v>
-      </c>
-      <c r="D41" s="53">
-        <v>50.71</v>
-      </c>
-      <c r="E41" s="53">
-        <v>12.36</v>
-      </c>
-      <c r="F41" s="53">
-        <v>0</v>
-      </c>
-      <c r="G41" s="53">
-        <v>1.78</v>
-      </c>
-      <c r="H41" s="53">
-        <v>0</v>
-      </c>
-      <c r="I41" s="53">
-        <v>9.35</v>
-      </c>
-      <c r="J41" s="53">
-        <v>-2.48</v>
-      </c>
-      <c r="K41" s="53">
-        <v>0</v>
-      </c>
-      <c r="L41" s="53">
-        <v>1.52</v>
-      </c>
-      <c r="M41" s="53">
-        <v>-24.39</v>
-      </c>
-      <c r="N41" s="53">
-        <v>1.82</v>
-      </c>
-      <c r="O41" s="53">
-        <v>21.57</v>
-      </c>
-      <c r="P41" s="53">
-        <v>20.04</v>
-      </c>
-      <c r="Q41" s="53">
-        <v>28.77</v>
-      </c>
-      <c r="R41" s="53">
-        <v>24.23</v>
-      </c>
-      <c r="S41" s="53">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="T41" s="53">
-        <v>41.12</v>
-      </c>
-      <c r="U41" s="53">
-        <v>0</v>
-      </c>
-      <c r="V41" s="54">
-        <v>31.14</v>
-      </c>
-      <c r="W41" s="47">
-        <f t="shared" si="0"/>
-        <v>11.729999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="52">
-        <v>-0.21</v>
-      </c>
-      <c r="D42" s="53">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="E42" s="53">
-        <v>-7.62</v>
-      </c>
-      <c r="F42" s="53">
-        <v>-1.74</v>
-      </c>
-      <c r="G42" s="53">
-        <v>22.21</v>
-      </c>
-      <c r="H42" s="53">
-        <v>-2.48</v>
-      </c>
-      <c r="I42" s="53">
-        <v>0</v>
-      </c>
-      <c r="J42" s="53">
-        <v>24.98</v>
-      </c>
-      <c r="K42" s="53">
-        <v>7.86</v>
-      </c>
-      <c r="L42" s="53">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="M42" s="53">
-        <v>1</v>
-      </c>
-      <c r="N42" s="53">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="O42" s="53">
-        <v>23.45</v>
-      </c>
-      <c r="P42" s="53">
-        <v>23.88</v>
-      </c>
-      <c r="Q42" s="53">
-        <v>22.78</v>
-      </c>
-      <c r="R42" s="53">
-        <v>49.71</v>
-      </c>
-      <c r="S42" s="53">
-        <v>9.19</v>
-      </c>
-      <c r="T42" s="53">
-        <v>25.99</v>
-      </c>
-      <c r="U42" s="53">
-        <v>-0.34</v>
-      </c>
-      <c r="V42" s="54">
-        <v>28.28</v>
-      </c>
-      <c r="W42" s="47">
-        <f t="shared" si="0"/>
-        <v>12.860500000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="52">
-        <v>99.72</v>
-      </c>
-      <c r="D43" s="53">
-        <v>99.83</v>
-      </c>
-      <c r="E43" s="53">
-        <v>86.82</v>
-      </c>
-      <c r="F43" s="53">
-        <v>99.5</v>
-      </c>
-      <c r="G43" s="53">
-        <v>98.71</v>
-      </c>
-      <c r="H43" s="53">
-        <v>73.16</v>
-      </c>
-      <c r="I43" s="53">
-        <v>87.2</v>
-      </c>
-      <c r="J43" s="53">
-        <v>75.05</v>
-      </c>
-      <c r="K43" s="53">
-        <v>98.86</v>
-      </c>
-      <c r="L43" s="53">
-        <v>90.52</v>
-      </c>
-      <c r="M43" s="53">
-        <v>98.83</v>
-      </c>
-      <c r="N43" s="53">
-        <v>100</v>
-      </c>
-      <c r="O43" s="53">
-        <v>63.74</v>
-      </c>
-      <c r="P43" s="53">
-        <v>73.790000000000006</v>
-      </c>
-      <c r="Q43" s="53">
-        <v>73.63</v>
-      </c>
-      <c r="R43" s="53">
-        <v>100</v>
-      </c>
-      <c r="S43" s="53">
-        <v>67.97</v>
-      </c>
-      <c r="T43" s="53">
-        <v>75.19</v>
-      </c>
-      <c r="U43" s="53">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="V43" s="54">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="W43" s="47">
-        <f t="shared" si="0"/>
-        <v>83.393500000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="52">
-        <v>0</v>
-      </c>
-      <c r="D44" s="53">
-        <v>23.77</v>
-      </c>
-      <c r="E44" s="53">
-        <v>0.24</v>
-      </c>
-      <c r="F44" s="53">
-        <v>14.43</v>
-      </c>
-      <c r="G44" s="53">
-        <v>25.23</v>
-      </c>
-      <c r="H44" s="53">
-        <v>65.59</v>
-      </c>
-      <c r="I44" s="53">
-        <v>37.57</v>
-      </c>
-      <c r="J44" s="53">
-        <v>12.74</v>
-      </c>
-      <c r="K44" s="53">
-        <v>0</v>
-      </c>
-      <c r="L44" s="53">
-        <v>23.22</v>
-      </c>
-      <c r="M44" s="53">
-        <v>46.44</v>
-      </c>
-      <c r="N44" s="53">
-        <v>21.12</v>
-      </c>
-      <c r="O44" s="53">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="P44" s="53">
-        <v>12.08</v>
-      </c>
-      <c r="Q44" s="53">
-        <v>16.02</v>
-      </c>
-      <c r="R44" s="53">
-        <v>74.5</v>
-      </c>
-      <c r="S44" s="53">
-        <v>28.19</v>
-      </c>
-      <c r="T44" s="53">
-        <v>21.99</v>
-      </c>
-      <c r="U44" s="53">
-        <v>24.9</v>
-      </c>
-      <c r="V44" s="54">
-        <v>17.45</v>
-      </c>
-      <c r="W44" s="47">
-        <f t="shared" si="0"/>
-        <v>24.107499999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="52">
-        <v>0.61</v>
-      </c>
-      <c r="D45" s="53">
-        <v>17.87</v>
-      </c>
-      <c r="E45" s="53">
-        <v>32.14</v>
-      </c>
-      <c r="F45" s="53">
-        <v>11.49</v>
-      </c>
-      <c r="G45" s="53">
-        <v>22.54</v>
-      </c>
-      <c r="H45" s="53">
-        <v>50.02</v>
-      </c>
-      <c r="I45" s="53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J45" s="53">
-        <v>25.02</v>
-      </c>
-      <c r="K45" s="53">
-        <v>5.47</v>
-      </c>
-      <c r="L45" s="53">
-        <v>49.9</v>
-      </c>
-      <c r="M45" s="53">
-        <v>48.56</v>
-      </c>
-      <c r="N45" s="53">
-        <v>50.45</v>
-      </c>
-      <c r="O45" s="53">
-        <v>9.74</v>
-      </c>
-      <c r="P45" s="53">
-        <v>52.52</v>
-      </c>
-      <c r="Q45" s="53">
-        <v>31.46</v>
-      </c>
-      <c r="R45" s="53">
-        <v>36.28</v>
-      </c>
-      <c r="S45" s="53">
-        <v>52.46</v>
-      </c>
-      <c r="T45" s="53">
-        <v>41.56</v>
-      </c>
-      <c r="U45" s="53">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="V45" s="54">
-        <v>26.3</v>
-      </c>
-      <c r="W45" s="47">
-        <f t="shared" si="0"/>
-        <v>29.195499999999992</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="52">
-        <v>50.32</v>
-      </c>
-      <c r="D46" s="53">
-        <v>69.040000000000006</v>
-      </c>
-      <c r="E46" s="53">
-        <v>84.9</v>
-      </c>
-      <c r="F46" s="53">
-        <v>47.23</v>
-      </c>
-      <c r="G46" s="53">
-        <v>99.7</v>
-      </c>
-      <c r="H46" s="53">
-        <v>42.31</v>
-      </c>
-      <c r="I46" s="53">
-        <v>67.33</v>
-      </c>
-      <c r="J46" s="53">
-        <v>50.34</v>
-      </c>
-      <c r="K46" s="53">
-        <v>78.209999999999994</v>
-      </c>
-      <c r="L46" s="53">
-        <v>74.2</v>
-      </c>
-      <c r="M46" s="53">
-        <v>85.09</v>
-      </c>
-      <c r="N46" s="53">
-        <v>58.5</v>
-      </c>
-      <c r="O46" s="53">
-        <v>62.07</v>
-      </c>
-      <c r="P46" s="53">
-        <v>75.069999999999993</v>
-      </c>
-      <c r="Q46" s="53">
-        <v>91.42</v>
-      </c>
-      <c r="R46" s="53">
-        <v>100</v>
-      </c>
-      <c r="S46" s="53">
-        <v>75.89</v>
-      </c>
-      <c r="T46" s="53">
-        <v>77.239999999999995</v>
-      </c>
-      <c r="U46" s="53">
-        <v>72.290000000000006</v>
-      </c>
-      <c r="V46" s="54">
-        <v>31.29</v>
-      </c>
-      <c r="W46" s="47">
-        <f t="shared" si="0"/>
-        <v>69.622000000000014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="52">
-        <v>24.96</v>
-      </c>
-      <c r="D47" s="53">
-        <v>36.26</v>
-      </c>
-      <c r="E47" s="53">
-        <v>27.18</v>
-      </c>
-      <c r="F47" s="53">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G47" s="53">
-        <v>25.02</v>
-      </c>
-      <c r="H47" s="53">
-        <v>75.77</v>
-      </c>
-      <c r="I47" s="53">
-        <v>44.58</v>
-      </c>
-      <c r="J47" s="53">
-        <v>7.57</v>
-      </c>
-      <c r="K47" s="53">
-        <v>26.41</v>
-      </c>
-      <c r="L47" s="53">
-        <v>48.9</v>
-      </c>
-      <c r="M47" s="53">
-        <v>45.98</v>
-      </c>
-      <c r="N47" s="53">
-        <v>65.31</v>
-      </c>
-      <c r="O47" s="53">
-        <v>54.78</v>
-      </c>
-      <c r="P47" s="53">
-        <v>63.95</v>
-      </c>
-      <c r="Q47" s="53">
-        <v>68.290000000000006</v>
-      </c>
-      <c r="R47" s="53">
-        <v>73.64</v>
-      </c>
-      <c r="S47" s="53">
-        <v>29.12</v>
-      </c>
-      <c r="T47" s="53">
-        <v>51</v>
-      </c>
-      <c r="U47" s="53">
-        <v>32.24</v>
-      </c>
-      <c r="V47" s="54">
-        <v>17.29</v>
-      </c>
-      <c r="W47" s="47">
-        <f t="shared" si="0"/>
-        <v>42.957999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="52">
-        <v>25.85</v>
-      </c>
-      <c r="D48" s="53">
-        <v>15.22</v>
-      </c>
-      <c r="E48" s="53">
-        <v>7.13</v>
-      </c>
-      <c r="F48" s="53">
-        <v>0</v>
-      </c>
-      <c r="G48" s="53">
-        <v>-2.92</v>
-      </c>
-      <c r="H48" s="53">
-        <v>19.25</v>
-      </c>
-      <c r="I48" s="53">
-        <v>28.25</v>
-      </c>
-      <c r="J48" s="53">
-        <v>23.02</v>
-      </c>
-      <c r="K48" s="53">
-        <v>0</v>
-      </c>
-      <c r="L48" s="53">
-        <v>-0.1</v>
-      </c>
-      <c r="M48" s="53">
-        <v>1.01</v>
-      </c>
-      <c r="N48" s="53">
-        <v>0</v>
-      </c>
-      <c r="O48" s="53">
-        <v>9.81</v>
-      </c>
-      <c r="P48" s="53">
-        <v>7.49</v>
-      </c>
-      <c r="Q48" s="53">
-        <v>20.41</v>
-      </c>
-      <c r="R48" s="53">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="S48" s="53">
-        <v>15.52</v>
-      </c>
-      <c r="T48" s="53">
-        <v>23.44</v>
-      </c>
-      <c r="U48" s="53">
-        <v>12.21</v>
-      </c>
-      <c r="V48" s="54">
-        <v>15.92</v>
-      </c>
-      <c r="W48" s="47">
-        <f t="shared" si="0"/>
-        <v>12.067</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="52">
-        <v>-1.39</v>
-      </c>
-      <c r="D49" s="53">
-        <v>0</v>
-      </c>
-      <c r="E49" s="53">
-        <v>20.55</v>
-      </c>
-      <c r="F49" s="53">
-        <v>-0.08</v>
-      </c>
-      <c r="G49" s="53">
-        <v>24.86</v>
-      </c>
-      <c r="H49" s="53">
-        <v>14.35</v>
-      </c>
-      <c r="I49" s="53">
-        <v>24.95</v>
-      </c>
-      <c r="J49" s="53">
-        <v>49.94</v>
-      </c>
-      <c r="K49" s="53">
-        <v>18.66</v>
-      </c>
-      <c r="L49" s="53">
-        <v>0</v>
-      </c>
-      <c r="M49" s="53">
-        <v>9.74</v>
-      </c>
-      <c r="N49" s="53">
-        <v>5.45</v>
-      </c>
-      <c r="O49" s="53">
-        <v>22.75</v>
-      </c>
-      <c r="P49" s="53">
-        <v>13.4</v>
-      </c>
-      <c r="Q49" s="53">
-        <v>18.52</v>
-      </c>
-      <c r="R49" s="53">
-        <v>24.18</v>
-      </c>
-      <c r="S49" s="53">
-        <v>24.43</v>
-      </c>
-      <c r="T49" s="53">
-        <v>29.4</v>
-      </c>
-      <c r="U49" s="53">
-        <v>11.7</v>
-      </c>
-      <c r="V49" s="54">
-        <v>33.21</v>
-      </c>
-      <c r="W49" s="47">
-        <f t="shared" si="0"/>
-        <v>17.230999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="55">
-        <v>47.88</v>
-      </c>
-      <c r="D50" s="56">
-        <v>64.97</v>
-      </c>
-      <c r="E50" s="56">
-        <v>35.729999999999997</v>
-      </c>
-      <c r="F50" s="56">
-        <v>40.83</v>
-      </c>
-      <c r="G50" s="56">
-        <v>46.94</v>
-      </c>
-      <c r="H50" s="56">
-        <v>100</v>
-      </c>
-      <c r="I50" s="56">
-        <v>36.78</v>
-      </c>
-      <c r="J50" s="56">
-        <v>48.66</v>
-      </c>
-      <c r="K50" s="56">
-        <v>47.16</v>
-      </c>
-      <c r="L50" s="56">
-        <v>70.7</v>
-      </c>
-      <c r="M50" s="56">
-        <v>50.06</v>
-      </c>
-      <c r="N50" s="56">
-        <v>49.85</v>
-      </c>
-      <c r="O50" s="56">
-        <v>55.57</v>
-      </c>
-      <c r="P50" s="56">
-        <v>36.01</v>
-      </c>
-      <c r="Q50" s="56">
-        <v>75.14</v>
-      </c>
-      <c r="R50" s="56">
-        <v>50.81</v>
-      </c>
-      <c r="S50" s="56">
-        <v>26.32</v>
-      </c>
-      <c r="T50" s="56">
-        <v>75.58</v>
-      </c>
-      <c r="U50" s="56">
-        <v>58.8</v>
-      </c>
-      <c r="V50" s="57">
-        <v>46.28</v>
-      </c>
-      <c r="W50" s="48">
-        <f t="shared" si="0"/>
-        <v>53.203500000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DMOS.xlsx
+++ b/DMOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedromartin/Documents/GitHub/NeRF-QA-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7068D9BC-3DDD-934C-9D08-7A5681ED935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79841521-224F-E148-9BAE-5896130B98F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DMOS" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,10 @@
     <t>m60_mipnerf360.mp4</t>
   </si>
   <si>
-    <t xml:space="preserve">    Synthetic Scenes (Realistic Synthetic 360°)</t>
+    <t>Subjects</t>
   </si>
   <si>
-    <t>Subjects</t>
+    <t xml:space="preserve"> Synthetic Scenes (Realistic Synthetic 360°)</t>
   </si>
 </sst>
 </file>
@@ -467,15 +467,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -826,6 +817,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -836,20 +842,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,56 +872,60 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4894,7 +4900,7 @@
   <dimension ref="A1:AMH69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4910,3080 +4916,3080 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>84</v>
+      <c r="A1" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="26" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="18"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="16"/>
     </row>
     <row r="2" spans="1:41" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="27" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AE2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="39" t="s">
+      <c r="AG2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AJ2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AK2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AL2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="39" t="s">
+      <c r="AM2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AO2" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="41">
         <v>-12.1555</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="31" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="49">
+      <c r="U3" s="47">
         <v>92.48</v>
       </c>
-      <c r="V3" s="50">
+      <c r="V3" s="48">
         <v>92.61</v>
       </c>
-      <c r="W3" s="50">
+      <c r="W3" s="48">
         <v>70.3</v>
       </c>
-      <c r="X3" s="50">
+      <c r="X3" s="48">
         <v>92.49</v>
       </c>
-      <c r="Y3" s="50">
+      <c r="Y3" s="48">
         <v>91.62</v>
       </c>
-      <c r="Z3" s="50">
+      <c r="Z3" s="48">
         <v>92.94</v>
       </c>
-      <c r="AA3" s="50">
+      <c r="AA3" s="48">
         <v>79.959999999999994</v>
       </c>
-      <c r="AB3" s="50">
+      <c r="AB3" s="48">
         <v>81.48</v>
       </c>
-      <c r="AC3" s="50">
+      <c r="AC3" s="48">
         <v>93.94</v>
       </c>
-      <c r="AD3" s="50">
+      <c r="AD3" s="48">
         <v>91.18</v>
       </c>
-      <c r="AE3" s="50">
+      <c r="AE3" s="48">
         <v>86.56</v>
       </c>
-      <c r="AF3" s="50">
+      <c r="AF3" s="48">
         <v>61.7</v>
       </c>
-      <c r="AG3" s="50">
+      <c r="AG3" s="48">
         <v>83.18</v>
       </c>
-      <c r="AH3" s="50">
+      <c r="AH3" s="48">
         <v>80.790000000000006</v>
       </c>
-      <c r="AI3" s="50">
+      <c r="AI3" s="48">
         <v>93.3</v>
       </c>
-      <c r="AJ3" s="50">
+      <c r="AJ3" s="48">
         <v>88.09</v>
       </c>
-      <c r="AK3" s="50">
+      <c r="AK3" s="48">
         <v>93.59</v>
       </c>
-      <c r="AL3" s="50">
+      <c r="AL3" s="48">
         <v>89.23</v>
       </c>
-      <c r="AM3" s="50">
+      <c r="AM3" s="48">
         <v>68.08</v>
       </c>
-      <c r="AN3" s="51">
+      <c r="AN3" s="49">
         <v>63.95</v>
       </c>
-      <c r="AO3" s="46">
+      <c r="AO3" s="44">
         <f>AVERAGE(U3:AN3)</f>
         <v>84.373500000000007</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <v>-10.019000000000002</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="32" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U4" s="50">
         <v>54.49</v>
       </c>
-      <c r="V4" s="53">
+      <c r="V4" s="51">
         <v>53.69</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="51">
         <v>53.07</v>
       </c>
-      <c r="X4" s="53">
+      <c r="X4" s="51">
         <v>29.77</v>
       </c>
-      <c r="Y4" s="53">
+      <c r="Y4" s="51">
         <v>51.47</v>
       </c>
-      <c r="Z4" s="53">
+      <c r="Z4" s="51">
         <v>81.650000000000006</v>
       </c>
-      <c r="AA4" s="53">
+      <c r="AA4" s="51">
         <v>38.31</v>
       </c>
-      <c r="AB4" s="53">
+      <c r="AB4" s="51">
         <v>100</v>
       </c>
-      <c r="AC4" s="53">
+      <c r="AC4" s="51">
         <v>79.19</v>
       </c>
-      <c r="AD4" s="53">
+      <c r="AD4" s="51">
         <v>75.2</v>
       </c>
-      <c r="AE4" s="53">
+      <c r="AE4" s="51">
         <v>77.290000000000006</v>
       </c>
-      <c r="AF4" s="53">
+      <c r="AF4" s="51">
         <v>79.36</v>
       </c>
-      <c r="AG4" s="53">
+      <c r="AG4" s="51">
         <v>52.63</v>
       </c>
-      <c r="AH4" s="53">
+      <c r="AH4" s="51">
         <v>22.88</v>
       </c>
-      <c r="AI4" s="53">
+      <c r="AI4" s="51">
         <v>100</v>
       </c>
-      <c r="AJ4" s="53">
+      <c r="AJ4" s="51">
         <v>96.27</v>
       </c>
-      <c r="AK4" s="53">
+      <c r="AK4" s="51">
         <v>82.98</v>
       </c>
-      <c r="AL4" s="53">
+      <c r="AL4" s="51">
         <v>55.24</v>
       </c>
-      <c r="AM4" s="53">
+      <c r="AM4" s="51">
         <v>53.61</v>
       </c>
-      <c r="AN4" s="54">
+      <c r="AN4" s="52">
         <v>67.84</v>
       </c>
-      <c r="AO4" s="47">
+      <c r="AO4" s="45">
         <f t="shared" ref="AO4:AO50" si="0">AVERAGE(U4:AN4)</f>
         <v>65.246999999999986</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="42">
         <v>-2.085</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="32" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="52">
+      <c r="U5" s="50">
         <v>95.4</v>
       </c>
-      <c r="V5" s="53">
+      <c r="V5" s="51">
         <v>96.62</v>
       </c>
-      <c r="W5" s="53">
+      <c r="W5" s="51">
         <v>96.72</v>
       </c>
-      <c r="X5" s="53">
+      <c r="X5" s="51">
         <v>96.42</v>
       </c>
-      <c r="Y5" s="53">
+      <c r="Y5" s="51">
         <v>96.54</v>
       </c>
-      <c r="Z5" s="53">
+      <c r="Z5" s="51">
         <v>95.14</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="AA5" s="51">
         <v>96.2</v>
       </c>
-      <c r="AB5" s="53">
+      <c r="AB5" s="51">
         <v>95.42</v>
       </c>
-      <c r="AC5" s="53">
+      <c r="AC5" s="51">
         <v>97.31</v>
       </c>
-      <c r="AD5" s="53">
+      <c r="AD5" s="51">
         <v>96.32</v>
       </c>
-      <c r="AE5" s="53">
+      <c r="AE5" s="51">
         <v>49.87</v>
       </c>
-      <c r="AF5" s="53">
+      <c r="AF5" s="51">
         <v>97.98</v>
       </c>
-      <c r="AG5" s="53">
+      <c r="AG5" s="51">
         <v>96.52</v>
       </c>
-      <c r="AH5" s="53">
+      <c r="AH5" s="51">
         <v>95.07</v>
       </c>
-      <c r="AI5" s="53">
+      <c r="AI5" s="51">
         <v>96.97</v>
       </c>
-      <c r="AJ5" s="53">
+      <c r="AJ5" s="51">
         <v>96.21</v>
       </c>
-      <c r="AK5" s="53">
+      <c r="AK5" s="51">
         <v>97.39</v>
       </c>
-      <c r="AL5" s="53">
+      <c r="AL5" s="51">
         <v>96.95</v>
       </c>
-      <c r="AM5" s="53">
+      <c r="AM5" s="51">
         <v>96.04</v>
       </c>
-      <c r="AN5" s="54">
+      <c r="AN5" s="52">
         <v>84.27</v>
       </c>
-      <c r="AO5" s="47">
+      <c r="AO5" s="45">
         <f t="shared" si="0"/>
         <v>93.467999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="42">
         <v>1.8305000000000002</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="32" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="50">
         <v>93.82</v>
       </c>
-      <c r="V6" s="53">
+      <c r="V6" s="51">
         <v>95.54</v>
       </c>
-      <c r="W6" s="53">
+      <c r="W6" s="51">
         <v>75.52</v>
       </c>
-      <c r="X6" s="53">
+      <c r="X6" s="51">
         <v>80.849999999999994</v>
       </c>
-      <c r="Y6" s="53">
+      <c r="Y6" s="51">
         <v>91.09</v>
       </c>
-      <c r="Z6" s="53">
+      <c r="Z6" s="51">
         <v>94.36</v>
       </c>
-      <c r="AA6" s="53">
+      <c r="AA6" s="51">
         <v>75.989999999999995</v>
       </c>
-      <c r="AB6" s="53">
+      <c r="AB6" s="51">
         <v>94.03</v>
       </c>
-      <c r="AC6" s="53">
+      <c r="AC6" s="51">
         <v>86.54</v>
       </c>
-      <c r="AD6" s="53">
+      <c r="AD6" s="51">
         <v>91.47</v>
       </c>
-      <c r="AE6" s="53">
+      <c r="AE6" s="51">
         <v>93.56</v>
       </c>
-      <c r="AF6" s="53">
+      <c r="AF6" s="51">
         <v>81.93</v>
       </c>
-      <c r="AG6" s="53">
+      <c r="AG6" s="51">
         <v>95.46</v>
       </c>
-      <c r="AH6" s="53">
+      <c r="AH6" s="51">
         <v>94.93</v>
       </c>
-      <c r="AI6" s="53">
+      <c r="AI6" s="51">
         <v>91.81</v>
       </c>
-      <c r="AJ6" s="53">
+      <c r="AJ6" s="51">
         <v>95.28</v>
       </c>
-      <c r="AK6" s="53">
+      <c r="AK6" s="51">
         <v>76.38</v>
       </c>
-      <c r="AL6" s="53">
+      <c r="AL6" s="51">
         <v>93.81</v>
       </c>
-      <c r="AM6" s="53">
+      <c r="AM6" s="51">
         <v>70.91</v>
       </c>
-      <c r="AN6" s="54">
+      <c r="AN6" s="52">
         <v>86</v>
       </c>
-      <c r="AO6" s="47">
+      <c r="AO6" s="45">
         <f t="shared" si="0"/>
         <v>87.963999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="42">
         <v>5.3834999999999997</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="32" t="s">
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U7" s="50">
         <v>55.89</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="51">
         <v>73.5</v>
       </c>
-      <c r="W7" s="53">
+      <c r="W7" s="51">
         <v>31.18</v>
       </c>
-      <c r="X7" s="53">
+      <c r="X7" s="51">
         <v>54.39</v>
       </c>
-      <c r="Y7" s="53">
+      <c r="Y7" s="51">
         <v>57.08</v>
       </c>
-      <c r="Z7" s="53">
+      <c r="Z7" s="51">
         <v>79.86</v>
       </c>
-      <c r="AA7" s="53">
+      <c r="AA7" s="51">
         <v>56.51</v>
       </c>
-      <c r="AB7" s="53">
+      <c r="AB7" s="51">
         <v>73.11</v>
       </c>
-      <c r="AC7" s="53">
+      <c r="AC7" s="51">
         <v>90.13</v>
       </c>
-      <c r="AD7" s="53">
+      <c r="AD7" s="51">
         <v>100</v>
       </c>
-      <c r="AE7" s="53">
+      <c r="AE7" s="51">
         <v>82.16</v>
       </c>
-      <c r="AF7" s="53">
+      <c r="AF7" s="51">
         <v>56.5</v>
       </c>
-      <c r="AG7" s="53">
+      <c r="AG7" s="51">
         <v>68.52</v>
       </c>
-      <c r="AH7" s="53">
+      <c r="AH7" s="51">
         <v>55.06</v>
       </c>
-      <c r="AI7" s="53">
+      <c r="AI7" s="51">
         <v>80.23</v>
       </c>
-      <c r="AJ7" s="53">
+      <c r="AJ7" s="51">
         <v>81.55</v>
       </c>
-      <c r="AK7" s="53">
+      <c r="AK7" s="51">
         <v>75.39</v>
       </c>
-      <c r="AL7" s="53">
+      <c r="AL7" s="51">
         <v>70.34</v>
       </c>
-      <c r="AM7" s="53">
+      <c r="AM7" s="51">
         <v>93.5</v>
       </c>
-      <c r="AN7" s="54">
+      <c r="AN7" s="52">
         <v>60.22</v>
       </c>
-      <c r="AO7" s="47">
+      <c r="AO7" s="45">
         <f t="shared" si="0"/>
         <v>69.756</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="42">
         <v>6.4784999999999995</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="32" t="s">
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="32" t="s">
+      <c r="T8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="52">
+      <c r="U8" s="50">
         <v>47.72</v>
       </c>
-      <c r="V8" s="53">
+      <c r="V8" s="51">
         <v>52.35</v>
       </c>
-      <c r="W8" s="53">
+      <c r="W8" s="51">
         <v>20.59</v>
       </c>
-      <c r="X8" s="53">
+      <c r="X8" s="51">
         <v>24.54</v>
       </c>
-      <c r="Y8" s="53">
+      <c r="Y8" s="51">
         <v>71.680000000000007</v>
       </c>
-      <c r="Z8" s="53">
+      <c r="Z8" s="51">
         <v>72.03</v>
       </c>
-      <c r="AA8" s="53">
+      <c r="AA8" s="51">
         <v>29.85</v>
       </c>
-      <c r="AB8" s="53">
+      <c r="AB8" s="51">
         <v>75.13</v>
       </c>
-      <c r="AC8" s="53">
+      <c r="AC8" s="51">
         <v>73.849999999999994</v>
       </c>
-      <c r="AD8" s="53">
+      <c r="AD8" s="51">
         <v>73.83</v>
       </c>
-      <c r="AE8" s="53">
+      <c r="AE8" s="51">
         <v>71.83</v>
       </c>
-      <c r="AF8" s="53">
+      <c r="AF8" s="51">
         <v>58.82</v>
       </c>
-      <c r="AG8" s="53">
+      <c r="AG8" s="51">
         <v>60.47</v>
       </c>
-      <c r="AH8" s="53">
+      <c r="AH8" s="51">
         <v>28.21</v>
       </c>
-      <c r="AI8" s="53">
+      <c r="AI8" s="51">
         <v>48.99</v>
       </c>
-      <c r="AJ8" s="53">
+      <c r="AJ8" s="51">
         <v>33.81</v>
       </c>
-      <c r="AK8" s="53">
+      <c r="AK8" s="51">
         <v>51.64</v>
       </c>
-      <c r="AL8" s="53">
+      <c r="AL8" s="51">
         <v>50.1</v>
       </c>
-      <c r="AM8" s="53">
+      <c r="AM8" s="51">
         <v>57.87</v>
       </c>
-      <c r="AN8" s="54">
+      <c r="AN8" s="52">
         <v>38.049999999999997</v>
       </c>
-      <c r="AO8" s="47">
+      <c r="AO8" s="45">
         <f t="shared" si="0"/>
         <v>52.068000000000019</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <v>9.2480000000000011</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="32" t="s">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="T9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="52">
+      <c r="U9" s="50">
         <v>0</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="51">
         <v>74.33</v>
       </c>
-      <c r="W9" s="53">
+      <c r="W9" s="51">
         <v>23.23</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="51">
         <v>51.21</v>
       </c>
-      <c r="Y9" s="53">
+      <c r="Y9" s="51">
         <v>-0.13</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="51">
         <v>74.44</v>
       </c>
-      <c r="AA9" s="53">
+      <c r="AA9" s="51">
         <v>45.22</v>
       </c>
-      <c r="AB9" s="53">
+      <c r="AB9" s="51">
         <v>99.99</v>
       </c>
-      <c r="AC9" s="53">
+      <c r="AC9" s="51">
         <v>68.650000000000006</v>
       </c>
-      <c r="AD9" s="53">
+      <c r="AD9" s="51">
         <v>75.86</v>
       </c>
-      <c r="AE9" s="53">
+      <c r="AE9" s="51">
         <v>73.28</v>
       </c>
-      <c r="AF9" s="53">
+      <c r="AF9" s="51">
         <v>79.62</v>
       </c>
-      <c r="AG9" s="53">
+      <c r="AG9" s="51">
         <v>63.38</v>
       </c>
-      <c r="AH9" s="53">
+      <c r="AH9" s="51">
         <v>10.96</v>
       </c>
-      <c r="AI9" s="53">
+      <c r="AI9" s="51">
         <v>80.099999999999994</v>
       </c>
-      <c r="AJ9" s="53">
+      <c r="AJ9" s="51">
         <v>76.56</v>
       </c>
-      <c r="AK9" s="53">
+      <c r="AK9" s="51">
         <v>24.66</v>
       </c>
-      <c r="AL9" s="53">
+      <c r="AL9" s="51">
         <v>50.9</v>
       </c>
-      <c r="AM9" s="53">
+      <c r="AM9" s="51">
         <v>72.27</v>
       </c>
-      <c r="AN9" s="54">
+      <c r="AN9" s="52">
         <v>63.88</v>
       </c>
-      <c r="AO9" s="47">
+      <c r="AO9" s="45">
         <f t="shared" si="0"/>
         <v>55.420500000000004</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="42">
         <v>9.4879999999999995</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="32" t="s">
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="T10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="52">
+      <c r="U10" s="50">
         <v>25.09</v>
       </c>
-      <c r="V10" s="53">
+      <c r="V10" s="51">
         <v>75.66</v>
       </c>
-      <c r="W10" s="53">
+      <c r="W10" s="51">
         <v>28.44</v>
       </c>
-      <c r="X10" s="53">
+      <c r="X10" s="51">
         <v>37</v>
       </c>
-      <c r="Y10" s="53">
+      <c r="Y10" s="51">
         <v>46.79</v>
       </c>
-      <c r="Z10" s="53">
+      <c r="Z10" s="51">
         <v>63.64</v>
       </c>
-      <c r="AA10" s="53">
+      <c r="AA10" s="51">
         <v>57.06</v>
       </c>
-      <c r="AB10" s="53">
+      <c r="AB10" s="51">
         <v>49.82</v>
       </c>
-      <c r="AC10" s="53">
+      <c r="AC10" s="51">
         <v>48.5</v>
       </c>
-      <c r="AD10" s="53">
+      <c r="AD10" s="51">
         <v>98.83</v>
       </c>
-      <c r="AE10" s="53">
+      <c r="AE10" s="51">
         <v>51.57</v>
       </c>
-      <c r="AF10" s="53">
+      <c r="AF10" s="51">
         <v>75.459999999999994</v>
       </c>
-      <c r="AG10" s="53">
+      <c r="AG10" s="51">
         <v>40.06</v>
       </c>
-      <c r="AH10" s="53">
+      <c r="AH10" s="51">
         <v>37.35</v>
       </c>
-      <c r="AI10" s="53">
+      <c r="AI10" s="51">
         <v>68.459999999999994</v>
       </c>
-      <c r="AJ10" s="53">
+      <c r="AJ10" s="51">
         <v>74.88</v>
       </c>
-      <c r="AK10" s="53">
+      <c r="AK10" s="51">
         <v>52.85</v>
       </c>
-      <c r="AL10" s="53">
+      <c r="AL10" s="51">
         <v>43.53</v>
       </c>
-      <c r="AM10" s="53">
+      <c r="AM10" s="51">
         <v>51.07</v>
       </c>
-      <c r="AN10" s="54">
+      <c r="AN10" s="52">
         <v>53.71</v>
       </c>
-      <c r="AO10" s="47">
+      <c r="AO10" s="45">
         <f t="shared" si="0"/>
         <v>53.988500000000009</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <v>11.729999999999999</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="32" t="s">
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="52">
+      <c r="U11" s="50">
         <v>0.28999999999999998</v>
       </c>
-      <c r="V11" s="53">
+      <c r="V11" s="51">
         <v>0</v>
       </c>
-      <c r="W11" s="53">
+      <c r="W11" s="51">
         <v>24.68</v>
       </c>
-      <c r="X11" s="53">
+      <c r="X11" s="51">
         <v>25.77</v>
       </c>
-      <c r="Y11" s="53">
+      <c r="Y11" s="51">
         <v>48.69</v>
       </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="51">
         <v>73.459999999999994</v>
       </c>
-      <c r="AA11" s="53">
+      <c r="AA11" s="51">
         <v>20.100000000000001</v>
       </c>
-      <c r="AB11" s="53">
+      <c r="AB11" s="51">
         <v>61.25</v>
       </c>
-      <c r="AC11" s="53">
+      <c r="AC11" s="51">
         <v>49.12</v>
       </c>
-      <c r="AD11" s="53">
+      <c r="AD11" s="51">
         <v>72.05</v>
       </c>
-      <c r="AE11" s="53">
+      <c r="AE11" s="51">
         <v>23.86</v>
       </c>
-      <c r="AF11" s="53">
+      <c r="AF11" s="51">
         <v>11.82</v>
       </c>
-      <c r="AG11" s="53">
+      <c r="AG11" s="51">
         <v>60.95</v>
       </c>
-      <c r="AH11" s="53">
+      <c r="AH11" s="51">
         <v>11.81</v>
       </c>
-      <c r="AI11" s="53">
+      <c r="AI11" s="51">
         <v>12.88</v>
       </c>
-      <c r="AJ11" s="53">
+      <c r="AJ11" s="51">
         <v>0</v>
       </c>
-      <c r="AK11" s="53">
+      <c r="AK11" s="51">
         <v>50.79</v>
       </c>
-      <c r="AL11" s="53">
+      <c r="AL11" s="51">
         <v>72.489999999999995</v>
       </c>
-      <c r="AM11" s="53">
+      <c r="AM11" s="51">
         <v>23.74</v>
       </c>
-      <c r="AN11" s="54">
+      <c r="AN11" s="52">
         <v>41.7</v>
       </c>
-      <c r="AO11" s="47">
+      <c r="AO11" s="45">
         <f t="shared" si="0"/>
         <v>34.272500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="42">
         <v>12.860500000000002</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="32" t="s">
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="T12" s="32" t="s">
+      <c r="T12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="52">
+      <c r="U12" s="50">
         <v>-0.11</v>
       </c>
-      <c r="V12" s="53">
+      <c r="V12" s="51">
         <v>0</v>
       </c>
-      <c r="W12" s="53">
+      <c r="W12" s="51">
         <v>5.47</v>
       </c>
-      <c r="X12" s="53">
+      <c r="X12" s="51">
         <v>-3.68</v>
       </c>
-      <c r="Y12" s="53">
+      <c r="Y12" s="51">
         <v>0</v>
       </c>
-      <c r="Z12" s="53">
+      <c r="Z12" s="51">
         <v>0</v>
       </c>
-      <c r="AA12" s="53">
+      <c r="AA12" s="51">
         <v>8.39</v>
       </c>
-      <c r="AB12" s="53">
+      <c r="AB12" s="51">
         <v>-22.36</v>
       </c>
-      <c r="AC12" s="53">
+      <c r="AC12" s="51">
         <v>0</v>
       </c>
-      <c r="AD12" s="53">
+      <c r="AD12" s="51">
         <v>26.17</v>
       </c>
-      <c r="AE12" s="53">
+      <c r="AE12" s="51">
         <v>1.03</v>
       </c>
-      <c r="AF12" s="53">
+      <c r="AF12" s="51">
         <v>25.3</v>
       </c>
-      <c r="AG12" s="53">
+      <c r="AG12" s="51">
         <v>28.86</v>
       </c>
-      <c r="AH12" s="53">
+      <c r="AH12" s="51">
         <v>-0.11</v>
       </c>
-      <c r="AI12" s="53">
+      <c r="AI12" s="51">
         <v>9.69</v>
       </c>
-      <c r="AJ12" s="53">
+      <c r="AJ12" s="51">
         <v>-13.36</v>
       </c>
-      <c r="AK12" s="53">
+      <c r="AK12" s="51">
         <v>18.54</v>
       </c>
-      <c r="AL12" s="53">
+      <c r="AL12" s="51">
         <v>21.69</v>
       </c>
-      <c r="AM12" s="53">
+      <c r="AM12" s="51">
         <v>23.56</v>
       </c>
-      <c r="AN12" s="54">
+      <c r="AN12" s="52">
         <v>0.49</v>
       </c>
-      <c r="AO12" s="47">
+      <c r="AO12" s="45">
         <f t="shared" si="0"/>
         <v>6.4784999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="42">
         <v>20.6</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="32" t="s">
+      <c r="O13" s="20"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="32" t="s">
+      <c r="T13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="50">
         <v>99.13</v>
       </c>
-      <c r="V13" s="53">
+      <c r="V13" s="51">
         <v>100</v>
       </c>
-      <c r="W13" s="53">
+      <c r="W13" s="51">
         <v>98.74</v>
       </c>
-      <c r="X13" s="53">
+      <c r="X13" s="51">
         <v>97.97</v>
       </c>
-      <c r="Y13" s="53">
+      <c r="Y13" s="51">
         <v>99.65</v>
       </c>
-      <c r="Z13" s="53">
+      <c r="Z13" s="51">
         <v>96.29</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AA13" s="51">
         <v>100</v>
       </c>
-      <c r="AB13" s="53">
+      <c r="AB13" s="51">
         <v>100</v>
       </c>
-      <c r="AC13" s="53">
+      <c r="AC13" s="51">
         <v>100</v>
       </c>
-      <c r="AD13" s="53">
+      <c r="AD13" s="51">
         <v>100</v>
       </c>
-      <c r="AE13" s="53">
+      <c r="AE13" s="51">
         <v>97.59</v>
       </c>
-      <c r="AF13" s="53">
+      <c r="AF13" s="51">
         <v>100</v>
       </c>
-      <c r="AG13" s="53">
+      <c r="AG13" s="51">
         <v>100</v>
       </c>
-      <c r="AH13" s="53">
+      <c r="AH13" s="51">
         <v>98.74</v>
       </c>
-      <c r="AI13" s="53">
+      <c r="AI13" s="51">
         <v>98.6</v>
       </c>
-      <c r="AJ13" s="53">
+      <c r="AJ13" s="51">
         <v>99.83</v>
       </c>
-      <c r="AK13" s="53">
+      <c r="AK13" s="51">
         <v>97.19</v>
       </c>
-      <c r="AL13" s="53">
+      <c r="AL13" s="51">
         <v>88.47</v>
       </c>
-      <c r="AM13" s="53">
+      <c r="AM13" s="51">
         <v>99.43</v>
       </c>
-      <c r="AN13" s="54">
+      <c r="AN13" s="52">
         <v>73.97</v>
       </c>
-      <c r="AO13" s="47">
+      <c r="AO13" s="45">
         <f t="shared" si="0"/>
         <v>97.28</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <v>21.527000000000005</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="32" t="s">
+      <c r="O14" s="20"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="32" t="s">
+      <c r="T14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="52">
+      <c r="U14" s="50">
         <v>100</v>
       </c>
-      <c r="V14" s="53">
+      <c r="V14" s="51">
         <v>100</v>
       </c>
-      <c r="W14" s="53">
+      <c r="W14" s="51">
         <v>90.04</v>
       </c>
-      <c r="X14" s="53">
+      <c r="X14" s="51">
         <v>100</v>
       </c>
-      <c r="Y14" s="53">
+      <c r="Y14" s="51">
         <v>96.62</v>
       </c>
-      <c r="Z14" s="53">
+      <c r="Z14" s="51">
         <v>100</v>
       </c>
-      <c r="AA14" s="53">
+      <c r="AA14" s="51">
         <v>100</v>
       </c>
-      <c r="AB14" s="53">
+      <c r="AB14" s="51">
         <v>99.61</v>
       </c>
-      <c r="AC14" s="53">
+      <c r="AC14" s="51">
         <v>100</v>
       </c>
-      <c r="AD14" s="53">
+      <c r="AD14" s="51">
         <v>96.03</v>
       </c>
-      <c r="AE14" s="53">
+      <c r="AE14" s="51">
         <v>100</v>
       </c>
-      <c r="AF14" s="53">
+      <c r="AF14" s="51">
         <v>100</v>
       </c>
-      <c r="AG14" s="53">
+      <c r="AG14" s="51">
         <v>99.46</v>
       </c>
-      <c r="AH14" s="53">
+      <c r="AH14" s="51">
         <v>99.34</v>
       </c>
-      <c r="AI14" s="53">
+      <c r="AI14" s="51">
         <v>98.21</v>
       </c>
-      <c r="AJ14" s="53">
+      <c r="AJ14" s="51">
         <v>99.15</v>
       </c>
-      <c r="AK14" s="53">
+      <c r="AK14" s="51">
         <v>96.18</v>
       </c>
-      <c r="AL14" s="53">
+      <c r="AL14" s="51">
         <v>92.23</v>
       </c>
-      <c r="AM14" s="53">
+      <c r="AM14" s="51">
         <v>100</v>
       </c>
-      <c r="AN14" s="54">
+      <c r="AN14" s="52">
         <v>96.52</v>
       </c>
-      <c r="AO14" s="47">
+      <c r="AO14" s="45">
         <f t="shared" si="0"/>
         <v>98.169500000000014</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="42">
         <v>28.883499999999998</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="32" t="s">
+      <c r="O15" s="20"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="T15" s="32" t="s">
+      <c r="T15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="52">
+      <c r="U15" s="50">
         <v>6.54</v>
       </c>
-      <c r="V15" s="53">
+      <c r="V15" s="51">
         <v>26.92</v>
       </c>
-      <c r="W15" s="53">
+      <c r="W15" s="51">
         <v>17.579999999999998</v>
       </c>
-      <c r="X15" s="53">
+      <c r="X15" s="51">
         <v>26.09</v>
       </c>
-      <c r="Y15" s="53">
+      <c r="Y15" s="51">
         <v>46.89</v>
       </c>
-      <c r="Z15" s="53">
+      <c r="Z15" s="51">
         <v>100</v>
       </c>
-      <c r="AA15" s="53">
+      <c r="AA15" s="51">
         <v>0</v>
       </c>
-      <c r="AB15" s="53">
+      <c r="AB15" s="51">
         <v>-12.45</v>
       </c>
-      <c r="AC15" s="53">
+      <c r="AC15" s="51">
         <v>9.94</v>
       </c>
-      <c r="AD15" s="53">
+      <c r="AD15" s="51">
         <v>48.74</v>
       </c>
-      <c r="AE15" s="53">
+      <c r="AE15" s="51">
         <v>25.5</v>
       </c>
-      <c r="AF15" s="53">
+      <c r="AF15" s="51">
         <v>34.26</v>
       </c>
-      <c r="AG15" s="53">
+      <c r="AG15" s="51">
         <v>31.45</v>
       </c>
-      <c r="AH15" s="53">
+      <c r="AH15" s="51">
         <v>13.58</v>
       </c>
-      <c r="AI15" s="53">
+      <c r="AI15" s="51">
         <v>49.78</v>
       </c>
-      <c r="AJ15" s="53">
+      <c r="AJ15" s="51">
         <v>25.17</v>
       </c>
-      <c r="AK15" s="53">
+      <c r="AK15" s="51">
         <v>18.989999999999998</v>
       </c>
-      <c r="AL15" s="53">
+      <c r="AL15" s="51">
         <v>39.71</v>
       </c>
-      <c r="AM15" s="53">
+      <c r="AM15" s="51">
         <v>24.69</v>
       </c>
-      <c r="AN15" s="54">
+      <c r="AN15" s="52">
         <v>44.29</v>
       </c>
-      <c r="AO15" s="47">
+      <c r="AO15" s="45">
         <f t="shared" si="0"/>
         <v>28.883499999999998</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <v>33.788500000000006</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="32" t="s">
+      <c r="O16" s="20"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="32" t="s">
+      <c r="T16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U16" s="52">
+      <c r="U16" s="50">
         <v>24.74</v>
       </c>
-      <c r="V16" s="53">
+      <c r="V16" s="51">
         <v>50.74</v>
       </c>
-      <c r="W16" s="53">
+      <c r="W16" s="51">
         <v>12.71</v>
       </c>
-      <c r="X16" s="53">
+      <c r="X16" s="51">
         <v>12.8</v>
       </c>
-      <c r="Y16" s="53">
+      <c r="Y16" s="51">
         <v>0</v>
       </c>
-      <c r="Z16" s="53">
+      <c r="Z16" s="51">
         <v>49.85</v>
       </c>
-      <c r="AA16" s="53">
+      <c r="AA16" s="51">
         <v>8.1</v>
       </c>
-      <c r="AB16" s="53">
+      <c r="AB16" s="51">
         <v>11.73</v>
       </c>
-      <c r="AC16" s="53">
+      <c r="AC16" s="51">
         <v>27.34</v>
       </c>
-      <c r="AD16" s="53">
+      <c r="AD16" s="51">
         <v>22.46</v>
       </c>
-      <c r="AE16" s="53">
+      <c r="AE16" s="51">
         <v>0.74</v>
       </c>
-      <c r="AF16" s="53">
+      <c r="AF16" s="51">
         <v>25.21</v>
       </c>
-      <c r="AG16" s="53">
+      <c r="AG16" s="51">
         <v>40.85</v>
       </c>
-      <c r="AH16" s="53">
+      <c r="AH16" s="51">
         <v>16.420000000000002</v>
       </c>
-      <c r="AI16" s="53">
+      <c r="AI16" s="51">
         <v>2.16</v>
       </c>
-      <c r="AJ16" s="53">
+      <c r="AJ16" s="51">
         <v>-13.37</v>
       </c>
-      <c r="AK16" s="53">
+      <c r="AK16" s="51">
         <v>24.62</v>
       </c>
-      <c r="AL16" s="53">
+      <c r="AL16" s="51">
         <v>21.7</v>
       </c>
-      <c r="AM16" s="53">
+      <c r="AM16" s="51">
         <v>24.28</v>
       </c>
-      <c r="AN16" s="54">
+      <c r="AN16" s="52">
         <v>48.92</v>
       </c>
-      <c r="AO16" s="47">
+      <c r="AO16" s="45">
         <f t="shared" si="0"/>
         <v>20.6</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="42">
         <v>34.272500000000001</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="32" t="s">
+      <c r="O17" s="20"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="32" t="s">
+      <c r="T17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="52">
+      <c r="U17" s="50">
         <v>8.6</v>
       </c>
-      <c r="V17" s="53">
+      <c r="V17" s="51">
         <v>25.66</v>
       </c>
-      <c r="W17" s="53">
+      <c r="W17" s="51">
         <v>1.85</v>
       </c>
-      <c r="X17" s="53">
+      <c r="X17" s="51">
         <v>9.67</v>
       </c>
-      <c r="Y17" s="53">
+      <c r="Y17" s="51">
         <v>52.74</v>
       </c>
-      <c r="Z17" s="53">
+      <c r="Z17" s="51">
         <v>0</v>
       </c>
-      <c r="AA17" s="53">
+      <c r="AA17" s="51">
         <v>6.99</v>
       </c>
-      <c r="AB17" s="53">
+      <c r="AB17" s="51">
         <v>-24.44</v>
       </c>
-      <c r="AC17" s="53">
+      <c r="AC17" s="51">
         <v>-8.7899999999999991</v>
       </c>
-      <c r="AD17" s="53">
+      <c r="AD17" s="51">
         <v>-0.2</v>
       </c>
-      <c r="AE17" s="53">
+      <c r="AE17" s="51">
         <v>1.93</v>
       </c>
-      <c r="AF17" s="53">
+      <c r="AF17" s="51">
         <v>24.41</v>
       </c>
-      <c r="AG17" s="53">
+      <c r="AG17" s="51">
         <v>57.29</v>
       </c>
-      <c r="AH17" s="53">
+      <c r="AH17" s="51">
         <v>5.48</v>
       </c>
-      <c r="AI17" s="53">
+      <c r="AI17" s="51">
         <v>24.55</v>
       </c>
-      <c r="AJ17" s="53">
+      <c r="AJ17" s="51">
         <v>-9.91</v>
       </c>
-      <c r="AK17" s="53">
+      <c r="AK17" s="51">
         <v>-10.5</v>
       </c>
-      <c r="AL17" s="53">
+      <c r="AL17" s="51">
         <v>34.18</v>
       </c>
-      <c r="AM17" s="53">
+      <c r="AM17" s="51">
         <v>24.11</v>
       </c>
-      <c r="AN17" s="54">
+      <c r="AN17" s="52">
         <v>-38.659999999999997</v>
       </c>
-      <c r="AO17" s="47">
+      <c r="AO17" s="45">
         <f t="shared" si="0"/>
         <v>9.2480000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="42">
         <v>37.599000000000004</v>
       </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="32" t="s">
+      <c r="O18" s="20"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="32" t="s">
+      <c r="T18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="52">
+      <c r="U18" s="50">
         <v>-1.52</v>
       </c>
-      <c r="V18" s="53">
+      <c r="V18" s="51">
         <v>0</v>
       </c>
-      <c r="W18" s="53">
+      <c r="W18" s="51">
         <v>29.79</v>
       </c>
-      <c r="X18" s="53">
+      <c r="X18" s="51">
         <v>0</v>
       </c>
-      <c r="Y18" s="53">
+      <c r="Y18" s="51">
         <v>0.63</v>
       </c>
-      <c r="Z18" s="53">
+      <c r="Z18" s="51">
         <v>30</v>
       </c>
-      <c r="AA18" s="53">
+      <c r="AA18" s="51">
         <v>0</v>
       </c>
-      <c r="AB18" s="53">
+      <c r="AB18" s="51">
         <v>-49.24</v>
       </c>
-      <c r="AC18" s="53">
+      <c r="AC18" s="51">
         <v>3.1</v>
       </c>
-      <c r="AD18" s="53">
+      <c r="AD18" s="51">
         <v>22.77</v>
       </c>
-      <c r="AE18" s="53">
+      <c r="AE18" s="51">
         <v>-1.86</v>
       </c>
-      <c r="AF18" s="53">
+      <c r="AF18" s="51">
         <v>0</v>
       </c>
-      <c r="AG18" s="53">
+      <c r="AG18" s="51">
         <v>11.65</v>
       </c>
-      <c r="AH18" s="53">
+      <c r="AH18" s="51">
         <v>-2.31</v>
       </c>
-      <c r="AI18" s="53">
+      <c r="AI18" s="51">
         <v>-3.87</v>
       </c>
-      <c r="AJ18" s="53">
+      <c r="AJ18" s="51">
         <v>-0.73</v>
       </c>
-      <c r="AK18" s="53">
+      <c r="AK18" s="51">
         <v>25.06</v>
       </c>
-      <c r="AL18" s="53">
+      <c r="AL18" s="51">
         <v>21.15</v>
       </c>
-      <c r="AM18" s="53">
+      <c r="AM18" s="51">
         <v>13.8</v>
       </c>
-      <c r="AN18" s="54">
+      <c r="AN18" s="52">
         <v>9.25</v>
       </c>
-      <c r="AO18" s="47">
+      <c r="AO18" s="45">
         <f t="shared" si="0"/>
         <v>5.3834999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="42">
         <v>45.812999999999995</v>
       </c>
-      <c r="O19" s="22"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="32" t="s">
+      <c r="O19" s="20"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="T19" s="32" t="s">
+      <c r="T19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U19" s="52">
+      <c r="U19" s="50">
         <v>48.81</v>
       </c>
-      <c r="V19" s="53">
+      <c r="V19" s="51">
         <v>47.9</v>
       </c>
-      <c r="W19" s="53">
+      <c r="W19" s="51">
         <v>10.11</v>
       </c>
-      <c r="X19" s="53">
+      <c r="X19" s="51">
         <v>22.08</v>
       </c>
-      <c r="Y19" s="53">
+      <c r="Y19" s="51">
         <v>1.45</v>
       </c>
-      <c r="Z19" s="53">
+      <c r="Z19" s="51">
         <v>72.28</v>
       </c>
-      <c r="AA19" s="53">
+      <c r="AA19" s="51">
         <v>-26.33</v>
       </c>
-      <c r="AB19" s="53">
+      <c r="AB19" s="51">
         <v>19.29</v>
       </c>
-      <c r="AC19" s="53">
+      <c r="AC19" s="51">
         <v>24.14</v>
       </c>
-      <c r="AD19" s="53">
+      <c r="AD19" s="51">
         <v>-0.76</v>
       </c>
-      <c r="AE19" s="53">
+      <c r="AE19" s="51">
         <v>-3.24</v>
       </c>
-      <c r="AF19" s="53">
+      <c r="AF19" s="51">
         <v>62.03</v>
       </c>
-      <c r="AG19" s="53">
+      <c r="AG19" s="51">
         <v>61.36</v>
       </c>
-      <c r="AH19" s="53">
+      <c r="AH19" s="51">
         <v>66.34</v>
       </c>
-      <c r="AI19" s="53">
+      <c r="AI19" s="51">
         <v>74.3</v>
       </c>
-      <c r="AJ19" s="53">
+      <c r="AJ19" s="51">
         <v>-51.57</v>
       </c>
-      <c r="AK19" s="53">
+      <c r="AK19" s="51">
         <v>5.39</v>
       </c>
-      <c r="AL19" s="53">
+      <c r="AL19" s="51">
         <v>33.67</v>
       </c>
-      <c r="AM19" s="53">
+      <c r="AM19" s="51">
         <v>-1.27</v>
       </c>
-      <c r="AN19" s="54">
+      <c r="AN19" s="52">
         <v>-35.44</v>
       </c>
-      <c r="AO19" s="47">
+      <c r="AO19" s="45">
         <f t="shared" si="0"/>
         <v>21.527000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="42">
         <v>46.857999999999997</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="32" t="s">
+      <c r="O20" s="20"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="T20" s="32" t="s">
+      <c r="T20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U20" s="52">
+      <c r="U20" s="50">
         <v>-0.8</v>
       </c>
-      <c r="V20" s="53">
+      <c r="V20" s="51">
         <v>0</v>
       </c>
-      <c r="W20" s="53">
+      <c r="W20" s="51">
         <v>-0.78</v>
       </c>
-      <c r="X20" s="53">
+      <c r="X20" s="51">
         <v>-28.84</v>
       </c>
-      <c r="Y20" s="53">
+      <c r="Y20" s="51">
         <v>2.36</v>
       </c>
-      <c r="Z20" s="53">
+      <c r="Z20" s="51">
         <v>0</v>
       </c>
-      <c r="AA20" s="53">
+      <c r="AA20" s="51">
         <v>-20.18</v>
       </c>
-      <c r="AB20" s="53">
+      <c r="AB20" s="51">
         <v>0.27</v>
       </c>
-      <c r="AC20" s="53">
+      <c r="AC20" s="51">
         <v>-0.92</v>
       </c>
-      <c r="AD20" s="53">
+      <c r="AD20" s="51">
         <v>-2.86</v>
       </c>
-      <c r="AE20" s="53">
+      <c r="AE20" s="51">
         <v>-49.2</v>
       </c>
-      <c r="AF20" s="53">
+      <c r="AF20" s="51">
         <v>0</v>
       </c>
-      <c r="AG20" s="53">
+      <c r="AG20" s="51">
         <v>16.66</v>
       </c>
-      <c r="AH20" s="53">
+      <c r="AH20" s="51">
         <v>0.69</v>
       </c>
-      <c r="AI20" s="53">
+      <c r="AI20" s="51">
         <v>-26.82</v>
       </c>
-      <c r="AJ20" s="53">
+      <c r="AJ20" s="51">
         <v>-23.86</v>
       </c>
-      <c r="AK20" s="53">
+      <c r="AK20" s="51">
         <v>-25</v>
       </c>
-      <c r="AL20" s="53">
+      <c r="AL20" s="51">
         <v>-13.74</v>
       </c>
-      <c r="AM20" s="53">
+      <c r="AM20" s="51">
         <v>-23.44</v>
       </c>
-      <c r="AN20" s="54">
+      <c r="AN20" s="52">
         <v>-3.92</v>
       </c>
-      <c r="AO20" s="47">
+      <c r="AO20" s="45">
         <f t="shared" si="0"/>
         <v>-10.019000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="42">
         <v>52.068000000000019</v>
       </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="32" t="s">
+      <c r="O21" s="20"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="T21" s="32" t="s">
+      <c r="T21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U21" s="52">
+      <c r="U21" s="50">
         <v>45.53</v>
       </c>
-      <c r="V21" s="53">
+      <c r="V21" s="51">
         <v>48.44</v>
       </c>
-      <c r="W21" s="53">
+      <c r="W21" s="51">
         <v>21.17</v>
       </c>
-      <c r="X21" s="53">
+      <c r="X21" s="51">
         <v>-17.52</v>
       </c>
-      <c r="Y21" s="53">
+      <c r="Y21" s="51">
         <v>47.83</v>
       </c>
-      <c r="Z21" s="53">
+      <c r="Z21" s="51">
         <v>97.61</v>
       </c>
-      <c r="AA21" s="53">
+      <c r="AA21" s="51">
         <v>22.31</v>
       </c>
-      <c r="AB21" s="53">
+      <c r="AB21" s="51">
         <v>22.17</v>
       </c>
-      <c r="AC21" s="53">
+      <c r="AC21" s="51">
         <v>23.94</v>
       </c>
-      <c r="AD21" s="53">
+      <c r="AD21" s="51">
         <v>50.42</v>
       </c>
-      <c r="AE21" s="53">
+      <c r="AE21" s="51">
         <v>-78.94</v>
       </c>
-      <c r="AF21" s="53">
+      <c r="AF21" s="51">
         <v>59.55</v>
       </c>
-      <c r="AG21" s="53">
+      <c r="AG21" s="51">
         <v>48.88</v>
       </c>
-      <c r="AH21" s="53">
+      <c r="AH21" s="51">
         <v>-1.2</v>
       </c>
-      <c r="AI21" s="53">
+      <c r="AI21" s="51">
         <v>91.94</v>
       </c>
-      <c r="AJ21" s="53">
+      <c r="AJ21" s="51">
         <v>20.88</v>
       </c>
-      <c r="AK21" s="53">
+      <c r="AK21" s="51">
         <v>70.260000000000005</v>
       </c>
-      <c r="AL21" s="53">
+      <c r="AL21" s="51">
         <v>29.95</v>
       </c>
-      <c r="AM21" s="53">
+      <c r="AM21" s="51">
         <v>26.15</v>
       </c>
-      <c r="AN21" s="54">
+      <c r="AN21" s="52">
         <v>46.4</v>
       </c>
-      <c r="AO21" s="47">
+      <c r="AO21" s="45">
         <f t="shared" si="0"/>
         <v>33.788500000000006</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="42">
         <v>53.988500000000009</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="32" t="s">
+      <c r="O22" s="20"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="32" t="s">
+      <c r="T22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U22" s="52">
+      <c r="U22" s="50">
         <v>1.62</v>
       </c>
-      <c r="V22" s="53">
+      <c r="V22" s="51">
         <v>-15.98</v>
       </c>
-      <c r="W22" s="53">
+      <c r="W22" s="51">
         <v>0.79</v>
       </c>
-      <c r="X22" s="53">
+      <c r="X22" s="51">
         <v>1.43</v>
       </c>
-      <c r="Y22" s="53">
+      <c r="Y22" s="51">
         <v>-2.2200000000000002</v>
       </c>
-      <c r="Z22" s="53">
+      <c r="Z22" s="51">
         <v>-0.33</v>
       </c>
-      <c r="AA22" s="53">
+      <c r="AA22" s="51">
         <v>1.58</v>
       </c>
-      <c r="AB22" s="53">
+      <c r="AB22" s="51">
         <v>0.54</v>
       </c>
-      <c r="AC22" s="53">
+      <c r="AC22" s="51">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AD22" s="53">
+      <c r="AD22" s="51">
         <v>0.91</v>
       </c>
-      <c r="AE22" s="53">
+      <c r="AE22" s="51">
         <v>1.21</v>
       </c>
-      <c r="AF22" s="53">
+      <c r="AF22" s="51">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AG22" s="53">
+      <c r="AG22" s="51">
         <v>0.4</v>
       </c>
-      <c r="AH22" s="53">
+      <c r="AH22" s="51">
         <v>1.37</v>
       </c>
-      <c r="AI22" s="53">
+      <c r="AI22" s="51">
         <v>5.32</v>
       </c>
-      <c r="AJ22" s="53">
+      <c r="AJ22" s="51">
         <v>14.92</v>
       </c>
-      <c r="AK22" s="53">
+      <c r="AK22" s="51">
         <v>10.99</v>
       </c>
-      <c r="AL22" s="53">
+      <c r="AL22" s="51">
         <v>26.17</v>
       </c>
-      <c r="AM22" s="53">
+      <c r="AM22" s="51">
         <v>1.21</v>
       </c>
-      <c r="AN22" s="54">
+      <c r="AN22" s="52">
         <v>-22.72</v>
       </c>
-      <c r="AO22" s="47">
+      <c r="AO22" s="45">
         <f t="shared" si="0"/>
         <v>1.8305000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="42">
         <v>55.420500000000004</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="32" t="s">
+      <c r="O23" s="20"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="32" t="s">
+      <c r="T23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U23" s="52">
+      <c r="U23" s="50">
         <v>47.9</v>
       </c>
-      <c r="V23" s="53">
+      <c r="V23" s="51">
         <v>45.13</v>
       </c>
-      <c r="W23" s="53">
+      <c r="W23" s="51">
         <v>8.02</v>
       </c>
-      <c r="X23" s="53">
+      <c r="X23" s="51">
         <v>49.7</v>
       </c>
-      <c r="Y23" s="53">
+      <c r="Y23" s="51">
         <v>44.93</v>
       </c>
-      <c r="Z23" s="53">
+      <c r="Z23" s="51">
         <v>71.13</v>
       </c>
-      <c r="AA23" s="53">
+      <c r="AA23" s="51">
         <v>48.44</v>
       </c>
-      <c r="AB23" s="53">
+      <c r="AB23" s="51">
         <v>31.59</v>
       </c>
-      <c r="AC23" s="53">
+      <c r="AC23" s="51">
         <v>25.05</v>
       </c>
-      <c r="AD23" s="53">
+      <c r="AD23" s="51">
         <v>46.5</v>
       </c>
-      <c r="AE23" s="53">
+      <c r="AE23" s="51">
         <v>45.86</v>
       </c>
-      <c r="AF23" s="53">
+      <c r="AF23" s="51">
         <v>59.23</v>
       </c>
-      <c r="AG23" s="53">
+      <c r="AG23" s="51">
         <v>68.67</v>
       </c>
-      <c r="AH23" s="53">
+      <c r="AH23" s="51">
         <v>34.659999999999997</v>
       </c>
-      <c r="AI23" s="53">
+      <c r="AI23" s="51">
         <v>73.260000000000005</v>
       </c>
-      <c r="AJ23" s="53">
+      <c r="AJ23" s="51">
         <v>85.24</v>
       </c>
-      <c r="AK23" s="53">
+      <c r="AK23" s="51">
         <v>42.16</v>
       </c>
-      <c r="AL23" s="53">
+      <c r="AL23" s="51">
         <v>17.91</v>
       </c>
-      <c r="AM23" s="53">
+      <c r="AM23" s="51">
         <v>32.65</v>
       </c>
-      <c r="AN23" s="54">
+      <c r="AN23" s="52">
         <v>38.229999999999997</v>
       </c>
-      <c r="AO23" s="47">
+      <c r="AO23" s="45">
         <f t="shared" si="0"/>
         <v>45.812999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="42">
         <v>56.661500000000011</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="32" t="s">
+      <c r="O24" s="20"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="32" t="s">
+      <c r="T24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="52">
+      <c r="U24" s="50">
         <v>74.239999999999995</v>
       </c>
-      <c r="V24" s="53">
+      <c r="V24" s="51">
         <v>0</v>
       </c>
-      <c r="W24" s="53">
+      <c r="W24" s="51">
         <v>26.01</v>
       </c>
-      <c r="X24" s="53">
+      <c r="X24" s="51">
         <v>0</v>
       </c>
-      <c r="Y24" s="53">
+      <c r="Y24" s="51">
         <v>2.99</v>
       </c>
-      <c r="Z24" s="53">
+      <c r="Z24" s="51">
         <v>64.69</v>
       </c>
-      <c r="AA24" s="53">
+      <c r="AA24" s="51">
         <v>10.37</v>
       </c>
-      <c r="AB24" s="53">
+      <c r="AB24" s="51">
         <v>-0.88</v>
       </c>
-      <c r="AC24" s="53">
+      <c r="AC24" s="51">
         <v>9.64</v>
       </c>
-      <c r="AD24" s="53">
+      <c r="AD24" s="51">
         <v>23.21</v>
       </c>
-      <c r="AE24" s="53">
+      <c r="AE24" s="51">
         <v>-66.17</v>
       </c>
-      <c r="AF24" s="53">
+      <c r="AF24" s="51">
         <v>0</v>
       </c>
-      <c r="AG24" s="53">
+      <c r="AG24" s="51">
         <v>-10.55</v>
       </c>
-      <c r="AH24" s="53">
+      <c r="AH24" s="51">
         <v>7.97</v>
       </c>
-      <c r="AI24" s="53">
+      <c r="AI24" s="51">
         <v>1.33</v>
       </c>
-      <c r="AJ24" s="53">
+      <c r="AJ24" s="51">
         <v>26.32</v>
       </c>
-      <c r="AK24" s="53">
+      <c r="AK24" s="51">
         <v>6.69</v>
       </c>
-      <c r="AL24" s="53">
+      <c r="AL24" s="51">
         <v>14.98</v>
       </c>
-      <c r="AM24" s="53">
+      <c r="AM24" s="51">
         <v>-0.06</v>
       </c>
-      <c r="AN24" s="54">
+      <c r="AN24" s="52">
         <v>-1.02</v>
       </c>
-      <c r="AO24" s="47">
+      <c r="AO24" s="45">
         <f t="shared" si="0"/>
         <v>9.4879999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="42">
         <v>57.707499999999996</v>
       </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="32" t="s">
+      <c r="O25" s="20"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="T25" s="32" t="s">
+      <c r="T25" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="52">
+      <c r="U25" s="50">
         <v>0.13</v>
       </c>
-      <c r="V25" s="53">
+      <c r="V25" s="51">
         <v>0</v>
       </c>
-      <c r="W25" s="53">
+      <c r="W25" s="51">
         <v>0</v>
       </c>
-      <c r="X25" s="53">
+      <c r="X25" s="51">
         <v>0</v>
       </c>
-      <c r="Y25" s="53">
+      <c r="Y25" s="51">
         <v>1.33</v>
       </c>
-      <c r="Z25" s="53">
+      <c r="Z25" s="51">
         <v>0</v>
       </c>
-      <c r="AA25" s="53">
+      <c r="AA25" s="51">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AB25" s="53">
+      <c r="AB25" s="51">
         <v>-1.87</v>
       </c>
-      <c r="AC25" s="53">
+      <c r="AC25" s="51">
         <v>6.54</v>
       </c>
-      <c r="AD25" s="53">
+      <c r="AD25" s="51">
         <v>0</v>
       </c>
-      <c r="AE25" s="53">
+      <c r="AE25" s="51">
         <v>-50.51</v>
       </c>
-      <c r="AF25" s="53">
+      <c r="AF25" s="51">
         <v>0</v>
       </c>
-      <c r="AG25" s="53">
+      <c r="AG25" s="51">
         <v>-1.35</v>
       </c>
-      <c r="AH25" s="53">
+      <c r="AH25" s="51">
         <v>5.18</v>
       </c>
-      <c r="AI25" s="53">
+      <c r="AI25" s="51">
         <v>2.11</v>
       </c>
-      <c r="AJ25" s="53">
+      <c r="AJ25" s="51">
         <v>22.71</v>
       </c>
-      <c r="AK25" s="53">
+      <c r="AK25" s="51">
         <v>-8</v>
       </c>
-      <c r="AL25" s="53">
+      <c r="AL25" s="51">
         <v>8.9600000000000009</v>
       </c>
-      <c r="AM25" s="53">
+      <c r="AM25" s="51">
         <v>0.19</v>
       </c>
-      <c r="AN25" s="54">
+      <c r="AN25" s="52">
         <v>-24.92</v>
       </c>
-      <c r="AO25" s="47">
+      <c r="AO25" s="45">
         <f t="shared" si="0"/>
         <v>-2.085</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="42">
         <v>60.935999999999993</v>
       </c>
-      <c r="O26" s="22"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="32" t="s">
+      <c r="O26" s="20"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="32" t="s">
+      <c r="T26" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="52">
+      <c r="U26" s="50">
         <v>0.28999999999999998</v>
       </c>
-      <c r="V26" s="53">
+      <c r="V26" s="51">
         <v>0</v>
       </c>
-      <c r="W26" s="53">
+      <c r="W26" s="51">
         <v>-23.53</v>
       </c>
-      <c r="X26" s="53">
+      <c r="X26" s="51">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="Y26" s="53">
+      <c r="Y26" s="51">
         <v>-1.54</v>
       </c>
-      <c r="Z26" s="53">
+      <c r="Z26" s="51">
         <v>0</v>
       </c>
-      <c r="AA26" s="53">
+      <c r="AA26" s="51">
         <v>0</v>
       </c>
-      <c r="AB26" s="53">
+      <c r="AB26" s="51">
         <v>-74.42</v>
       </c>
-      <c r="AC26" s="53">
+      <c r="AC26" s="51">
         <v>-10.06</v>
       </c>
-      <c r="AD26" s="53">
+      <c r="AD26" s="51">
         <v>0.33</v>
       </c>
-      <c r="AE26" s="53">
+      <c r="AE26" s="51">
         <v>-72.349999999999994</v>
       </c>
-      <c r="AF26" s="53">
+      <c r="AF26" s="51">
         <v>0</v>
       </c>
-      <c r="AG26" s="53">
+      <c r="AG26" s="51">
         <v>-20.55</v>
       </c>
-      <c r="AH26" s="53">
+      <c r="AH26" s="51">
         <v>-0.23</v>
       </c>
-      <c r="AI26" s="53">
+      <c r="AI26" s="51">
         <v>-5.29</v>
       </c>
-      <c r="AJ26" s="53">
+      <c r="AJ26" s="51">
         <v>0</v>
       </c>
-      <c r="AK26" s="53">
+      <c r="AK26" s="51">
         <v>-18.739999999999998</v>
       </c>
-      <c r="AL26" s="53">
+      <c r="AL26" s="51">
         <v>-15.88</v>
       </c>
-      <c r="AM26" s="53">
+      <c r="AM26" s="51">
         <v>0</v>
       </c>
-      <c r="AN26" s="54">
+      <c r="AN26" s="52">
         <v>0</v>
       </c>
-      <c r="AO26" s="47">
+      <c r="AO26" s="45">
         <f t="shared" si="0"/>
         <v>-12.1555</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="42">
         <v>65.246999999999986</v>
       </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="32" t="s">
+      <c r="O27" s="20"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="T27" s="32" t="s">
+      <c r="T27" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="52">
+      <c r="U27" s="50">
         <v>50.57</v>
       </c>
-      <c r="V27" s="53">
+      <c r="V27" s="51">
         <v>100</v>
       </c>
-      <c r="W27" s="53">
+      <c r="W27" s="51">
         <v>91.2</v>
       </c>
-      <c r="X27" s="53">
+      <c r="X27" s="51">
         <v>65.72</v>
       </c>
-      <c r="Y27" s="53">
+      <c r="Y27" s="51">
         <v>99.13</v>
       </c>
-      <c r="Z27" s="53">
+      <c r="Z27" s="51">
         <v>78.569999999999993</v>
       </c>
-      <c r="AA27" s="53">
+      <c r="AA27" s="51">
         <v>95.69</v>
       </c>
-      <c r="AB27" s="53">
+      <c r="AB27" s="51">
         <v>96.49</v>
       </c>
-      <c r="AC27" s="53">
+      <c r="AC27" s="51">
         <v>96.09</v>
       </c>
-      <c r="AD27" s="53">
+      <c r="AD27" s="51">
         <v>95.4</v>
       </c>
-      <c r="AE27" s="53">
+      <c r="AE27" s="51">
         <v>76.010000000000005</v>
       </c>
-      <c r="AF27" s="53">
+      <c r="AF27" s="51">
         <v>98.45</v>
       </c>
-      <c r="AG27" s="53">
+      <c r="AG27" s="51">
         <v>63.4</v>
       </c>
-      <c r="AH27" s="53">
+      <c r="AH27" s="51">
         <v>96.31</v>
       </c>
-      <c r="AI27" s="53">
+      <c r="AI27" s="51">
         <v>97.29</v>
       </c>
-      <c r="AJ27" s="53">
+      <c r="AJ27" s="51">
         <v>99.09</v>
       </c>
-      <c r="AK27" s="53">
+      <c r="AK27" s="51">
         <v>94.11</v>
       </c>
-      <c r="AL27" s="53">
+      <c r="AL27" s="51">
         <v>87.09</v>
       </c>
-      <c r="AM27" s="53">
+      <c r="AM27" s="51">
         <v>99.11</v>
       </c>
-      <c r="AN27" s="54">
+      <c r="AN27" s="52">
         <v>74.48</v>
       </c>
-      <c r="AO27" s="47">
+      <c r="AO27" s="45">
         <f t="shared" si="0"/>
         <v>87.70999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="42">
         <v>69.756</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="32" t="s">
+      <c r="O28" s="20"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="T28" s="32" t="s">
+      <c r="T28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="U28" s="52">
+      <c r="U28" s="50">
         <v>13.52</v>
       </c>
-      <c r="V28" s="53">
+      <c r="V28" s="51">
         <v>0</v>
       </c>
-      <c r="W28" s="53">
+      <c r="W28" s="51">
         <v>8.98</v>
       </c>
-      <c r="X28" s="53">
+      <c r="X28" s="51">
         <v>15.23</v>
       </c>
-      <c r="Y28" s="53">
+      <c r="Y28" s="51">
         <v>49.17</v>
       </c>
-      <c r="Z28" s="53">
+      <c r="Z28" s="51">
         <v>71.38</v>
       </c>
-      <c r="AA28" s="53">
+      <c r="AA28" s="51">
         <v>51.26</v>
       </c>
-      <c r="AB28" s="53">
+      <c r="AB28" s="51">
         <v>97.29</v>
       </c>
-      <c r="AC28" s="53">
+      <c r="AC28" s="51">
         <v>49.2</v>
       </c>
-      <c r="AD28" s="53">
+      <c r="AD28" s="51">
         <v>72.39</v>
       </c>
-      <c r="AE28" s="53">
+      <c r="AE28" s="51">
         <v>6.14</v>
       </c>
-      <c r="AF28" s="53">
+      <c r="AF28" s="51">
         <v>5.76</v>
       </c>
-      <c r="AG28" s="53">
+      <c r="AG28" s="51">
         <v>11.71</v>
       </c>
-      <c r="AH28" s="53">
+      <c r="AH28" s="51">
         <v>24.16</v>
       </c>
-      <c r="AI28" s="53">
+      <c r="AI28" s="51">
         <v>25.44</v>
       </c>
-      <c r="AJ28" s="53">
+      <c r="AJ28" s="51">
         <v>50.44</v>
       </c>
-      <c r="AK28" s="53">
+      <c r="AK28" s="51">
         <v>67.62</v>
       </c>
-      <c r="AL28" s="53">
+      <c r="AL28" s="51">
         <v>73.06</v>
       </c>
-      <c r="AM28" s="53">
+      <c r="AM28" s="51">
         <v>19.05</v>
       </c>
-      <c r="AN28" s="54">
+      <c r="AN28" s="52">
         <v>13.38</v>
       </c>
-      <c r="AO28" s="47">
+      <c r="AO28" s="45">
         <f t="shared" si="0"/>
         <v>36.259</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="42">
         <v>75.790500000000009</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="32" t="s">
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="T29" s="32" t="s">
+      <c r="T29" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="U29" s="52">
+      <c r="U29" s="50">
         <v>24.18</v>
       </c>
-      <c r="V29" s="53">
+      <c r="V29" s="51">
         <v>50.41</v>
       </c>
-      <c r="W29" s="53">
+      <c r="W29" s="51">
         <v>39.840000000000003</v>
       </c>
-      <c r="X29" s="53">
+      <c r="X29" s="51">
         <v>24.81</v>
       </c>
-      <c r="Y29" s="53">
+      <c r="Y29" s="51">
         <v>22.88</v>
       </c>
-      <c r="Z29" s="53">
+      <c r="Z29" s="51">
         <v>50.54</v>
       </c>
-      <c r="AA29" s="53">
+      <c r="AA29" s="51">
         <v>45.93</v>
       </c>
-      <c r="AB29" s="53">
+      <c r="AB29" s="51">
         <v>74.73</v>
       </c>
-      <c r="AC29" s="53">
+      <c r="AC29" s="51">
         <v>88.52</v>
       </c>
-      <c r="AD29" s="53">
+      <c r="AD29" s="51">
         <v>74.510000000000005</v>
       </c>
-      <c r="AE29" s="53">
+      <c r="AE29" s="51">
         <v>80.94</v>
       </c>
-      <c r="AF29" s="53">
+      <c r="AF29" s="51">
         <v>28.12</v>
       </c>
-      <c r="AG29" s="53">
+      <c r="AG29" s="51">
         <v>57.78</v>
       </c>
-      <c r="AH29" s="53">
+      <c r="AH29" s="51">
         <v>29.55</v>
       </c>
-      <c r="AI29" s="53">
+      <c r="AI29" s="51">
         <v>52.77</v>
       </c>
-      <c r="AJ29" s="53">
+      <c r="AJ29" s="51">
         <v>49.41</v>
       </c>
-      <c r="AK29" s="53">
+      <c r="AK29" s="51">
         <v>78.72</v>
       </c>
-      <c r="AL29" s="53">
+      <c r="AL29" s="51">
         <v>74.81</v>
       </c>
-      <c r="AM29" s="53">
+      <c r="AM29" s="51">
         <v>25.17</v>
       </c>
-      <c r="AN29" s="54">
+      <c r="AN29" s="52">
         <v>50.98</v>
       </c>
-      <c r="AO29" s="47">
+      <c r="AO29" s="45">
         <f t="shared" si="0"/>
         <v>51.229999999999983</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="42">
         <v>84.373500000000007</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="32" t="s">
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="32" t="s">
+      <c r="T30" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="52">
+      <c r="U30" s="50">
         <v>100</v>
       </c>
-      <c r="V30" s="53">
+      <c r="V30" s="51">
         <v>62.06</v>
       </c>
-      <c r="W30" s="53">
+      <c r="W30" s="51">
         <v>99.44</v>
       </c>
-      <c r="X30" s="53">
+      <c r="X30" s="51">
         <v>100</v>
       </c>
-      <c r="Y30" s="53">
+      <c r="Y30" s="51">
         <v>97.2</v>
       </c>
-      <c r="Z30" s="53">
+      <c r="Z30" s="51">
         <v>100</v>
       </c>
-      <c r="AA30" s="53">
+      <c r="AA30" s="51">
         <v>87.24</v>
       </c>
-      <c r="AB30" s="53">
+      <c r="AB30" s="51">
         <v>99.58</v>
       </c>
-      <c r="AC30" s="53">
+      <c r="AC30" s="51">
         <v>100</v>
       </c>
-      <c r="AD30" s="53">
+      <c r="AD30" s="51">
         <v>97.63</v>
       </c>
-      <c r="AE30" s="53">
+      <c r="AE30" s="51">
         <v>98.33</v>
       </c>
-      <c r="AF30" s="53">
+      <c r="AF30" s="51">
         <v>96.56</v>
       </c>
-      <c r="AG30" s="53">
+      <c r="AG30" s="51">
         <v>74.66</v>
       </c>
-      <c r="AH30" s="53">
+      <c r="AH30" s="51">
         <v>75.790000000000006</v>
       </c>
-      <c r="AI30" s="53">
+      <c r="AI30" s="51">
         <v>93.48</v>
       </c>
-      <c r="AJ30" s="53">
+      <c r="AJ30" s="51">
         <v>98.99</v>
       </c>
-      <c r="AK30" s="53">
+      <c r="AK30" s="51">
         <v>98.78</v>
       </c>
-      <c r="AL30" s="53">
+      <c r="AL30" s="51">
         <v>100</v>
       </c>
-      <c r="AM30" s="53">
+      <c r="AM30" s="51">
         <v>75.63</v>
       </c>
-      <c r="AN30" s="54">
+      <c r="AN30" s="52">
         <v>75.73</v>
       </c>
-      <c r="AO30" s="47">
+      <c r="AO30" s="45">
         <f t="shared" si="0"/>
         <v>91.554999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="42">
         <v>87.963999999999999</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="32" t="s">
+      <c r="O31" s="20"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="T31" s="32" t="s">
+      <c r="T31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="52">
+      <c r="U31" s="50">
         <v>37.39</v>
       </c>
-      <c r="V31" s="53">
+      <c r="V31" s="51">
         <v>62.26</v>
       </c>
-      <c r="W31" s="53">
+      <c r="W31" s="51">
         <v>43.1</v>
       </c>
-      <c r="X31" s="53">
+      <c r="X31" s="51">
         <v>48.51</v>
       </c>
-      <c r="Y31" s="53">
+      <c r="Y31" s="51">
         <v>72.099999999999994</v>
       </c>
-      <c r="Z31" s="53">
+      <c r="Z31" s="51">
         <v>100</v>
       </c>
-      <c r="AA31" s="53">
+      <c r="AA31" s="51">
         <v>59.33</v>
       </c>
-      <c r="AB31" s="53">
+      <c r="AB31" s="51">
         <v>76.22</v>
       </c>
-      <c r="AC31" s="53">
+      <c r="AC31" s="51">
         <v>98.92</v>
       </c>
-      <c r="AD31" s="53">
+      <c r="AD31" s="51">
         <v>71.34</v>
       </c>
-      <c r="AE31" s="53">
+      <c r="AE31" s="51">
         <v>76.510000000000005</v>
       </c>
-      <c r="AF31" s="53">
+      <c r="AF31" s="51">
         <v>69.37</v>
       </c>
-      <c r="AG31" s="53">
+      <c r="AG31" s="51">
         <v>49.33</v>
       </c>
-      <c r="AH31" s="53">
+      <c r="AH31" s="51">
         <v>58.35</v>
       </c>
-      <c r="AI31" s="53">
+      <c r="AI31" s="51">
         <v>77.27</v>
       </c>
-      <c r="AJ31" s="53">
+      <c r="AJ31" s="51">
         <v>75.010000000000005</v>
       </c>
-      <c r="AK31" s="53">
+      <c r="AK31" s="51">
         <v>81.13</v>
       </c>
-      <c r="AL31" s="53">
+      <c r="AL31" s="51">
         <v>58.98</v>
       </c>
-      <c r="AM31" s="53">
+      <c r="AM31" s="51">
         <v>79.56</v>
       </c>
-      <c r="AN31" s="54">
+      <c r="AN31" s="52">
         <v>33.450000000000003</v>
       </c>
-      <c r="AO31" s="47">
+      <c r="AO31" s="45">
         <f t="shared" si="0"/>
         <v>66.406499999999994</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="42">
         <v>93.467999999999989</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="32" t="s">
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="T32" s="32" t="s">
+      <c r="T32" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U32" s="52">
+      <c r="U32" s="50">
         <v>5.89</v>
       </c>
-      <c r="V32" s="53">
+      <c r="V32" s="51">
         <v>14.42</v>
       </c>
-      <c r="W32" s="53">
+      <c r="W32" s="51">
         <v>9.6199999999999992</v>
       </c>
-      <c r="X32" s="53">
+      <c r="X32" s="51">
         <v>0</v>
       </c>
-      <c r="Y32" s="53">
+      <c r="Y32" s="51">
         <v>26.67</v>
       </c>
-      <c r="Z32" s="53">
+      <c r="Z32" s="51">
         <v>-0.1</v>
       </c>
-      <c r="AA32" s="53">
+      <c r="AA32" s="51">
         <v>40.28</v>
       </c>
-      <c r="AB32" s="53">
+      <c r="AB32" s="51">
         <v>24.89</v>
       </c>
-      <c r="AC32" s="53">
+      <c r="AC32" s="51">
         <v>37.47</v>
       </c>
-      <c r="AD32" s="53">
+      <c r="AD32" s="51">
         <v>-1.46</v>
       </c>
-      <c r="AE32" s="53">
+      <c r="AE32" s="51">
         <v>-2.97</v>
       </c>
-      <c r="AF32" s="53">
+      <c r="AF32" s="51">
         <v>37.76</v>
       </c>
-      <c r="AG32" s="53">
+      <c r="AG32" s="51">
         <v>6.11</v>
       </c>
-      <c r="AH32" s="53">
+      <c r="AH32" s="51">
         <v>25.02</v>
       </c>
-      <c r="AI32" s="53">
+      <c r="AI32" s="51">
         <v>54.65</v>
       </c>
-      <c r="AJ32" s="53">
+      <c r="AJ32" s="51">
         <v>25.04</v>
       </c>
-      <c r="AK32" s="53">
+      <c r="AK32" s="51">
         <v>36.270000000000003</v>
       </c>
-      <c r="AL32" s="53">
+      <c r="AL32" s="51">
         <v>21.83</v>
       </c>
-      <c r="AM32" s="53">
+      <c r="AM32" s="51">
         <v>42.7</v>
       </c>
-      <c r="AN32" s="54">
+      <c r="AN32" s="52">
         <v>26.65</v>
       </c>
-      <c r="AO32" s="47">
+      <c r="AO32" s="45">
         <f t="shared" si="0"/>
         <v>21.536999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="42">
         <v>97.28</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="32" t="s">
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="T33" s="32" t="s">
+      <c r="T33" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U33" s="52">
+      <c r="U33" s="50">
         <v>24.69</v>
       </c>
-      <c r="V33" s="53">
+      <c r="V33" s="51">
         <v>34.229999999999997</v>
       </c>
-      <c r="W33" s="53">
+      <c r="W33" s="51">
         <v>9.5500000000000007</v>
       </c>
-      <c r="X33" s="53">
+      <c r="X33" s="51">
         <v>25.13</v>
       </c>
-      <c r="Y33" s="53">
+      <c r="Y33" s="51">
         <v>4.07</v>
       </c>
-      <c r="Z33" s="53">
+      <c r="Z33" s="51">
         <v>52.38</v>
       </c>
-      <c r="AA33" s="53">
+      <c r="AA33" s="51">
         <v>86.49</v>
       </c>
-      <c r="AB33" s="53">
+      <c r="AB33" s="51">
         <v>25.88</v>
       </c>
-      <c r="AC33" s="53">
+      <c r="AC33" s="51">
         <v>35.35</v>
       </c>
-      <c r="AD33" s="53">
+      <c r="AD33" s="51">
         <v>23.41</v>
       </c>
-      <c r="AE33" s="53">
+      <c r="AE33" s="51">
         <v>73.63</v>
       </c>
-      <c r="AF33" s="53">
+      <c r="AF33" s="51">
         <v>50.38</v>
       </c>
-      <c r="AG33" s="53">
+      <c r="AG33" s="51">
         <v>25.46</v>
       </c>
-      <c r="AH33" s="53">
+      <c r="AH33" s="51">
         <v>35.840000000000003</v>
       </c>
-      <c r="AI33" s="53">
+      <c r="AI33" s="51">
         <v>47.4</v>
       </c>
-      <c r="AJ33" s="53">
+      <c r="AJ33" s="51">
         <v>49.88</v>
       </c>
-      <c r="AK33" s="53">
+      <c r="AK33" s="51">
         <v>45.47</v>
       </c>
-      <c r="AL33" s="53">
+      <c r="AL33" s="51">
         <v>36.85</v>
       </c>
-      <c r="AM33" s="53">
+      <c r="AM33" s="51">
         <v>34.1</v>
       </c>
-      <c r="AN33" s="54">
+      <c r="AN33" s="52">
         <v>25.96</v>
       </c>
-      <c r="AO33" s="47">
+      <c r="AO33" s="45">
         <f t="shared" si="0"/>
         <v>37.307500000000005</v>
       </c>
     </row>
     <row r="34" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="43">
         <v>98.169500000000014</v>
       </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="32" t="s">
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="T34" s="32" t="s">
+      <c r="T34" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U34" s="52">
+      <c r="U34" s="50">
         <v>49.63</v>
       </c>
-      <c r="V34" s="53">
+      <c r="V34" s="51">
         <v>51.23</v>
       </c>
-      <c r="W34" s="53">
+      <c r="W34" s="51">
         <v>48.56</v>
       </c>
-      <c r="X34" s="53">
+      <c r="X34" s="51">
         <v>99.52</v>
       </c>
-      <c r="Y34" s="53">
+      <c r="Y34" s="51">
         <v>74.08</v>
       </c>
-      <c r="Z34" s="53">
+      <c r="Z34" s="51">
         <v>100</v>
       </c>
-      <c r="AA34" s="53">
+      <c r="AA34" s="51">
         <v>76.63</v>
       </c>
-      <c r="AB34" s="53">
+      <c r="AB34" s="51">
         <v>86.45</v>
       </c>
-      <c r="AC34" s="53">
+      <c r="AC34" s="51">
         <v>48.11</v>
       </c>
-      <c r="AD34" s="53">
+      <c r="AD34" s="51">
         <v>49.62</v>
       </c>
-      <c r="AE34" s="53">
+      <c r="AE34" s="51">
         <v>96.18</v>
       </c>
-      <c r="AF34" s="53">
+      <c r="AF34" s="51">
         <v>26.07</v>
       </c>
-      <c r="AG34" s="53">
+      <c r="AG34" s="51">
         <v>67.52</v>
       </c>
-      <c r="AH34" s="53">
+      <c r="AH34" s="51">
         <v>50.05</v>
       </c>
-      <c r="AI34" s="53">
+      <c r="AI34" s="51">
         <v>30.76</v>
       </c>
-      <c r="AJ34" s="53">
+      <c r="AJ34" s="51">
         <v>64.42</v>
       </c>
-      <c r="AK34" s="53">
+      <c r="AK34" s="51">
         <v>51.97</v>
       </c>
-      <c r="AL34" s="53">
+      <c r="AL34" s="51">
         <v>61.97</v>
       </c>
-      <c r="AM34" s="53">
+      <c r="AM34" s="51">
         <v>71.75</v>
       </c>
-      <c r="AN34" s="54">
+      <c r="AN34" s="52">
         <v>32.130000000000003</v>
       </c>
-      <c r="AO34" s="47">
+      <c r="AO34" s="45">
         <f t="shared" si="0"/>
         <v>61.832500000000003</v>
       </c>
     </row>
     <row r="35" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="32" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="T35" s="32" t="s">
+      <c r="T35" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U35" s="52">
+      <c r="U35" s="50">
         <v>49.55</v>
       </c>
-      <c r="V35" s="53">
+      <c r="V35" s="51">
         <v>40.53</v>
       </c>
-      <c r="W35" s="53">
+      <c r="W35" s="51">
         <v>-25.05</v>
       </c>
-      <c r="X35" s="53">
+      <c r="X35" s="51">
         <v>25.39</v>
       </c>
-      <c r="Y35" s="53">
+      <c r="Y35" s="51">
         <v>50.9</v>
       </c>
-      <c r="Z35" s="53">
+      <c r="Z35" s="51">
         <v>74.36</v>
       </c>
-      <c r="AA35" s="53">
+      <c r="AA35" s="51">
         <v>62.9</v>
       </c>
-      <c r="AB35" s="53">
+      <c r="AB35" s="51">
         <v>74.42</v>
       </c>
-      <c r="AC35" s="53">
+      <c r="AC35" s="51">
         <v>0</v>
       </c>
-      <c r="AD35" s="53">
+      <c r="AD35" s="51">
         <v>50.05</v>
       </c>
-      <c r="AE35" s="53">
+      <c r="AE35" s="51">
         <v>51.55</v>
       </c>
-      <c r="AF35" s="53">
+      <c r="AF35" s="51">
         <v>59.66</v>
       </c>
-      <c r="AG35" s="53">
+      <c r="AG35" s="51">
         <v>50.96</v>
       </c>
-      <c r="AH35" s="53">
+      <c r="AH35" s="51">
         <v>77.27</v>
       </c>
-      <c r="AI35" s="53">
+      <c r="AI35" s="51">
         <v>58.72</v>
       </c>
-      <c r="AJ35" s="53">
+      <c r="AJ35" s="51">
         <v>93.48</v>
       </c>
-      <c r="AK35" s="53">
+      <c r="AK35" s="51">
         <v>25.6</v>
       </c>
-      <c r="AL35" s="53">
+      <c r="AL35" s="51">
         <v>23.17</v>
       </c>
-      <c r="AM35" s="53">
+      <c r="AM35" s="51">
         <v>38.18</v>
       </c>
-      <c r="AN35" s="54">
+      <c r="AN35" s="52">
         <v>55.52</v>
       </c>
-      <c r="AO35" s="47">
+      <c r="AO35" s="45">
         <f t="shared" si="0"/>
         <v>46.857999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="32" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="T36" s="32" t="s">
+      <c r="T36" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U36" s="52">
+      <c r="U36" s="50">
         <v>49.16</v>
       </c>
-      <c r="V36" s="53">
+      <c r="V36" s="51">
         <v>22.52</v>
       </c>
-      <c r="W36" s="53">
+      <c r="W36" s="51">
         <v>-23.59</v>
       </c>
-      <c r="X36" s="53">
+      <c r="X36" s="51">
         <v>26.68</v>
       </c>
-      <c r="Y36" s="53">
+      <c r="Y36" s="51">
         <v>52.84</v>
       </c>
-      <c r="Z36" s="53">
+      <c r="Z36" s="51">
         <v>49.48</v>
       </c>
-      <c r="AA36" s="53">
+      <c r="AA36" s="51">
         <v>27.77</v>
       </c>
-      <c r="AB36" s="53">
+      <c r="AB36" s="51">
         <v>47.64</v>
       </c>
-      <c r="AC36" s="53">
+      <c r="AC36" s="51">
         <v>27.15</v>
       </c>
-      <c r="AD36" s="53">
+      <c r="AD36" s="51">
         <v>52.5</v>
       </c>
-      <c r="AE36" s="53">
+      <c r="AE36" s="51">
         <v>47.23</v>
       </c>
-      <c r="AF36" s="53">
+      <c r="AF36" s="51">
         <v>24.52</v>
       </c>
-      <c r="AG36" s="53">
+      <c r="AG36" s="51">
         <v>38.479999999999997</v>
       </c>
-      <c r="AH36" s="53">
+      <c r="AH36" s="51">
         <v>54.54</v>
       </c>
-      <c r="AI36" s="53">
+      <c r="AI36" s="51">
         <v>40.29</v>
       </c>
-      <c r="AJ36" s="53">
+      <c r="AJ36" s="51">
         <v>48.6</v>
       </c>
-      <c r="AK36" s="53">
+      <c r="AK36" s="51">
         <v>77.09</v>
       </c>
-      <c r="AL36" s="53">
+      <c r="AL36" s="51">
         <v>16.66</v>
       </c>
-      <c r="AM36" s="53">
+      <c r="AM36" s="51">
         <v>20.79</v>
       </c>
-      <c r="AN36" s="54">
+      <c r="AN36" s="52">
         <v>51.63</v>
       </c>
-      <c r="AO36" s="47">
+      <c r="AO36" s="45">
         <f t="shared" si="0"/>
         <v>37.599000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="32" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T37" s="32" t="s">
+      <c r="T37" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U37" s="52">
+      <c r="U37" s="50">
         <v>58.56</v>
       </c>
-      <c r="V37" s="53">
+      <c r="V37" s="51">
         <v>80.55</v>
       </c>
-      <c r="W37" s="53">
+      <c r="W37" s="51">
         <v>66.38</v>
       </c>
-      <c r="X37" s="53">
+      <c r="X37" s="51">
         <v>60.34</v>
       </c>
-      <c r="Y37" s="53">
+      <c r="Y37" s="51">
         <v>70.33</v>
       </c>
-      <c r="Z37" s="53">
+      <c r="Z37" s="51">
         <v>100</v>
       </c>
-      <c r="AA37" s="53">
+      <c r="AA37" s="51">
         <v>58.49</v>
       </c>
-      <c r="AB37" s="53">
+      <c r="AB37" s="51">
         <v>33.450000000000003</v>
       </c>
-      <c r="AC37" s="53">
+      <c r="AC37" s="51">
         <v>75.08</v>
       </c>
-      <c r="AD37" s="53">
+      <c r="AD37" s="51">
         <v>64.150000000000006</v>
       </c>
-      <c r="AE37" s="53">
+      <c r="AE37" s="51">
         <v>100</v>
       </c>
-      <c r="AF37" s="53">
+      <c r="AF37" s="51">
         <v>83.71</v>
       </c>
-      <c r="AG37" s="53">
+      <c r="AG37" s="51">
         <v>68.69</v>
       </c>
-      <c r="AH37" s="53">
+      <c r="AH37" s="51">
         <v>84.23</v>
       </c>
-      <c r="AI37" s="53">
+      <c r="AI37" s="51">
         <v>100</v>
       </c>
-      <c r="AJ37" s="53">
+      <c r="AJ37" s="51">
         <v>100</v>
       </c>
-      <c r="AK37" s="53">
+      <c r="AK37" s="51">
         <v>78.430000000000007</v>
       </c>
-      <c r="AL37" s="53">
+      <c r="AL37" s="51">
         <v>68.38</v>
       </c>
-      <c r="AM37" s="53">
+      <c r="AM37" s="51">
         <v>91.9</v>
       </c>
-      <c r="AN37" s="54">
+      <c r="AN37" s="52">
         <v>73.14</v>
       </c>
-      <c r="AO37" s="47">
+      <c r="AO37" s="45">
         <f t="shared" si="0"/>
         <v>75.790500000000009</v>
       </c>
@@ -7995,1244 +8001,1244 @@
       <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="32" t="s">
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="T38" s="32" t="s">
+      <c r="T38" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U38" s="52">
+      <c r="U38" s="50">
         <v>50.5</v>
       </c>
-      <c r="V38" s="53">
+      <c r="V38" s="51">
         <v>81.75</v>
       </c>
-      <c r="W38" s="53">
+      <c r="W38" s="51">
         <v>30.47</v>
       </c>
-      <c r="X38" s="53">
+      <c r="X38" s="51">
         <v>51.07</v>
       </c>
-      <c r="Y38" s="53">
+      <c r="Y38" s="51">
         <v>25.68</v>
       </c>
-      <c r="Z38" s="53">
+      <c r="Z38" s="51">
         <v>48.81</v>
       </c>
-      <c r="AA38" s="53">
+      <c r="AA38" s="51">
         <v>34.340000000000003</v>
       </c>
-      <c r="AB38" s="53">
+      <c r="AB38" s="51">
         <v>49.83</v>
       </c>
-      <c r="AC38" s="53">
+      <c r="AC38" s="51">
         <v>36.479999999999997</v>
       </c>
-      <c r="AD38" s="53">
+      <c r="AD38" s="51">
         <v>79.66</v>
       </c>
-      <c r="AE38" s="53">
+      <c r="AE38" s="51">
         <v>49.36</v>
       </c>
-      <c r="AF38" s="53">
+      <c r="AF38" s="51">
         <v>61.57</v>
       </c>
-      <c r="AG38" s="53">
+      <c r="AG38" s="51">
         <v>47.54</v>
       </c>
-      <c r="AH38" s="53">
+      <c r="AH38" s="51">
         <v>77.94</v>
       </c>
-      <c r="AI38" s="53">
+      <c r="AI38" s="51">
         <v>88.01</v>
       </c>
-      <c r="AJ38" s="53">
+      <c r="AJ38" s="51">
         <v>75.97</v>
       </c>
-      <c r="AK38" s="53">
+      <c r="AK38" s="51">
         <v>75.59</v>
       </c>
-      <c r="AL38" s="53">
+      <c r="AL38" s="51">
         <v>48.13</v>
       </c>
-      <c r="AM38" s="53">
+      <c r="AM38" s="51">
         <v>62.39</v>
       </c>
-      <c r="AN38" s="54">
+      <c r="AN38" s="52">
         <v>58.14</v>
       </c>
-      <c r="AO38" s="47">
+      <c r="AO38" s="45">
         <f t="shared" si="0"/>
         <v>56.661500000000011</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="26">
         <v>12.067</v>
       </c>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="32" t="s">
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="32" t="s">
+      <c r="T39" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U39" s="52">
+      <c r="U39" s="50">
         <v>53.44</v>
       </c>
-      <c r="V39" s="53">
+      <c r="V39" s="51">
         <v>48.13</v>
       </c>
-      <c r="W39" s="53">
+      <c r="W39" s="51">
         <v>50.3</v>
       </c>
-      <c r="X39" s="53">
+      <c r="X39" s="51">
         <v>49.78</v>
       </c>
-      <c r="Y39" s="53">
+      <c r="Y39" s="51">
         <v>75.739999999999995</v>
       </c>
-      <c r="Z39" s="53">
+      <c r="Z39" s="51">
         <v>72.75</v>
       </c>
-      <c r="AA39" s="53">
+      <c r="AA39" s="51">
         <v>20.02</v>
       </c>
-      <c r="AB39" s="53">
+      <c r="AB39" s="51">
         <v>40.520000000000003</v>
       </c>
-      <c r="AC39" s="53">
+      <c r="AC39" s="51">
         <v>32.72</v>
       </c>
-      <c r="AD39" s="53">
+      <c r="AD39" s="51">
         <v>78.58</v>
       </c>
-      <c r="AE39" s="53">
+      <c r="AE39" s="51">
         <v>72.819999999999993</v>
       </c>
-      <c r="AF39" s="53">
+      <c r="AF39" s="51">
         <v>51.93</v>
       </c>
-      <c r="AG39" s="53">
+      <c r="AG39" s="51">
         <v>52.18</v>
       </c>
-      <c r="AH39" s="53">
+      <c r="AH39" s="51">
         <v>84.78</v>
       </c>
-      <c r="AI39" s="53">
+      <c r="AI39" s="51">
         <v>95.08</v>
       </c>
-      <c r="AJ39" s="53">
+      <c r="AJ39" s="51">
         <v>96.68</v>
       </c>
-      <c r="AK39" s="53">
+      <c r="AK39" s="51">
         <v>74.92</v>
       </c>
-      <c r="AL39" s="53">
+      <c r="AL39" s="51">
         <v>55.27</v>
       </c>
-      <c r="AM39" s="53">
+      <c r="AM39" s="51">
         <v>62.53</v>
       </c>
-      <c r="AN39" s="54">
+      <c r="AN39" s="52">
         <v>50.55</v>
       </c>
-      <c r="AO39" s="47">
+      <c r="AO39" s="45">
         <f t="shared" si="0"/>
         <v>60.935999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="27">
         <v>17.230999999999998</v>
       </c>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="32" t="s">
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="T40" s="32" t="s">
+      <c r="T40" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U40" s="52">
+      <c r="U40" s="50">
         <v>49.25</v>
       </c>
-      <c r="V40" s="53">
+      <c r="V40" s="51">
         <v>53.33</v>
       </c>
-      <c r="W40" s="53">
+      <c r="W40" s="51">
         <v>52.38</v>
       </c>
-      <c r="X40" s="53">
+      <c r="X40" s="51">
         <v>23.62</v>
       </c>
-      <c r="Y40" s="53">
+      <c r="Y40" s="51">
         <v>49.31</v>
       </c>
-      <c r="Z40" s="53">
+      <c r="Z40" s="51">
         <v>100</v>
       </c>
-      <c r="AA40" s="53">
+      <c r="AA40" s="51">
         <v>43.03</v>
       </c>
-      <c r="AB40" s="53">
+      <c r="AB40" s="51">
         <v>49.13</v>
       </c>
-      <c r="AC40" s="53">
+      <c r="AC40" s="51">
         <v>31.36</v>
       </c>
-      <c r="AD40" s="53">
+      <c r="AD40" s="51">
         <v>98.97</v>
       </c>
-      <c r="AE40" s="53">
+      <c r="AE40" s="51">
         <v>75.3</v>
       </c>
-      <c r="AF40" s="53">
+      <c r="AF40" s="51">
         <v>77.33</v>
       </c>
-      <c r="AG40" s="53">
+      <c r="AG40" s="51">
         <v>49.52</v>
       </c>
-      <c r="AH40" s="53">
+      <c r="AH40" s="51">
         <v>84.32</v>
       </c>
-      <c r="AI40" s="53">
+      <c r="AI40" s="51">
         <v>40.72</v>
       </c>
-      <c r="AJ40" s="53">
+      <c r="AJ40" s="51">
         <v>73.569999999999993</v>
       </c>
-      <c r="AK40" s="53">
+      <c r="AK40" s="51">
         <v>70.53</v>
       </c>
-      <c r="AL40" s="53">
+      <c r="AL40" s="51">
         <v>46.43</v>
       </c>
-      <c r="AM40" s="53">
+      <c r="AM40" s="51">
         <v>31.33</v>
       </c>
-      <c r="AN40" s="54">
+      <c r="AN40" s="52">
         <v>54.72</v>
       </c>
-      <c r="AO40" s="47">
+      <c r="AO40" s="45">
         <f t="shared" si="0"/>
         <v>57.707499999999996</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="27">
         <v>21.536999999999999</v>
       </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="32" t="s">
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="T41" s="32" t="s">
+      <c r="T41" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U41" s="52">
+      <c r="U41" s="50">
         <v>0</v>
       </c>
-      <c r="V41" s="53">
+      <c r="V41" s="51">
         <v>50.71</v>
       </c>
-      <c r="W41" s="53">
+      <c r="W41" s="51">
         <v>12.36</v>
       </c>
-      <c r="X41" s="53">
+      <c r="X41" s="51">
         <v>0</v>
       </c>
-      <c r="Y41" s="53">
+      <c r="Y41" s="51">
         <v>1.78</v>
       </c>
-      <c r="Z41" s="53">
+      <c r="Z41" s="51">
         <v>0</v>
       </c>
-      <c r="AA41" s="53">
+      <c r="AA41" s="51">
         <v>9.35</v>
       </c>
-      <c r="AB41" s="53">
+      <c r="AB41" s="51">
         <v>-2.48</v>
       </c>
-      <c r="AC41" s="53">
+      <c r="AC41" s="51">
         <v>0</v>
       </c>
-      <c r="AD41" s="53">
+      <c r="AD41" s="51">
         <v>1.52</v>
       </c>
-      <c r="AE41" s="53">
+      <c r="AE41" s="51">
         <v>-24.39</v>
       </c>
-      <c r="AF41" s="53">
+      <c r="AF41" s="51">
         <v>1.82</v>
       </c>
-      <c r="AG41" s="53">
+      <c r="AG41" s="51">
         <v>21.57</v>
       </c>
-      <c r="AH41" s="53">
+      <c r="AH41" s="51">
         <v>20.04</v>
       </c>
-      <c r="AI41" s="53">
+      <c r="AI41" s="51">
         <v>28.77</v>
       </c>
-      <c r="AJ41" s="53">
+      <c r="AJ41" s="51">
         <v>24.23</v>
       </c>
-      <c r="AK41" s="53">
+      <c r="AK41" s="51">
         <v>17.059999999999999</v>
       </c>
-      <c r="AL41" s="53">
+      <c r="AL41" s="51">
         <v>41.12</v>
       </c>
-      <c r="AM41" s="53">
+      <c r="AM41" s="51">
         <v>0</v>
       </c>
-      <c r="AN41" s="54">
+      <c r="AN41" s="52">
         <v>31.14</v>
       </c>
-      <c r="AO41" s="47">
+      <c r="AO41" s="45">
         <f t="shared" si="0"/>
         <v>11.729999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="27">
         <v>24.107499999999995</v>
       </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="32" t="s">
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="T42" s="32" t="s">
+      <c r="T42" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U42" s="52">
+      <c r="U42" s="50">
         <v>-0.21</v>
       </c>
-      <c r="V42" s="53">
+      <c r="V42" s="51">
         <v>35.979999999999997</v>
       </c>
-      <c r="W42" s="53">
+      <c r="W42" s="51">
         <v>-7.62</v>
       </c>
-      <c r="X42" s="53">
+      <c r="X42" s="51">
         <v>-1.74</v>
       </c>
-      <c r="Y42" s="53">
+      <c r="Y42" s="51">
         <v>22.21</v>
       </c>
-      <c r="Z42" s="53">
+      <c r="Z42" s="51">
         <v>-2.48</v>
       </c>
-      <c r="AA42" s="53">
+      <c r="AA42" s="51">
         <v>0</v>
       </c>
-      <c r="AB42" s="53">
+      <c r="AB42" s="51">
         <v>24.98</v>
       </c>
-      <c r="AC42" s="53">
+      <c r="AC42" s="51">
         <v>7.86</v>
       </c>
-      <c r="AD42" s="53">
+      <c r="AD42" s="51">
         <v>-1.1100000000000001</v>
       </c>
-      <c r="AE42" s="53">
+      <c r="AE42" s="51">
         <v>1</v>
       </c>
-      <c r="AF42" s="53">
+      <c r="AF42" s="51">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AG42" s="53">
+      <c r="AG42" s="51">
         <v>23.45</v>
       </c>
-      <c r="AH42" s="53">
+      <c r="AH42" s="51">
         <v>23.88</v>
       </c>
-      <c r="AI42" s="53">
+      <c r="AI42" s="51">
         <v>22.78</v>
       </c>
-      <c r="AJ42" s="53">
+      <c r="AJ42" s="51">
         <v>49.71</v>
       </c>
-      <c r="AK42" s="53">
+      <c r="AK42" s="51">
         <v>9.19</v>
       </c>
-      <c r="AL42" s="53">
+      <c r="AL42" s="51">
         <v>25.99</v>
       </c>
-      <c r="AM42" s="53">
+      <c r="AM42" s="51">
         <v>-0.34</v>
       </c>
-      <c r="AN42" s="54">
+      <c r="AN42" s="52">
         <v>28.28</v>
       </c>
-      <c r="AO42" s="47">
+      <c r="AO42" s="45">
         <f t="shared" si="0"/>
         <v>12.860500000000002</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="27">
         <v>29.195499999999992</v>
       </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="32" t="s">
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="T43" s="32" t="s">
+      <c r="T43" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U43" s="52">
+      <c r="U43" s="50">
         <v>99.72</v>
       </c>
-      <c r="V43" s="53">
+      <c r="V43" s="51">
         <v>99.83</v>
       </c>
-      <c r="W43" s="53">
+      <c r="W43" s="51">
         <v>86.82</v>
       </c>
-      <c r="X43" s="53">
+      <c r="X43" s="51">
         <v>99.5</v>
       </c>
-      <c r="Y43" s="53">
+      <c r="Y43" s="51">
         <v>98.71</v>
       </c>
-      <c r="Z43" s="53">
+      <c r="Z43" s="51">
         <v>73.16</v>
       </c>
-      <c r="AA43" s="53">
+      <c r="AA43" s="51">
         <v>87.2</v>
       </c>
-      <c r="AB43" s="53">
+      <c r="AB43" s="51">
         <v>75.05</v>
       </c>
-      <c r="AC43" s="53">
+      <c r="AC43" s="51">
         <v>98.86</v>
       </c>
-      <c r="AD43" s="53">
+      <c r="AD43" s="51">
         <v>90.52</v>
       </c>
-      <c r="AE43" s="53">
+      <c r="AE43" s="51">
         <v>98.83</v>
       </c>
-      <c r="AF43" s="53">
+      <c r="AF43" s="51">
         <v>100</v>
       </c>
-      <c r="AG43" s="53">
+      <c r="AG43" s="51">
         <v>63.74</v>
       </c>
-      <c r="AH43" s="53">
+      <c r="AH43" s="51">
         <v>73.790000000000006</v>
       </c>
-      <c r="AI43" s="53">
+      <c r="AI43" s="51">
         <v>73.63</v>
       </c>
-      <c r="AJ43" s="53">
+      <c r="AJ43" s="51">
         <v>100</v>
       </c>
-      <c r="AK43" s="53">
+      <c r="AK43" s="51">
         <v>67.97</v>
       </c>
-      <c r="AL43" s="53">
+      <c r="AL43" s="51">
         <v>75.19</v>
       </c>
-      <c r="AM43" s="53">
+      <c r="AM43" s="51">
         <v>64.760000000000005</v>
       </c>
-      <c r="AN43" s="54">
+      <c r="AN43" s="52">
         <v>40.590000000000003</v>
       </c>
-      <c r="AO43" s="47">
+      <c r="AO43" s="45">
         <f t="shared" si="0"/>
         <v>83.393500000000003</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="27">
         <v>36.259</v>
       </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="32" t="s">
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="T44" s="32" t="s">
+      <c r="T44" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U44" s="52">
+      <c r="U44" s="50">
         <v>0</v>
       </c>
-      <c r="V44" s="53">
+      <c r="V44" s="51">
         <v>23.77</v>
       </c>
-      <c r="W44" s="53">
+      <c r="W44" s="51">
         <v>0.24</v>
       </c>
-      <c r="X44" s="53">
+      <c r="X44" s="51">
         <v>14.43</v>
       </c>
-      <c r="Y44" s="53">
+      <c r="Y44" s="51">
         <v>25.23</v>
       </c>
-      <c r="Z44" s="53">
+      <c r="Z44" s="51">
         <v>65.59</v>
       </c>
-      <c r="AA44" s="53">
+      <c r="AA44" s="51">
         <v>37.57</v>
       </c>
-      <c r="AB44" s="53">
+      <c r="AB44" s="51">
         <v>12.74</v>
       </c>
-      <c r="AC44" s="53">
+      <c r="AC44" s="51">
         <v>0</v>
       </c>
-      <c r="AD44" s="53">
+      <c r="AD44" s="51">
         <v>23.22</v>
       </c>
-      <c r="AE44" s="53">
+      <c r="AE44" s="51">
         <v>46.44</v>
       </c>
-      <c r="AF44" s="53">
+      <c r="AF44" s="51">
         <v>21.12</v>
       </c>
-      <c r="AG44" s="53">
+      <c r="AG44" s="51">
         <v>16.670000000000002</v>
       </c>
-      <c r="AH44" s="53">
+      <c r="AH44" s="51">
         <v>12.08</v>
       </c>
-      <c r="AI44" s="53">
+      <c r="AI44" s="51">
         <v>16.02</v>
       </c>
-      <c r="AJ44" s="53">
+      <c r="AJ44" s="51">
         <v>74.5</v>
       </c>
-      <c r="AK44" s="53">
+      <c r="AK44" s="51">
         <v>28.19</v>
       </c>
-      <c r="AL44" s="53">
+      <c r="AL44" s="51">
         <v>21.99</v>
       </c>
-      <c r="AM44" s="53">
+      <c r="AM44" s="51">
         <v>24.9</v>
       </c>
-      <c r="AN44" s="54">
+      <c r="AN44" s="52">
         <v>17.45</v>
       </c>
-      <c r="AO44" s="47">
+      <c r="AO44" s="45">
         <f t="shared" si="0"/>
         <v>24.107499999999995</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="27">
         <v>37.307500000000005</v>
       </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="32" t="s">
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="T45" s="32" t="s">
+      <c r="T45" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U45" s="52">
+      <c r="U45" s="50">
         <v>0.61</v>
       </c>
-      <c r="V45" s="53">
+      <c r="V45" s="51">
         <v>17.87</v>
       </c>
-      <c r="W45" s="53">
+      <c r="W45" s="51">
         <v>32.14</v>
       </c>
-      <c r="X45" s="53">
+      <c r="X45" s="51">
         <v>11.49</v>
       </c>
-      <c r="Y45" s="53">
+      <c r="Y45" s="51">
         <v>22.54</v>
       </c>
-      <c r="Z45" s="53">
+      <c r="Z45" s="51">
         <v>50.02</v>
       </c>
-      <c r="AA45" s="53">
+      <c r="AA45" s="51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB45" s="53">
+      <c r="AB45" s="51">
         <v>25.02</v>
       </c>
-      <c r="AC45" s="53">
+      <c r="AC45" s="51">
         <v>5.47</v>
       </c>
-      <c r="AD45" s="53">
+      <c r="AD45" s="51">
         <v>49.9</v>
       </c>
-      <c r="AE45" s="53">
+      <c r="AE45" s="51">
         <v>48.56</v>
       </c>
-      <c r="AF45" s="53">
+      <c r="AF45" s="51">
         <v>50.45</v>
       </c>
-      <c r="AG45" s="53">
+      <c r="AG45" s="51">
         <v>9.74</v>
       </c>
-      <c r="AH45" s="53">
+      <c r="AH45" s="51">
         <v>52.52</v>
       </c>
-      <c r="AI45" s="53">
+      <c r="AI45" s="51">
         <v>31.46</v>
       </c>
-      <c r="AJ45" s="53">
+      <c r="AJ45" s="51">
         <v>36.28</v>
       </c>
-      <c r="AK45" s="53">
+      <c r="AK45" s="51">
         <v>52.46</v>
       </c>
-      <c r="AL45" s="53">
+      <c r="AL45" s="51">
         <v>41.56</v>
       </c>
-      <c r="AM45" s="53">
+      <c r="AM45" s="51">
         <v>18.420000000000002</v>
       </c>
-      <c r="AN45" s="54">
+      <c r="AN45" s="52">
         <v>26.3</v>
       </c>
-      <c r="AO45" s="47">
+      <c r="AO45" s="45">
         <f t="shared" si="0"/>
         <v>29.195499999999992</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="27">
         <v>42.957999999999998</v>
       </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="32" t="s">
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="T46" s="32" t="s">
+      <c r="T46" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U46" s="52">
+      <c r="U46" s="50">
         <v>50.32</v>
       </c>
-      <c r="V46" s="53">
+      <c r="V46" s="51">
         <v>69.040000000000006</v>
       </c>
-      <c r="W46" s="53">
+      <c r="W46" s="51">
         <v>84.9</v>
       </c>
-      <c r="X46" s="53">
+      <c r="X46" s="51">
         <v>47.23</v>
       </c>
-      <c r="Y46" s="53">
+      <c r="Y46" s="51">
         <v>99.7</v>
       </c>
-      <c r="Z46" s="53">
+      <c r="Z46" s="51">
         <v>42.31</v>
       </c>
-      <c r="AA46" s="53">
+      <c r="AA46" s="51">
         <v>67.33</v>
       </c>
-      <c r="AB46" s="53">
+      <c r="AB46" s="51">
         <v>50.34</v>
       </c>
-      <c r="AC46" s="53">
+      <c r="AC46" s="51">
         <v>78.209999999999994</v>
       </c>
-      <c r="AD46" s="53">
+      <c r="AD46" s="51">
         <v>74.2</v>
       </c>
-      <c r="AE46" s="53">
+      <c r="AE46" s="51">
         <v>85.09</v>
       </c>
-      <c r="AF46" s="53">
+      <c r="AF46" s="51">
         <v>58.5</v>
       </c>
-      <c r="AG46" s="53">
+      <c r="AG46" s="51">
         <v>62.07</v>
       </c>
-      <c r="AH46" s="53">
+      <c r="AH46" s="51">
         <v>75.069999999999993</v>
       </c>
-      <c r="AI46" s="53">
+      <c r="AI46" s="51">
         <v>91.42</v>
       </c>
-      <c r="AJ46" s="53">
+      <c r="AJ46" s="51">
         <v>100</v>
       </c>
-      <c r="AK46" s="53">
+      <c r="AK46" s="51">
         <v>75.89</v>
       </c>
-      <c r="AL46" s="53">
+      <c r="AL46" s="51">
         <v>77.239999999999995</v>
       </c>
-      <c r="AM46" s="53">
+      <c r="AM46" s="51">
         <v>72.290000000000006</v>
       </c>
-      <c r="AN46" s="54">
+      <c r="AN46" s="52">
         <v>31.29</v>
       </c>
-      <c r="AO46" s="47">
+      <c r="AO46" s="45">
         <f t="shared" si="0"/>
         <v>69.622000000000014</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="27">
         <v>51.229999999999983</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="32" t="s">
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="T47" s="32" t="s">
+      <c r="T47" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="U47" s="52">
+      <c r="U47" s="50">
         <v>24.96</v>
       </c>
-      <c r="V47" s="53">
+      <c r="V47" s="51">
         <v>36.26</v>
       </c>
-      <c r="W47" s="53">
+      <c r="W47" s="51">
         <v>27.18</v>
       </c>
-      <c r="X47" s="53">
+      <c r="X47" s="51">
         <v>40.909999999999997</v>
       </c>
-      <c r="Y47" s="53">
+      <c r="Y47" s="51">
         <v>25.02</v>
       </c>
-      <c r="Z47" s="53">
+      <c r="Z47" s="51">
         <v>75.77</v>
       </c>
-      <c r="AA47" s="53">
+      <c r="AA47" s="51">
         <v>44.58</v>
       </c>
-      <c r="AB47" s="53">
+      <c r="AB47" s="51">
         <v>7.57</v>
       </c>
-      <c r="AC47" s="53">
+      <c r="AC47" s="51">
         <v>26.41</v>
       </c>
-      <c r="AD47" s="53">
+      <c r="AD47" s="51">
         <v>48.9</v>
       </c>
-      <c r="AE47" s="53">
+      <c r="AE47" s="51">
         <v>45.98</v>
       </c>
-      <c r="AF47" s="53">
+      <c r="AF47" s="51">
         <v>65.31</v>
       </c>
-      <c r="AG47" s="53">
+      <c r="AG47" s="51">
         <v>54.78</v>
       </c>
-      <c r="AH47" s="53">
+      <c r="AH47" s="51">
         <v>63.95</v>
       </c>
-      <c r="AI47" s="53">
+      <c r="AI47" s="51">
         <v>68.290000000000006</v>
       </c>
-      <c r="AJ47" s="53">
+      <c r="AJ47" s="51">
         <v>73.64</v>
       </c>
-      <c r="AK47" s="53">
+      <c r="AK47" s="51">
         <v>29.12</v>
       </c>
-      <c r="AL47" s="53">
+      <c r="AL47" s="51">
         <v>51</v>
       </c>
-      <c r="AM47" s="53">
+      <c r="AM47" s="51">
         <v>32.24</v>
       </c>
-      <c r="AN47" s="54">
+      <c r="AN47" s="52">
         <v>17.29</v>
       </c>
-      <c r="AO47" s="47">
+      <c r="AO47" s="45">
         <f t="shared" si="0"/>
         <v>42.957999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="27">
         <v>53.203500000000005</v>
       </c>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="32" t="s">
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="T48" s="32" t="s">
+      <c r="T48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="U48" s="52">
+      <c r="U48" s="50">
         <v>25.85</v>
       </c>
-      <c r="V48" s="53">
+      <c r="V48" s="51">
         <v>15.22</v>
       </c>
-      <c r="W48" s="53">
+      <c r="W48" s="51">
         <v>7.13</v>
       </c>
-      <c r="X48" s="53">
+      <c r="X48" s="51">
         <v>0</v>
       </c>
-      <c r="Y48" s="53">
+      <c r="Y48" s="51">
         <v>-2.92</v>
       </c>
-      <c r="Z48" s="53">
+      <c r="Z48" s="51">
         <v>19.25</v>
       </c>
-      <c r="AA48" s="53">
+      <c r="AA48" s="51">
         <v>28.25</v>
       </c>
-      <c r="AB48" s="53">
+      <c r="AB48" s="51">
         <v>23.02</v>
       </c>
-      <c r="AC48" s="53">
+      <c r="AC48" s="51">
         <v>0</v>
       </c>
-      <c r="AD48" s="53">
+      <c r="AD48" s="51">
         <v>-0.1</v>
       </c>
-      <c r="AE48" s="53">
+      <c r="AE48" s="51">
         <v>1.01</v>
       </c>
-      <c r="AF48" s="53">
+      <c r="AF48" s="51">
         <v>0</v>
       </c>
-      <c r="AG48" s="53">
+      <c r="AG48" s="51">
         <v>9.81</v>
       </c>
-      <c r="AH48" s="53">
+      <c r="AH48" s="51">
         <v>7.49</v>
       </c>
-      <c r="AI48" s="53">
+      <c r="AI48" s="51">
         <v>20.41</v>
       </c>
-      <c r="AJ48" s="53">
+      <c r="AJ48" s="51">
         <v>19.829999999999998</v>
       </c>
-      <c r="AK48" s="53">
+      <c r="AK48" s="51">
         <v>15.52</v>
       </c>
-      <c r="AL48" s="53">
+      <c r="AL48" s="51">
         <v>23.44</v>
       </c>
-      <c r="AM48" s="53">
+      <c r="AM48" s="51">
         <v>12.21</v>
       </c>
-      <c r="AN48" s="54">
+      <c r="AN48" s="52">
         <v>15.92</v>
       </c>
-      <c r="AO48" s="47">
+      <c r="AO48" s="45">
         <f t="shared" si="0"/>
         <v>12.067</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="27">
         <v>61.832500000000003</v>
       </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="32" t="s">
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="T49" s="32" t="s">
+      <c r="T49" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="U49" s="52">
+      <c r="U49" s="50">
         <v>-1.39</v>
       </c>
-      <c r="V49" s="53">
+      <c r="V49" s="51">
         <v>0</v>
       </c>
-      <c r="W49" s="53">
+      <c r="W49" s="51">
         <v>20.55</v>
       </c>
-      <c r="X49" s="53">
+      <c r="X49" s="51">
         <v>-0.08</v>
       </c>
-      <c r="Y49" s="53">
+      <c r="Y49" s="51">
         <v>24.86</v>
       </c>
-      <c r="Z49" s="53">
+      <c r="Z49" s="51">
         <v>14.35</v>
       </c>
-      <c r="AA49" s="53">
+      <c r="AA49" s="51">
         <v>24.95</v>
       </c>
-      <c r="AB49" s="53">
+      <c r="AB49" s="51">
         <v>49.94</v>
       </c>
-      <c r="AC49" s="53">
+      <c r="AC49" s="51">
         <v>18.66</v>
       </c>
-      <c r="AD49" s="53">
+      <c r="AD49" s="51">
         <v>0</v>
       </c>
-      <c r="AE49" s="53">
+      <c r="AE49" s="51">
         <v>9.74</v>
       </c>
-      <c r="AF49" s="53">
+      <c r="AF49" s="51">
         <v>5.45</v>
       </c>
-      <c r="AG49" s="53">
+      <c r="AG49" s="51">
         <v>22.75</v>
       </c>
-      <c r="AH49" s="53">
+      <c r="AH49" s="51">
         <v>13.4</v>
       </c>
-      <c r="AI49" s="53">
+      <c r="AI49" s="51">
         <v>18.52</v>
       </c>
-      <c r="AJ49" s="53">
+      <c r="AJ49" s="51">
         <v>24.18</v>
       </c>
-      <c r="AK49" s="53">
+      <c r="AK49" s="51">
         <v>24.43</v>
       </c>
-      <c r="AL49" s="53">
+      <c r="AL49" s="51">
         <v>29.4</v>
       </c>
-      <c r="AM49" s="53">
+      <c r="AM49" s="51">
         <v>11.7</v>
       </c>
-      <c r="AN49" s="54">
+      <c r="AN49" s="52">
         <v>33.21</v>
       </c>
-      <c r="AO49" s="47">
+      <c r="AO49" s="45">
         <f t="shared" si="0"/>
         <v>17.230999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="27">
         <v>66.406499999999994</v>
       </c>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="33" t="s">
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="T50" s="33" t="s">
+      <c r="T50" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="U50" s="55">
+      <c r="U50" s="53">
         <v>47.88</v>
       </c>
-      <c r="V50" s="56">
+      <c r="V50" s="54">
         <v>64.97</v>
       </c>
-      <c r="W50" s="56">
+      <c r="W50" s="54">
         <v>35.729999999999997</v>
       </c>
-      <c r="X50" s="56">
+      <c r="X50" s="54">
         <v>40.83</v>
       </c>
-      <c r="Y50" s="56">
+      <c r="Y50" s="54">
         <v>46.94</v>
       </c>
-      <c r="Z50" s="56">
+      <c r="Z50" s="54">
         <v>100</v>
       </c>
-      <c r="AA50" s="56">
+      <c r="AA50" s="54">
         <v>36.78</v>
       </c>
-      <c r="AB50" s="56">
+      <c r="AB50" s="54">
         <v>48.66</v>
       </c>
-      <c r="AC50" s="56">
+      <c r="AC50" s="54">
         <v>47.16</v>
       </c>
-      <c r="AD50" s="56">
+      <c r="AD50" s="54">
         <v>70.7</v>
       </c>
-      <c r="AE50" s="56">
+      <c r="AE50" s="54">
         <v>50.06</v>
       </c>
-      <c r="AF50" s="56">
+      <c r="AF50" s="54">
         <v>49.85</v>
       </c>
-      <c r="AG50" s="56">
+      <c r="AG50" s="54">
         <v>55.57</v>
       </c>
-      <c r="AH50" s="56">
+      <c r="AH50" s="54">
         <v>36.01</v>
       </c>
-      <c r="AI50" s="56">
+      <c r="AI50" s="54">
         <v>75.14</v>
       </c>
-      <c r="AJ50" s="56">
+      <c r="AJ50" s="54">
         <v>50.81</v>
       </c>
-      <c r="AK50" s="56">
+      <c r="AK50" s="54">
         <v>26.32</v>
       </c>
-      <c r="AL50" s="56">
+      <c r="AL50" s="54">
         <v>75.58</v>
       </c>
-      <c r="AM50" s="56">
+      <c r="AM50" s="54">
         <v>58.8</v>
       </c>
-      <c r="AN50" s="57">
+      <c r="AN50" s="55">
         <v>46.28</v>
       </c>
-      <c r="AO50" s="48">
+      <c r="AO50" s="46">
         <f t="shared" si="0"/>
         <v>53.203500000000005</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="27">
         <v>69.622000000000014</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="19"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="17"/>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="27">
         <v>83.393500000000003</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="27">
         <v>87.70999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="28">
         <v>91.554999999999993</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O13:P30">
